--- a/ontario_daily_cases.xlsx
+++ b/ontario_daily_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69DE669-0FA3-DD48-8439-18D7910894BD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E075AE2-3975-D944-8258-A6508392A48B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
+    <workbookView xWindow="4180" yWindow="5860" windowWidth="27640" windowHeight="16940" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="416">
   <si>
     <t>New cases</t>
   </si>
@@ -1276,6 +1276,9 @@
   </si>
   <si>
     <t>Fri Mar 26 2021</t>
+  </si>
+  <si>
+    <t>Sat Mar 27 2021</t>
   </si>
 </sst>
 </file>
@@ -1634,10 +1637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1917BCDE-B3C2-FF4A-8B47-29076C29F28C}">
-  <dimension ref="A1:C413"/>
+  <dimension ref="A1:C414"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
-      <selection activeCell="E417" sqref="E417"/>
+      <selection activeCell="E413" sqref="E413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6192,6 +6195,18 @@
         <v>1855</v>
       </c>
     </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>415</v>
+      </c>
+      <c r="B414">
+        <v>2453</v>
+      </c>
+      <c r="C414" s="1">
+        <f>AVERAGE(B408:B414)</f>
+        <v>1944.1428571428571</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ontario_daily_cases.xlsx
+++ b/ontario_daily_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E075AE2-3975-D944-8258-A6508392A48B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286E7BC7-73F8-1449-8F4D-34E7256F758D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="5860" windowWidth="27640" windowHeight="16940" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
+    <workbookView xWindow="4180" yWindow="3140" windowWidth="27640" windowHeight="16940" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="417">
   <si>
     <t>New cases</t>
   </si>
@@ -1279,6 +1279,9 @@
   </si>
   <si>
     <t>Sat Mar 27 2021</t>
+  </si>
+  <si>
+    <t>Sun Mar 28 2021</t>
   </si>
 </sst>
 </file>
@@ -1637,10 +1640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1917BCDE-B3C2-FF4A-8B47-29076C29F28C}">
-  <dimension ref="A1:C414"/>
+  <dimension ref="A1:C415"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
-      <selection activeCell="E413" sqref="E413"/>
+      <selection activeCell="D422" sqref="D422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6207,6 +6210,18 @@
         <v>1944.1428571428571</v>
       </c>
     </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>416</v>
+      </c>
+      <c r="B415">
+        <v>2448</v>
+      </c>
+      <c r="C415" s="1">
+        <f>AVERAGE(B409:B415)</f>
+        <v>2038</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ontario_daily_cases.xlsx
+++ b/ontario_daily_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286E7BC7-73F8-1449-8F4D-34E7256F758D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9352534-84FB-A642-8EB5-51DCC930BD75}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="3140" windowWidth="27640" windowHeight="16940" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
+    <workbookView xWindow="-38400" yWindow="-780" windowWidth="38400" windowHeight="21140" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="418">
   <si>
     <t>New cases</t>
   </si>
@@ -1282,6 +1282,9 @@
   </si>
   <si>
     <t>Sun Mar 28 2021</t>
+  </si>
+  <si>
+    <t>Mon Mar 29 2021</t>
   </si>
 </sst>
 </file>
@@ -1640,10 +1643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1917BCDE-B3C2-FF4A-8B47-29076C29F28C}">
-  <dimension ref="A1:C415"/>
+  <dimension ref="A1:C416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
-      <selection activeCell="D422" sqref="D422"/>
+      <selection activeCell="G418" sqref="G418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6222,6 +6225,18 @@
         <v>2038</v>
       </c>
     </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>417</v>
+      </c>
+      <c r="B416">
+        <v>2094</v>
+      </c>
+      <c r="C416" s="1">
+        <f>AVERAGE(B410:B416)</f>
+        <v>2094.4285714285716</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ontario_daily_cases.xlsx
+++ b/ontario_daily_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9352534-84FB-A642-8EB5-51DCC930BD75}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEA3173-A34D-F146-9575-BB0E1A6057ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-780" windowWidth="38400" windowHeight="21140" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="419">
   <si>
     <t>New cases</t>
   </si>
@@ -1285,6 +1285,9 @@
   </si>
   <si>
     <t>Mon Mar 29 2021</t>
+  </si>
+  <si>
+    <t>Tue Mar 30 2021</t>
   </si>
 </sst>
 </file>
@@ -1643,10 +1646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1917BCDE-B3C2-FF4A-8B47-29076C29F28C}">
-  <dimension ref="A1:C416"/>
+  <dimension ref="A1:C417"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
-      <selection activeCell="G418" sqref="G418"/>
+      <selection activeCell="F413" sqref="F413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6237,6 +6240,18 @@
         <v>2094.4285714285716</v>
       </c>
     </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>418</v>
+      </c>
+      <c r="B417">
+        <v>2336</v>
+      </c>
+      <c r="C417" s="1">
+        <f>AVERAGE(B411:B417)</f>
+        <v>2207.2857142857142</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ontario_daily_cases.xlsx
+++ b/ontario_daily_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEA3173-A34D-F146-9575-BB0E1A6057ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD9A130-51BF-7645-AE55-CC3B3E72F707}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="420">
   <si>
     <t>New cases</t>
   </si>
@@ -1288,6 +1288,9 @@
   </si>
   <si>
     <t>Tue Mar 30 2021</t>
+  </si>
+  <si>
+    <t>Wed Mar 31 2021</t>
   </si>
 </sst>
 </file>
@@ -1646,10 +1649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1917BCDE-B3C2-FF4A-8B47-29076C29F28C}">
-  <dimension ref="A1:C417"/>
+  <dimension ref="A1:C418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
-      <selection activeCell="F413" sqref="F413"/>
+    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
+      <selection activeCell="G417" sqref="G417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6188,7 +6191,7 @@
         <v>2380</v>
       </c>
       <c r="C412" s="1">
-        <f>AVERAGE(B406:B412)</f>
+        <f t="shared" ref="C412:C418" si="0">AVERAGE(B406:B412)</f>
         <v>1794.4285714285713</v>
       </c>
     </row>
@@ -6200,7 +6203,7 @@
         <v>2169</v>
       </c>
       <c r="C413" s="1">
-        <f>AVERAGE(B407:B413)</f>
+        <f t="shared" si="0"/>
         <v>1855</v>
       </c>
     </row>
@@ -6212,7 +6215,7 @@
         <v>2453</v>
       </c>
       <c r="C414" s="1">
-        <f>AVERAGE(B408:B414)</f>
+        <f t="shared" si="0"/>
         <v>1944.1428571428571</v>
       </c>
     </row>
@@ -6224,7 +6227,7 @@
         <v>2448</v>
       </c>
       <c r="C415" s="1">
-        <f>AVERAGE(B409:B415)</f>
+        <f t="shared" si="0"/>
         <v>2038</v>
       </c>
     </row>
@@ -6236,7 +6239,7 @@
         <v>2094</v>
       </c>
       <c r="C416" s="1">
-        <f>AVERAGE(B410:B416)</f>
+        <f t="shared" si="0"/>
         <v>2094.4285714285716</v>
       </c>
     </row>
@@ -6248,8 +6251,20 @@
         <v>2336</v>
       </c>
       <c r="C417" s="1">
-        <f>AVERAGE(B411:B417)</f>
+        <f t="shared" si="0"/>
         <v>2207.2857142857142</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>419</v>
+      </c>
+      <c r="B418">
+        <v>2333</v>
+      </c>
+      <c r="C418" s="1">
+        <f t="shared" si="0"/>
+        <v>2316.1428571428573</v>
       </c>
     </row>
   </sheetData>

--- a/ontario_daily_cases.xlsx
+++ b/ontario_daily_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD9A130-51BF-7645-AE55-CC3B3E72F707}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69DB3C7-0339-1C41-9BFE-9B866FB53838}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="421">
   <si>
     <t>New cases</t>
   </si>
@@ -1291,6 +1291,9 @@
   </si>
   <si>
     <t>Wed Mar 31 2021</t>
+  </si>
+  <si>
+    <t>Thu Apr 1 2021</t>
   </si>
 </sst>
 </file>
@@ -1649,10 +1652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1917BCDE-B3C2-FF4A-8B47-29076C29F28C}">
-  <dimension ref="A1:C418"/>
+  <dimension ref="A1:C419"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
-      <selection activeCell="G417" sqref="G417"/>
+      <selection activeCell="G420" sqref="G420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6191,7 +6194,7 @@
         <v>2380</v>
       </c>
       <c r="C412" s="1">
-        <f t="shared" ref="C412:C418" si="0">AVERAGE(B406:B412)</f>
+        <f t="shared" ref="C412:C419" si="0">AVERAGE(B406:B412)</f>
         <v>1794.4285714285713</v>
       </c>
     </row>
@@ -6265,6 +6268,18 @@
       <c r="C418" s="1">
         <f t="shared" si="0"/>
         <v>2316.1428571428573</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>420</v>
+      </c>
+      <c r="B419">
+        <v>2557</v>
+      </c>
+      <c r="C419" s="1">
+        <f t="shared" si="0"/>
+        <v>2341.4285714285716</v>
       </c>
     </row>
   </sheetData>

--- a/ontario_daily_cases.xlsx
+++ b/ontario_daily_cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Library/Containers/com.microsoft.Excel/Data/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69DB3C7-0339-1C41-9BFE-9B866FB53838}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A385058B-0A02-904E-9D10-9CF7506F43A7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="423">
   <si>
     <t>New cases</t>
   </si>
@@ -1294,6 +1294,12 @@
   </si>
   <si>
     <t>Thu Apr 1 2021</t>
+  </si>
+  <si>
+    <t>Fri Apr 2 2021</t>
+  </si>
+  <si>
+    <t>Sat Apr 3 2021</t>
   </si>
 </sst>
 </file>
@@ -1652,10 +1658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1917BCDE-B3C2-FF4A-8B47-29076C29F28C}">
-  <dimension ref="A1:C419"/>
+  <dimension ref="A1:C421"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
-      <selection activeCell="G420" sqref="G420"/>
+      <selection activeCell="J421" sqref="J421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6194,7 +6200,7 @@
         <v>2380</v>
       </c>
       <c r="C412" s="1">
-        <f t="shared" ref="C412:C419" si="0">AVERAGE(B406:B412)</f>
+        <f t="shared" ref="C412:C421" si="0">AVERAGE(B406:B412)</f>
         <v>1794.4285714285713</v>
       </c>
     </row>
@@ -6280,6 +6286,30 @@
       <c r="C419" s="1">
         <f t="shared" si="0"/>
         <v>2341.4285714285716</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>421</v>
+      </c>
+      <c r="B420">
+        <v>3089</v>
+      </c>
+      <c r="C420" s="1">
+        <f t="shared" si="0"/>
+        <v>2472.8571428571427</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>422</v>
+      </c>
+      <c r="B421">
+        <v>3009</v>
+      </c>
+      <c r="C421" s="1">
+        <f t="shared" si="0"/>
+        <v>2552.2857142857142</v>
       </c>
     </row>
   </sheetData>

--- a/ontario_daily_cases.xlsx
+++ b/ontario_daily_cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Library/Containers/com.microsoft.Excel/Data/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A385058B-0A02-904E-9D10-9CF7506F43A7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CE4B47-8D69-FF46-9991-8B97F6C65ABF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="425">
   <si>
     <t>New cases</t>
   </si>
@@ -1300,6 +1300,12 @@
   </si>
   <si>
     <t>Sat Apr 3 2021</t>
+  </si>
+  <si>
+    <t>Sun Apr 4 2021</t>
+  </si>
+  <si>
+    <t>Mon Apr 5 2021</t>
   </si>
 </sst>
 </file>
@@ -1658,10 +1664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1917BCDE-B3C2-FF4A-8B47-29076C29F28C}">
-  <dimension ref="A1:C421"/>
+  <dimension ref="A1:C423"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
-      <selection activeCell="J421" sqref="J421"/>
+      <selection activeCell="N426" sqref="N426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6200,7 +6206,7 @@
         <v>2380</v>
       </c>
       <c r="C412" s="1">
-        <f t="shared" ref="C412:C421" si="0">AVERAGE(B406:B412)</f>
+        <f t="shared" ref="C412:C423" si="0">AVERAGE(B406:B412)</f>
         <v>1794.4285714285713</v>
       </c>
     </row>
@@ -6310,6 +6316,30 @@
       <c r="C421" s="1">
         <f t="shared" si="0"/>
         <v>2552.2857142857142</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>423</v>
+      </c>
+      <c r="B422">
+        <v>3041</v>
+      </c>
+      <c r="C422" s="1">
+        <f t="shared" si="0"/>
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>424</v>
+      </c>
+      <c r="B423">
+        <v>2938</v>
+      </c>
+      <c r="C423" s="1">
+        <f t="shared" si="0"/>
+        <v>2757.5714285714284</v>
       </c>
     </row>
   </sheetData>

--- a/ontario_daily_cases.xlsx
+++ b/ontario_daily_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CE4B47-8D69-FF46-9991-8B97F6C65ABF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4FB7F4-B3C7-FC44-AA17-E426BFEDC2FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="426">
   <si>
     <t>New cases</t>
   </si>
@@ -1306,6 +1306,9 @@
   </si>
   <si>
     <t>Mon Apr 5 2021</t>
+  </si>
+  <si>
+    <t>Tue Apr 6 2021</t>
   </si>
 </sst>
 </file>
@@ -1664,10 +1667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1917BCDE-B3C2-FF4A-8B47-29076C29F28C}">
-  <dimension ref="A1:C423"/>
+  <dimension ref="A1:C424"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
-      <selection activeCell="N426" sqref="N426"/>
+      <selection activeCell="E422" sqref="E422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6206,7 +6209,7 @@
         <v>2380</v>
       </c>
       <c r="C412" s="1">
-        <f t="shared" ref="C412:C423" si="0">AVERAGE(B406:B412)</f>
+        <f t="shared" ref="C412:C424" si="0">AVERAGE(B406:B412)</f>
         <v>1794.4285714285713</v>
       </c>
     </row>
@@ -6340,6 +6343,18 @@
       <c r="C423" s="1">
         <f t="shared" si="0"/>
         <v>2757.5714285714284</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>425</v>
+      </c>
+      <c r="B424">
+        <v>3065</v>
+      </c>
+      <c r="C424" s="1">
+        <f t="shared" si="0"/>
+        <v>2861.7142857142858</v>
       </c>
     </row>
   </sheetData>

--- a/ontario_daily_cases.xlsx
+++ b/ontario_daily_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4FB7F4-B3C7-FC44-AA17-E426BFEDC2FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1F4AD7-19DF-874C-BC16-5EA9DB2BAB66}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="427">
   <si>
     <t>New cases</t>
   </si>
@@ -1309,6 +1309,9 @@
   </si>
   <si>
     <t>Tue Apr 6 2021</t>
+  </si>
+  <si>
+    <t>Wed Apr 7 2021</t>
   </si>
 </sst>
 </file>
@@ -1667,10 +1670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1917BCDE-B3C2-FF4A-8B47-29076C29F28C}">
-  <dimension ref="A1:C424"/>
+  <dimension ref="A1:C425"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
-      <selection activeCell="E422" sqref="E422"/>
+      <selection activeCell="F422" sqref="F422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6209,7 +6212,7 @@
         <v>2380</v>
       </c>
       <c r="C412" s="1">
-        <f t="shared" ref="C412:C424" si="0">AVERAGE(B406:B412)</f>
+        <f t="shared" ref="C412:C425" si="0">AVERAGE(B406:B412)</f>
         <v>1794.4285714285713</v>
       </c>
     </row>
@@ -6355,6 +6358,18 @@
       <c r="C424" s="1">
         <f t="shared" si="0"/>
         <v>2861.7142857142858</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>426</v>
+      </c>
+      <c r="B425">
+        <v>3215</v>
+      </c>
+      <c r="C425" s="1">
+        <f t="shared" si="0"/>
+        <v>2987.7142857142858</v>
       </c>
     </row>
   </sheetData>

--- a/ontario_daily_cases.xlsx
+++ b/ontario_daily_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1F4AD7-19DF-874C-BC16-5EA9DB2BAB66}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A47D39-24B3-0A46-BB3A-F82CAAAB72B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="428">
   <si>
     <t>New cases</t>
   </si>
@@ -1312,6 +1312,9 @@
   </si>
   <si>
     <t>Wed Apr 7 2021</t>
+  </si>
+  <si>
+    <t>Thu Apr 8 2021</t>
   </si>
 </sst>
 </file>
@@ -1670,10 +1673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1917BCDE-B3C2-FF4A-8B47-29076C29F28C}">
-  <dimension ref="A1:C425"/>
+  <dimension ref="A1:C426"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
-      <selection activeCell="F422" sqref="F422"/>
+      <selection activeCell="E426" sqref="E426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6212,7 +6215,7 @@
         <v>2380</v>
       </c>
       <c r="C412" s="1">
-        <f t="shared" ref="C412:C425" si="0">AVERAGE(B406:B412)</f>
+        <f t="shared" ref="C412:C426" si="0">AVERAGE(B406:B412)</f>
         <v>1794.4285714285713</v>
       </c>
     </row>
@@ -6370,6 +6373,18 @@
       <c r="C425" s="1">
         <f t="shared" si="0"/>
         <v>2987.7142857142858</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>427</v>
+      </c>
+      <c r="B426">
+        <v>3295</v>
+      </c>
+      <c r="C426" s="1">
+        <f t="shared" si="0"/>
+        <v>3093.1428571428573</v>
       </c>
     </row>
   </sheetData>

--- a/ontario_daily_cases.xlsx
+++ b/ontario_daily_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A47D39-24B3-0A46-BB3A-F82CAAAB72B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3199538-01BC-014F-9150-6E5B4A907696}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="429">
   <si>
     <t>New cases</t>
   </si>
@@ -1315,6 +1315,9 @@
   </si>
   <si>
     <t>Thu Apr 8 2021</t>
+  </si>
+  <si>
+    <t>Fri Apr 9 2021</t>
   </si>
 </sst>
 </file>
@@ -1673,10 +1676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1917BCDE-B3C2-FF4A-8B47-29076C29F28C}">
-  <dimension ref="A1:C426"/>
+  <dimension ref="A1:C427"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
-      <selection activeCell="E426" sqref="E426"/>
+      <selection activeCell="E425" sqref="E425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6215,7 +6218,7 @@
         <v>2380</v>
       </c>
       <c r="C412" s="1">
-        <f t="shared" ref="C412:C426" si="0">AVERAGE(B406:B412)</f>
+        <f t="shared" ref="C412:C427" si="0">AVERAGE(B406:B412)</f>
         <v>1794.4285714285713</v>
       </c>
     </row>
@@ -6385,6 +6388,18 @@
       <c r="C426" s="1">
         <f t="shared" si="0"/>
         <v>3093.1428571428573</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>428</v>
+      </c>
+      <c r="B427">
+        <v>4227</v>
+      </c>
+      <c r="C427" s="1">
+        <f t="shared" si="0"/>
+        <v>3255.7142857142858</v>
       </c>
     </row>
   </sheetData>

--- a/ontario_daily_cases.xlsx
+++ b/ontario_daily_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3199538-01BC-014F-9150-6E5B4A907696}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FFFD0F-6CE9-3B4B-A78C-96ED1AB98D80}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="430">
   <si>
     <t>New cases</t>
   </si>
@@ -1318,6 +1318,9 @@
   </si>
   <si>
     <t>Fri Apr 9 2021</t>
+  </si>
+  <si>
+    <t>Sat Apr 10 2021</t>
   </si>
 </sst>
 </file>
@@ -1676,10 +1679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1917BCDE-B3C2-FF4A-8B47-29076C29F28C}">
-  <dimension ref="A1:C427"/>
+  <dimension ref="A1:C428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
-      <selection activeCell="E425" sqref="E425"/>
+    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="I420" sqref="I420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6218,7 +6221,7 @@
         <v>2380</v>
       </c>
       <c r="C412" s="1">
-        <f t="shared" ref="C412:C427" si="0">AVERAGE(B406:B412)</f>
+        <f t="shared" ref="C412:C428" si="0">AVERAGE(B406:B412)</f>
         <v>1794.4285714285713</v>
       </c>
     </row>
@@ -6400,6 +6403,18 @@
       <c r="C427" s="1">
         <f t="shared" si="0"/>
         <v>3255.7142857142858</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>429</v>
+      </c>
+      <c r="B428">
+        <v>3813</v>
+      </c>
+      <c r="C428" s="1">
+        <f t="shared" si="0"/>
+        <v>3370.5714285714284</v>
       </c>
     </row>
   </sheetData>

--- a/ontario_daily_cases.xlsx
+++ b/ontario_daily_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FFFD0F-6CE9-3B4B-A78C-96ED1AB98D80}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7060B6-9A2F-7C41-BBB1-A512592A663D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="431">
   <si>
     <t>New cases</t>
   </si>
@@ -1321,6 +1321,9 @@
   </si>
   <si>
     <t>Sat Apr 10 2021</t>
+  </si>
+  <si>
+    <t>Sun Apr 11 2021</t>
   </si>
 </sst>
 </file>
@@ -1679,10 +1682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1917BCDE-B3C2-FF4A-8B47-29076C29F28C}">
-  <dimension ref="A1:C428"/>
+  <dimension ref="A1:C429"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="I420" sqref="I420"/>
+      <selection activeCell="E428" sqref="E428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6221,7 +6224,7 @@
         <v>2380</v>
       </c>
       <c r="C412" s="1">
-        <f t="shared" ref="C412:C428" si="0">AVERAGE(B406:B412)</f>
+        <f t="shared" ref="C412:C429" si="0">AVERAGE(B406:B412)</f>
         <v>1794.4285714285713</v>
       </c>
     </row>
@@ -6415,6 +6418,18 @@
       <c r="C428" s="1">
         <f t="shared" si="0"/>
         <v>3370.5714285714284</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>430</v>
+      </c>
+      <c r="B429">
+        <v>4456</v>
+      </c>
+      <c r="C429" s="1">
+        <f t="shared" si="0"/>
+        <v>3572.7142857142858</v>
       </c>
     </row>
   </sheetData>

--- a/ontario_daily_cases.xlsx
+++ b/ontario_daily_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7060B6-9A2F-7C41-BBB1-A512592A663D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDD1675-E4E3-EF45-B422-4B3E33F3DF35}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="432">
   <si>
     <t>New cases</t>
   </si>
@@ -1324,6 +1324,9 @@
   </si>
   <si>
     <t>Sun Apr 11 2021</t>
+  </si>
+  <si>
+    <t>Mon Apr 12 2021</t>
   </si>
 </sst>
 </file>
@@ -1682,10 +1685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1917BCDE-B3C2-FF4A-8B47-29076C29F28C}">
-  <dimension ref="A1:C429"/>
+  <dimension ref="A1:C431"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="E428" sqref="E428"/>
+      <selection activeCell="J424" sqref="J424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6224,7 +6227,7 @@
         <v>2380</v>
       </c>
       <c r="C412" s="1">
-        <f t="shared" ref="C412:C429" si="0">AVERAGE(B406:B412)</f>
+        <f t="shared" ref="C412:C431" si="0">AVERAGE(B406:B412)</f>
         <v>1794.4285714285713</v>
       </c>
     </row>
@@ -6431,6 +6434,21 @@
         <f t="shared" si="0"/>
         <v>3572.7142857142858</v>
       </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>431</v>
+      </c>
+      <c r="B430">
+        <v>4401</v>
+      </c>
+      <c r="C430" s="1">
+        <f t="shared" si="0"/>
+        <v>3781.7142857142858</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C431" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ontario_daily_cases.xlsx
+++ b/ontario_daily_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDD1675-E4E3-EF45-B422-4B3E33F3DF35}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EA7B71-4682-D843-9729-005AB24D26F9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="433">
   <si>
     <t>New cases</t>
   </si>
@@ -1327,6 +1327,9 @@
   </si>
   <si>
     <t>Mon Apr 12 2021</t>
+  </si>
+  <si>
+    <t>Tue Apr 13 2021</t>
   </si>
 </sst>
 </file>
@@ -1688,7 +1691,7 @@
   <dimension ref="A1:C431"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="J424" sqref="J424"/>
+      <selection activeCell="G425" sqref="G425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6448,7 +6451,16 @@
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C431" s="1"/>
+      <c r="A431" t="s">
+        <v>432</v>
+      </c>
+      <c r="B431">
+        <v>3670</v>
+      </c>
+      <c r="C431" s="1">
+        <f t="shared" si="0"/>
+        <v>3868.1428571428573</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ontario_daily_cases.xlsx
+++ b/ontario_daily_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EA7B71-4682-D843-9729-005AB24D26F9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B82D28-D688-5246-BD08-98E524240BCD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26040" windowHeight="19620" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="434">
   <si>
     <t>New cases</t>
   </si>
@@ -1330,6 +1330,9 @@
   </si>
   <si>
     <t>Tue Apr 13 2021</t>
+  </si>
+  <si>
+    <t>Wed Apr 14 2021</t>
   </si>
 </sst>
 </file>
@@ -1688,10 +1691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1917BCDE-B3C2-FF4A-8B47-29076C29F28C}">
-  <dimension ref="A1:C431"/>
+  <dimension ref="A1:C432"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="G425" sqref="G425"/>
+      <selection activeCell="E428" sqref="E428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6230,7 +6233,7 @@
         <v>2380</v>
       </c>
       <c r="C412" s="1">
-        <f t="shared" ref="C412:C431" si="0">AVERAGE(B406:B412)</f>
+        <f t="shared" ref="C412:C432" si="0">AVERAGE(B406:B412)</f>
         <v>1794.4285714285713</v>
       </c>
     </row>
@@ -6460,6 +6463,18 @@
       <c r="C431" s="1">
         <f t="shared" si="0"/>
         <v>3868.1428571428573</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>433</v>
+      </c>
+      <c r="B432">
+        <v>4156</v>
+      </c>
+      <c r="C432" s="1">
+        <f t="shared" si="0"/>
+        <v>4002.5714285714284</v>
       </c>
     </row>
   </sheetData>

--- a/ontario_daily_cases.xlsx
+++ b/ontario_daily_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B82D28-D688-5246-BD08-98E524240BCD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A63A46-A9CC-1B4A-9BCB-127B660CA3AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26040" windowHeight="19620" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
+    <workbookView xWindow="-34180" yWindow="-780" windowWidth="26040" windowHeight="19620" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="435">
   <si>
     <t>New cases</t>
   </si>
@@ -1333,6 +1333,9 @@
   </si>
   <si>
     <t>Wed Apr 14 2021</t>
+  </si>
+  <si>
+    <t>Thu Apr 15 2021</t>
   </si>
 </sst>
 </file>
@@ -1691,10 +1694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1917BCDE-B3C2-FF4A-8B47-29076C29F28C}">
-  <dimension ref="A1:C432"/>
+  <dimension ref="A1:C434"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="E428" sqref="E428"/>
+      <selection activeCell="K433" sqref="K433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6233,7 +6236,7 @@
         <v>2380</v>
       </c>
       <c r="C412" s="1">
-        <f t="shared" ref="C412:C432" si="0">AVERAGE(B406:B412)</f>
+        <f t="shared" ref="C412:C434" si="0">AVERAGE(B406:B412)</f>
         <v>1794.4285714285713</v>
       </c>
     </row>
@@ -6476,6 +6479,21 @@
         <f t="shared" si="0"/>
         <v>4002.5714285714284</v>
       </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>434</v>
+      </c>
+      <c r="B433">
+        <v>4736</v>
+      </c>
+      <c r="C433" s="1">
+        <f t="shared" si="0"/>
+        <v>4208.4285714285716</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C434" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ontario_daily_cases.xlsx
+++ b/ontario_daily_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A63A46-A9CC-1B4A-9BCB-127B660CA3AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AD4E8C-BF3A-A643-A423-28D62B9C8453}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34180" yWindow="-780" windowWidth="26040" windowHeight="19620" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="437">
   <si>
     <t>New cases</t>
   </si>
@@ -1336,6 +1336,12 @@
   </si>
   <si>
     <t>Thu Apr 15 2021</t>
+  </si>
+  <si>
+    <t>Total Cases</t>
+  </si>
+  <si>
+    <t>Fri Apr 16 2021</t>
   </si>
 </sst>
 </file>
@@ -1694,10 +1700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1917BCDE-B3C2-FF4A-8B47-29076C29F28C}">
-  <dimension ref="A1:C434"/>
+  <dimension ref="A1:D434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="K433" sqref="K433"/>
+    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
+      <selection activeCell="I430" sqref="I430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1705,9 +1711,10 @@
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>412</v>
       </c>
@@ -1717,8 +1724,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1728,8 +1738,12 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <f t="shared" ref="D2:D65" si="0">(D3-B3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1739,8 +1753,12 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1750,8 +1768,12 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1761,8 +1783,12 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1772,8 +1798,12 @@
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1783,8 +1813,12 @@
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1794,8 +1828,12 @@
       <c r="C8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1805,8 +1843,12 @@
       <c r="C9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1816,8 +1858,12 @@
       <c r="C10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1827,8 +1873,12 @@
       <c r="C11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1838,8 +1888,12 @@
       <c r="C12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1849,8 +1903,12 @@
       <c r="C13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1860,8 +1918,12 @@
       <c r="C14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1871,8 +1933,12 @@
       <c r="C15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1882,8 +1948,12 @@
       <c r="C16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1893,8 +1963,12 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1904,8 +1978,12 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1915,8 +1993,12 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1926,8 +2008,12 @@
       <c r="C20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1937,8 +2023,12 @@
       <c r="C21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1948,8 +2038,12 @@
       <c r="C22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1959,8 +2053,12 @@
       <c r="C23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1970,8 +2068,12 @@
       <c r="C24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1981,8 +2083,12 @@
       <c r="C25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1992,8 +2098,12 @@
       <c r="C26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2003,8 +2113,12 @@
       <c r="C27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2014,8 +2128,12 @@
       <c r="C28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2025,8 +2143,12 @@
       <c r="C29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -2036,8 +2158,12 @@
       <c r="C30">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -2047,8 +2173,12 @@
       <c r="C31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -2058,8 +2188,12 @@
       <c r="C32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2069,8 +2203,12 @@
       <c r="C33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -2080,8 +2218,12 @@
       <c r="C34">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -2091,8 +2233,12 @@
       <c r="C35">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2102,8 +2248,12 @@
       <c r="C36">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -2113,8 +2263,12 @@
       <c r="C37">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -2124,8 +2278,12 @@
       <c r="C38">
         <v>20</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -2135,8 +2293,12 @@
       <c r="C39">
         <v>22</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -2146,8 +2308,12 @@
       <c r="C40">
         <v>25</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -2157,8 +2323,12 @@
       <c r="C41">
         <v>28</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -2168,8 +2338,12 @@
       <c r="C42">
         <v>34</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -2179,8 +2353,12 @@
       <c r="C43">
         <v>39</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -2190,8 +2368,12 @@
       <c r="C44">
         <v>40</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -2201,8 +2383,12 @@
       <c r="C45">
         <v>47</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>502</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -2212,8 +2398,12 @@
       <c r="C46">
         <v>57</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>587</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -2223,8 +2413,12 @@
       <c r="C47">
         <v>68</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>687</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -2234,8 +2428,12 @@
       <c r="C48">
         <v>86</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>857</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -2245,8 +2443,12 @@
       <c r="C49">
         <v>96</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>992</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -2256,8 +2458,12 @@
       <c r="C50">
         <v>110</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -2267,8 +2473,12 @@
       <c r="C51">
         <v>133</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -2278,8 +2488,12 @@
       <c r="C52">
         <v>172</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -2289,8 +2503,12 @@
       <c r="C53">
         <v>197</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -2300,8 +2518,12 @@
       <c r="C54">
         <v>243</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -2311,8 +2533,12 @@
       <c r="C55">
         <v>276</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -2322,8 +2548,12 @@
       <c r="C56">
         <v>323</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -2333,8 +2563,12 @@
       <c r="C57">
         <v>355</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>3629</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -2344,8 +2578,12 @@
       <c r="C58">
         <v>383</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -2355,8 +2593,12 @@
       <c r="C59">
         <v>377</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -2366,8 +2608,12 @@
       <c r="C60">
         <v>394</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>4725</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -2377,8 +2623,12 @@
       <c r="C61">
         <v>412</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -2388,8 +2638,12 @@
       <c r="C62">
         <v>424</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>5758</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -2399,8 +2653,12 @@
       <c r="C63">
         <v>426</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>6236</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2410,8 +2668,12 @@
       <c r="C64">
         <v>431</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>6647</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -2421,8 +2683,12 @@
       <c r="C65">
         <v>430</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>7048</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -2432,8 +2698,12 @@
       <c r="C66">
         <v>446</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66">
+        <f t="shared" ref="D66:D129" si="1">(D67-B67)</f>
+        <v>7469</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -2443,8 +2713,12 @@
       <c r="C67">
         <v>461</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D67">
+        <f t="shared" si="1"/>
+        <v>7952</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -2454,8 +2728,12 @@
       <c r="C68">
         <v>453</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68">
+        <f t="shared" si="1"/>
+        <v>8446</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -2465,8 +2743,12 @@
       <c r="C69">
         <v>457</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>8960</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -2476,8 +2758,12 @@
       <c r="C70">
         <v>470</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>9524</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -2487,8 +2773,12 @@
       <c r="C71">
         <v>480</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>10009</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -2498,8 +2788,12 @@
       <c r="C72">
         <v>504</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>10577</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -2509,8 +2803,12 @@
       <c r="C73">
         <v>531</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>11183</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -2520,8 +2818,12 @@
       <c r="C74">
         <v>540</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>11734</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -2531,8 +2833,12 @@
       <c r="C75">
         <v>543</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>12244</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -2542,8 +2848,12 @@
       <c r="C76">
         <v>560</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>12878</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -2553,8 +2863,12 @@
       <c r="C77">
         <v>571</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>13518</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -2564,8 +2878,12 @@
       <c r="C78">
         <v>569</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D78">
+        <f t="shared" si="1"/>
+        <v>13994</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -2575,8 +2893,12 @@
       <c r="C79">
         <v>551</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D79">
+        <f t="shared" si="1"/>
+        <v>14431</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -2586,8 +2908,12 @@
       <c r="C80">
         <v>525</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D80">
+        <f t="shared" si="1"/>
+        <v>14855</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -2597,8 +2923,12 @@
       <c r="C81">
         <v>521</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D81">
+        <f t="shared" si="1"/>
+        <v>15380</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -2608,8 +2938,12 @@
       <c r="C82">
         <v>498</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D82">
+        <f t="shared" si="1"/>
+        <v>15727</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -2619,8 +2953,12 @@
       <c r="C83">
         <v>473</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D83">
+        <f t="shared" si="1"/>
+        <v>16186</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -2630,8 +2968,12 @@
       <c r="C84">
         <v>441</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D84">
+        <f t="shared" si="1"/>
+        <v>16607</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -2641,8 +2983,12 @@
       <c r="C85">
         <v>446</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D85">
+        <f t="shared" si="1"/>
+        <v>17118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -2652,8 +2998,12 @@
       <c r="C86">
         <v>446</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D86">
+        <f t="shared" si="1"/>
+        <v>17552</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -2663,8 +3013,12 @@
       <c r="C87">
         <v>438</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D87">
+        <f t="shared" si="1"/>
+        <v>17922</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -2674,8 +3028,12 @@
       <c r="C88">
         <v>418</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D88">
+        <f t="shared" si="1"/>
+        <v>18309</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -2685,8 +3043,12 @@
       <c r="C89">
         <v>428</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D89">
+        <f t="shared" si="1"/>
+        <v>18721</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -2696,8 +3058,12 @@
       <c r="C90">
         <v>419</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D90">
+        <f t="shared" si="1"/>
+        <v>19120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -2707,8 +3073,12 @@
       <c r="C91">
         <v>427</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D91">
+        <f t="shared" si="1"/>
+        <v>19597</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -2718,8 +3088,12 @@
       <c r="C92">
         <v>404</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D92">
+        <f t="shared" si="1"/>
+        <v>19943</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -2729,8 +3103,12 @@
       <c r="C93">
         <v>384</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D93">
+        <f t="shared" si="1"/>
+        <v>20237</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -2740,8 +3118,12 @@
       <c r="C94">
         <v>375</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D94">
+        <f t="shared" si="1"/>
+        <v>20545</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -2751,8 +3133,12 @@
       <c r="C95">
         <v>371</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D95">
+        <f t="shared" si="1"/>
+        <v>20906</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -2762,8 +3148,12 @@
       <c r="C96">
         <v>359</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D96">
+        <f t="shared" si="1"/>
+        <v>21235</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -2773,8 +3163,12 @@
       <c r="C97">
         <v>351</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D97">
+        <f t="shared" si="1"/>
+        <v>21580</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -2784,8 +3178,12 @@
       <c r="C98">
         <v>332</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D98">
+        <f t="shared" si="1"/>
+        <v>21921</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -2795,8 +3193,12 @@
       <c r="C99">
         <v>338</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D99">
+        <f t="shared" si="1"/>
+        <v>22312</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -2806,8 +3208,12 @@
       <c r="C100">
         <v>345</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D100">
+        <f t="shared" si="1"/>
+        <v>22652</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -2817,8 +3223,12 @@
       <c r="C101">
         <v>344</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D101">
+        <f t="shared" si="1"/>
+        <v>22956</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -2828,8 +3238,12 @@
       <c r="C102">
         <v>354</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D102">
+        <f t="shared" si="1"/>
+        <v>23383</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -2839,8 +3253,12 @@
       <c r="C103">
         <v>363</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D103">
+        <f t="shared" si="1"/>
+        <v>23773</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -2850,8 +3268,12 @@
       <c r="C104">
         <v>372</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D104">
+        <f t="shared" si="1"/>
+        <v>24186</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -2861,8 +3283,12 @@
       <c r="C105">
         <v>387</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D105">
+        <f t="shared" si="1"/>
+        <v>24627</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -2872,8 +3298,12 @@
       <c r="C106">
         <v>390</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D106">
+        <f t="shared" si="1"/>
+        <v>25039</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -2883,8 +3313,12 @@
       <c r="C107">
         <v>407</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D107">
+        <f t="shared" si="1"/>
+        <v>25499</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -2894,8 +3328,12 @@
       <c r="C108">
         <v>421</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D108">
+        <f t="shared" si="1"/>
+        <v>25903</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -2905,8 +3343,12 @@
       <c r="C109">
         <v>401</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D109">
+        <f t="shared" si="1"/>
+        <v>26190</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -2916,8 +3358,12 @@
       <c r="C110">
         <v>387</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D110">
+        <f t="shared" si="1"/>
+        <v>26482</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -2927,8 +3373,12 @@
       <c r="C111">
         <v>383</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D111">
+        <f t="shared" si="1"/>
+        <v>26865</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -2938,8 +3388,12 @@
       <c r="C112">
         <v>369</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D112">
+        <f t="shared" si="1"/>
+        <v>27209</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -2949,8 +3403,12 @@
       <c r="C113">
         <v>356</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D113">
+        <f t="shared" si="1"/>
+        <v>27532</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -2960,8 +3418,12 @@
       <c r="C114">
         <v>337</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D114">
+        <f t="shared" si="1"/>
+        <v>27858</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -2971,8 +3433,12 @@
       <c r="C115">
         <v>337</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D115">
+        <f t="shared" si="1"/>
+        <v>28262</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -2982,8 +3448,12 @@
       <c r="C116">
         <v>360</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D116">
+        <f t="shared" si="1"/>
+        <v>28708</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -2993,8 +3463,12 @@
       <c r="C117">
         <v>366</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D117">
+        <f t="shared" si="1"/>
+        <v>29046</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -3004,8 +3478,12 @@
       <c r="C118">
         <v>362</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D118">
+        <f t="shared" si="1"/>
+        <v>29402</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -3015,8 +3493,12 @@
       <c r="C119">
         <v>362</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D119">
+        <f t="shared" si="1"/>
+        <v>29746</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -3026,8 +3508,12 @@
       <c r="C120">
         <v>381</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D120">
+        <f t="shared" si="1"/>
+        <v>30201</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -3037,8 +3523,12 @@
       <c r="C121">
         <v>394</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D121">
+        <f t="shared" si="1"/>
+        <v>30616</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -3048,8 +3538,12 @@
       <c r="C122">
         <v>371</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D122">
+        <f t="shared" si="1"/>
+        <v>30859</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -3059,8 +3553,12 @@
       <c r="C123">
         <v>340</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D123">
+        <f t="shared" si="1"/>
+        <v>31089</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -3070,8 +3568,12 @@
       <c r="C124">
         <v>328</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D124">
+        <f t="shared" si="1"/>
+        <v>31340</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -3081,8 +3583,12 @@
       <c r="C125">
         <v>306</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D125">
+        <f t="shared" si="1"/>
+        <v>31543</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -3092,8 +3598,12 @@
       <c r="C126">
         <v>283</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D126">
+        <f t="shared" si="1"/>
+        <v>31725</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -3103,8 +3613,12 @@
       <c r="C127">
         <v>256</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D127">
+        <f t="shared" si="1"/>
+        <v>31991</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -3114,8 +3628,12 @@
       <c r="C128">
         <v>225</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D128">
+        <f t="shared" si="1"/>
+        <v>32188</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -3125,8 +3643,12 @@
       <c r="C129">
         <v>216</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D129">
+        <f t="shared" si="1"/>
+        <v>32369</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -3136,8 +3658,12 @@
       <c r="C130">
         <v>209</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D130">
+        <f t="shared" ref="D130:D193" si="2">(D131-B131)</f>
+        <v>32553</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -3147,8 +3673,12 @@
       <c r="C131">
         <v>200</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D131">
+        <f t="shared" si="2"/>
+        <v>32743</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -3158,8 +3688,12 @@
       <c r="C132">
         <v>196</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D132">
+        <f t="shared" si="2"/>
+        <v>32916</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -3169,8 +3703,12 @@
       <c r="C133">
         <v>196</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D133">
+        <f t="shared" si="2"/>
+        <v>33094</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -3180,8 +3718,12 @@
       <c r="C134">
         <v>187</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D134">
+        <f t="shared" si="2"/>
+        <v>33300</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -3191,8 +3733,12 @@
       <c r="C135">
         <v>184</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D135">
+        <f t="shared" si="2"/>
+        <v>33475</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -3202,8 +3748,12 @@
       <c r="C136">
         <v>181</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D136">
+        <f t="shared" si="2"/>
+        <v>33636</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -3213,8 +3763,12 @@
       <c r="C137">
         <v>186</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D137">
+        <f t="shared" si="2"/>
+        <v>33852</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -3224,8 +3778,12 @@
       <c r="C138">
         <v>182</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D138">
+        <f t="shared" si="2"/>
+        <v>34015</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -3235,8 +3793,12 @@
       <c r="C139">
         <v>184</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D139">
+        <f t="shared" si="2"/>
+        <v>34204</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -3246,8 +3808,12 @@
       <c r="C140">
         <v>174</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D140">
+        <f t="shared" si="2"/>
+        <v>34315</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -3257,8 +3823,12 @@
       <c r="C141">
         <v>168</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D141">
+        <f t="shared" si="2"/>
+        <v>34475</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -3268,8 +3838,12 @@
       <c r="C142">
         <v>168</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D142">
+        <f t="shared" si="2"/>
+        <v>34653</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -3279,8 +3853,12 @@
       <c r="C143">
         <v>182</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D143">
+        <f t="shared" si="2"/>
+        <v>34910</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>144</v>
       </c>
@@ -3290,8 +3868,12 @@
       <c r="C144">
         <v>174</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D144">
+        <f t="shared" si="2"/>
+        <v>35067</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -3301,8 +3883,12 @@
       <c r="C145">
         <v>172</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D145">
+        <f t="shared" si="2"/>
+        <v>35216</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>146</v>
       </c>
@@ -3312,8 +3898,12 @@
       <c r="C146">
         <v>166</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D146">
+        <f t="shared" si="2"/>
+        <v>35369</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -3323,8 +3913,12 @@
       <c r="C147">
         <v>174</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D147">
+        <f t="shared" si="2"/>
+        <v>35534</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>148</v>
       </c>
@@ -3334,8 +3928,12 @@
       <c r="C148">
         <v>169</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D148">
+        <f t="shared" si="2"/>
+        <v>35655</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -3345,8 +3943,12 @@
       <c r="C149">
         <v>163</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D149">
+        <f t="shared" si="2"/>
+        <v>35793</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>150</v>
       </c>
@@ -3356,8 +3958,12 @@
       <c r="C150">
         <v>148</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D150">
+        <f t="shared" si="2"/>
+        <v>35947</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>151</v>
       </c>
@@ -3367,8 +3973,12 @@
       <c r="C151">
         <v>142</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D151">
+        <f t="shared" si="2"/>
+        <v>36059</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>152</v>
       </c>
@@ -3378,8 +3988,12 @@
       <c r="C152">
         <v>137</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D152">
+        <f t="shared" si="2"/>
+        <v>36177</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>153</v>
       </c>
@@ -3389,8 +4003,12 @@
       <c r="C153">
         <v>140</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D153">
+        <f t="shared" si="2"/>
+        <v>36347</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -3400,8 +4018,12 @@
       <c r="C154">
         <v>133</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D154">
+        <f t="shared" si="2"/>
+        <v>36463</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>155</v>
       </c>
@@ -3411,8 +4033,12 @@
       <c r="C155">
         <v>134</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D155">
+        <f t="shared" si="2"/>
+        <v>36593</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>156</v>
       </c>
@@ -3422,8 +4048,12 @@
       <c r="C156">
         <v>133</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D156">
+        <f t="shared" si="2"/>
+        <v>36722</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>157</v>
       </c>
@@ -3433,8 +4063,12 @@
       <c r="C157">
         <v>127</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D157">
+        <f t="shared" si="2"/>
+        <v>36838</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>158</v>
       </c>
@@ -3444,8 +4078,12 @@
       <c r="C158">
         <v>127</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D158">
+        <f t="shared" si="2"/>
+        <v>36949</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>159</v>
       </c>
@@ -3455,8 +4093,12 @@
       <c r="C159">
         <v>125</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D159">
+        <f t="shared" si="2"/>
+        <v>37051</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>160</v>
       </c>
@@ -3466,8 +4108,12 @@
       <c r="C160">
         <v>116</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D160">
+        <f t="shared" si="2"/>
+        <v>37162</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>161</v>
       </c>
@@ -3477,8 +4123,12 @@
       <c r="C161">
         <v>116</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D161">
+        <f t="shared" si="2"/>
+        <v>37273</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>162</v>
       </c>
@@ -3488,8 +4138,12 @@
       <c r="C162">
         <v>121</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D162">
+        <f t="shared" si="2"/>
+        <v>37439</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>163</v>
       </c>
@@ -3499,8 +4153,12 @@
       <c r="C163">
         <v>126</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D163">
+        <f t="shared" si="2"/>
+        <v>37603</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>164</v>
       </c>
@@ -3510,8 +4168,12 @@
       <c r="C164">
         <v>129</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D164">
+        <f t="shared" si="2"/>
+        <v>37738</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>165</v>
       </c>
@@ -3521,8 +4183,12 @@
       <c r="C165">
         <v>142</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D165">
+        <f t="shared" si="2"/>
+        <v>37941</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>166</v>
       </c>
@@ -3532,8 +4198,12 @@
       <c r="C166">
         <v>151</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D166">
+        <f t="shared" si="2"/>
+        <v>38106</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>167</v>
       </c>
@@ -3543,8 +4213,12 @@
       <c r="C167">
         <v>150</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D167">
+        <f t="shared" si="2"/>
+        <v>38209</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>168</v>
       </c>
@@ -3554,8 +4228,12 @@
       <c r="C168">
         <v>162</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D168">
+        <f t="shared" si="2"/>
+        <v>38404</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>169</v>
       </c>
@@ -3565,8 +4243,12 @@
       <c r="C169">
         <v>158</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D169">
+        <f t="shared" si="2"/>
+        <v>38542</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>170</v>
       </c>
@@ -3576,8 +4258,12 @@
       <c r="C170">
         <v>154</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D170">
+        <f t="shared" si="2"/>
+        <v>38679</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>171</v>
       </c>
@@ -3587,8 +4273,12 @@
       <c r="C171">
         <v>151</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D171">
+        <f t="shared" si="2"/>
+        <v>38798</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>172</v>
       </c>
@@ -3598,8 +4288,12 @@
       <c r="C172">
         <v>138</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D172">
+        <f t="shared" si="2"/>
+        <v>38909</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>173</v>
       </c>
@@ -3609,8 +4303,12 @@
       <c r="C173">
         <v>126</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D173">
+        <f t="shared" si="2"/>
+        <v>38985</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>174</v>
       </c>
@@ -3620,8 +4318,12 @@
       <c r="C174">
         <v>124</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D174">
+        <f t="shared" si="2"/>
+        <v>39074</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>175</v>
       </c>
@@ -3631,8 +4333,12 @@
       <c r="C175">
         <v>115</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D175">
+        <f t="shared" si="2"/>
+        <v>39208</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>176</v>
       </c>
@@ -3642,8 +4348,12 @@
       <c r="C176">
         <v>113</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D176">
+        <f t="shared" si="2"/>
+        <v>39332</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>177</v>
       </c>
@@ -3653,8 +4363,12 @@
       <c r="C177">
         <v>110</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D177">
+        <f t="shared" si="2"/>
+        <v>39448</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>178</v>
       </c>
@@ -3664,8 +4378,12 @@
       <c r="C178">
         <v>105</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D178">
+        <f t="shared" si="2"/>
+        <v>39536</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>179</v>
       </c>
@@ -3675,8 +4393,12 @@
       <c r="C179">
         <v>103</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D179">
+        <f t="shared" si="2"/>
+        <v>39627</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>180</v>
       </c>
@@ -3686,8 +4408,12 @@
       <c r="C180">
         <v>104</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D180">
+        <f t="shared" si="2"/>
+        <v>39713</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>181</v>
       </c>
@@ -3697,8 +4423,12 @@
       <c r="C181">
         <v>105</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D181">
+        <f t="shared" si="2"/>
+        <v>39808</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>182</v>
       </c>
@@ -3708,8 +4438,12 @@
       <c r="C182">
         <v>98</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D182">
+        <f t="shared" si="2"/>
+        <v>39896</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>183</v>
       </c>
@@ -3719,8 +4453,12 @@
       <c r="C183">
         <v>91</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D183">
+        <f t="shared" si="2"/>
+        <v>39966</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>184</v>
       </c>
@@ -3730,8 +4468,12 @@
       <c r="C184">
         <v>85</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D184">
+        <f t="shared" si="2"/>
+        <v>40045</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>185</v>
       </c>
@@ -3741,8 +4483,12 @@
       <c r="C185">
         <v>89</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D185">
+        <f t="shared" si="2"/>
+        <v>40160</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>186</v>
       </c>
@@ -3752,8 +4498,12 @@
       <c r="C186">
         <v>81</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D186">
+        <f t="shared" si="2"/>
+        <v>40193</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>187</v>
       </c>
@@ -3763,8 +4513,12 @@
       <c r="C187">
         <v>82</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D187">
+        <f t="shared" si="2"/>
+        <v>40288</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>188</v>
       </c>
@@ -3774,8 +4528,12 @@
       <c r="C188">
         <v>80</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D188">
+        <f t="shared" si="2"/>
+        <v>40366</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>189</v>
       </c>
@@ -3785,8 +4543,12 @@
       <c r="C189">
         <v>80</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D189">
+        <f t="shared" si="2"/>
+        <v>40458</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>190</v>
       </c>
@@ -3796,8 +4558,12 @@
       <c r="C190">
         <v>85</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D190">
+        <f t="shared" si="2"/>
+        <v>40564</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>191</v>
       </c>
@@ -3807,8 +4573,12 @@
       <c r="C191">
         <v>86</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D191">
+        <f t="shared" si="2"/>
+        <v>40645</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>192</v>
       </c>
@@ -3818,8 +4588,12 @@
       <c r="C192">
         <v>83</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D192">
+        <f t="shared" si="2"/>
+        <v>40744</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>193</v>
       </c>
@@ -3829,8 +4603,12 @@
       <c r="C193">
         <v>97</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D193">
+        <f t="shared" si="2"/>
+        <v>40869</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>194</v>
       </c>
@@ -3840,8 +4618,12 @@
       <c r="C194">
         <v>98</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D194">
+        <f t="shared" ref="D194:D257" si="3">(D195-B195)</f>
+        <v>40971</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>195</v>
       </c>
@@ -3851,8 +4633,12 @@
       <c r="C195">
         <v>97</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D195">
+        <f t="shared" si="3"/>
+        <v>41047</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>196</v>
       </c>
@@ -3862,8 +4648,12 @@
       <c r="C196">
         <v>103</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D196">
+        <f t="shared" si="3"/>
+        <v>41178</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>197</v>
       </c>
@@ -3873,8 +4663,12 @@
       <c r="C197">
         <v>103</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D197">
+        <f t="shared" si="3"/>
+        <v>41286</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>198</v>
       </c>
@@ -3884,8 +4678,12 @@
       <c r="C198">
         <v>108</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D198">
+        <f t="shared" si="3"/>
+        <v>41401</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>199</v>
       </c>
@@ -3895,8 +4693,12 @@
       <c r="C199">
         <v>109</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D199">
+        <f t="shared" si="3"/>
+        <v>41506</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>200</v>
       </c>
@@ -3906,8 +4708,12 @@
       <c r="C200">
         <v>105</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D200">
+        <f t="shared" si="3"/>
+        <v>41606</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>201</v>
       </c>
@@ -3917,8 +4723,12 @@
       <c r="C201">
         <v>103</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D201">
+        <f t="shared" si="3"/>
+        <v>41694</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>202</v>
       </c>
@@ -3928,8 +4738,12 @@
       <c r="C202">
         <v>109</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D202">
+        <f t="shared" si="3"/>
+        <v>41812</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>203</v>
       </c>
@@ -3939,8 +4753,12 @@
       <c r="C203">
         <v>108</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D203">
+        <f t="shared" si="3"/>
+        <v>41934</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>204</v>
       </c>
@@ -3950,8 +4768,12 @@
       <c r="C204">
         <v>114</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D204">
+        <f t="shared" si="3"/>
+        <v>42082</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>205</v>
       </c>
@@ -3961,8 +4783,12 @@
       <c r="C205">
         <v>113</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D205">
+        <f t="shared" si="3"/>
+        <v>42194</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>206</v>
       </c>
@@ -3972,8 +4798,12 @@
       <c r="C206">
         <v>115</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D206">
+        <f t="shared" si="3"/>
+        <v>42308</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>207</v>
       </c>
@@ -3983,8 +4813,12 @@
       <c r="C207">
         <v>116</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D207">
+        <f t="shared" si="3"/>
+        <v>42420</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>208</v>
       </c>
@@ -3994,8 +4828,12 @@
       <c r="C208">
         <v>123</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D208">
+        <f t="shared" si="3"/>
+        <v>42553</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>209</v>
       </c>
@@ -4005,8 +4843,12 @@
       <c r="C209">
         <v>125</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D209">
+        <f t="shared" si="3"/>
+        <v>42685</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>210</v>
       </c>
@@ -4016,8 +4858,12 @@
       <c r="C210">
         <v>128</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D210">
+        <f t="shared" si="3"/>
+        <v>42833</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>211</v>
       </c>
@@ -4027,8 +4873,12 @@
       <c r="C211">
         <v>131</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D211">
+        <f t="shared" si="3"/>
+        <v>43002</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>212</v>
       </c>
@@ -4038,8 +4888,12 @@
       <c r="C212">
         <v>138</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D212">
+        <f t="shared" si="3"/>
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>213</v>
       </c>
@@ -4049,8 +4903,12 @@
       <c r="C213">
         <v>149</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D213">
+        <f t="shared" si="3"/>
+        <v>43350</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>214</v>
       </c>
@@ -4060,8 +4918,12 @@
       <c r="C214">
         <v>159</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D214">
+        <f t="shared" si="3"/>
+        <v>43535</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>215</v>
       </c>
@@ -4071,8 +4933,12 @@
       <c r="C215">
         <v>162</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D215">
+        <f t="shared" si="3"/>
+        <v>43684</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>216</v>
       </c>
@@ -4082,8 +4948,12 @@
       <c r="C216">
         <v>167</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D216">
+        <f t="shared" si="3"/>
+        <v>43854</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>217</v>
       </c>
@@ -4093,8 +4963,12 @@
       <c r="C217">
         <v>176</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D217">
+        <f t="shared" si="3"/>
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>218</v>
       </c>
@@ -4104,8 +4978,12 @@
       <c r="C218">
         <v>185</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D218">
+        <f t="shared" si="3"/>
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>219</v>
       </c>
@@ -4115,8 +4993,12 @@
       <c r="C219">
         <v>192</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D219">
+        <f t="shared" si="3"/>
+        <v>44503</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>220</v>
       </c>
@@ -4126,8 +5008,12 @@
       <c r="C220">
         <v>209</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D220">
+        <f t="shared" si="3"/>
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>221</v>
       </c>
@@ -4137,8 +5023,12 @@
       <c r="C221">
         <v>219</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D221">
+        <f t="shared" si="3"/>
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>222</v>
       </c>
@@ -4148,8 +5038,12 @@
       <c r="C222">
         <v>243</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D222">
+        <f t="shared" si="3"/>
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>223</v>
       </c>
@@ -4159,8 +5053,12 @@
       <c r="C223">
         <v>260</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D223">
+        <f t="shared" si="3"/>
+        <v>45675</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>224</v>
       </c>
@@ -4170,8 +5068,12 @@
       <c r="C224">
         <v>287</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D224">
+        <f t="shared" si="3"/>
+        <v>46076</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>225</v>
       </c>
@@ -4181,8 +5083,12 @@
       <c r="C225">
         <v>312</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D225">
+        <f t="shared" si="3"/>
+        <v>46483</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>226</v>
       </c>
@@ -4192,8 +5098,12 @@
       <c r="C226">
         <v>335</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D226">
+        <f t="shared" si="3"/>
+        <v>46848</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>227</v>
       </c>
@@ -4203,8 +5113,12 @@
       <c r="C227">
         <v>351</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D227">
+        <f t="shared" si="3"/>
+        <v>47273</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>228</v>
       </c>
@@ -4214,8 +5128,12 @@
       <c r="C228">
         <v>383</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D228">
+        <f t="shared" si="3"/>
+        <v>47751</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>229</v>
       </c>
@@ -4225,8 +5143,12 @@
       <c r="C229">
         <v>386</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D229">
+        <f t="shared" si="3"/>
+        <v>48086</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>230</v>
       </c>
@@ -4236,8 +5158,12 @@
       <c r="C230">
         <v>403</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D230">
+        <f t="shared" si="3"/>
+        <v>48495</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>231</v>
       </c>
@@ -4247,8 +5173,12 @@
       <c r="C231">
         <v>404</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D231">
+        <f t="shared" si="3"/>
+        <v>48904</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>232</v>
       </c>
@@ -4258,8 +5188,12 @@
       <c r="C232">
         <v>408</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D232">
+        <f t="shared" si="3"/>
+        <v>49339</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>233</v>
       </c>
@@ -4269,8 +5203,12 @@
       <c r="C233">
         <v>426</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D233">
+        <f t="shared" si="3"/>
+        <v>49830</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>234</v>
       </c>
@@ -4280,8 +5218,12 @@
       <c r="C234">
         <v>465</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D234">
+        <f t="shared" si="3"/>
+        <v>50530</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>235</v>
       </c>
@@ -4291,8 +5233,12 @@
       <c r="C235">
         <v>476</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D235">
+        <f t="shared" si="3"/>
+        <v>51084</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>236</v>
       </c>
@@ -4302,8 +5248,12 @@
       <c r="C236">
         <v>518</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D236">
+        <f t="shared" si="3"/>
+        <v>51709</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>237</v>
       </c>
@@ -4313,8 +5263,12 @@
       <c r="C237">
         <v>536</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D237">
+        <f t="shared" si="3"/>
+        <v>52247</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>238</v>
       </c>
@@ -4324,8 +5278,12 @@
       <c r="C238">
         <v>582</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D238">
+        <f t="shared" si="3"/>
+        <v>52979</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>239</v>
       </c>
@@ -4335,8 +5293,12 @@
       <c r="C239">
         <v>613</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D239">
+        <f t="shared" si="3"/>
+        <v>53632</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>240</v>
       </c>
@@ -4346,8 +5308,12 @@
       <c r="C240">
         <v>624</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D240">
+        <f t="shared" si="3"/>
+        <v>54198</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>241</v>
       </c>
@@ -4357,8 +5323,12 @@
       <c r="C241">
         <v>612</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D241">
+        <f t="shared" si="3"/>
+        <v>54813</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>242</v>
       </c>
@@ -4368,8 +5338,12 @@
       <c r="C242">
         <v>611</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D242">
+        <f t="shared" si="3"/>
+        <v>55361</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>243</v>
       </c>
@@ -4379,8 +5353,12 @@
       <c r="C243">
         <v>605</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D243">
+        <f t="shared" si="3"/>
+        <v>55944</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>244</v>
       </c>
@@ -4390,8 +5368,12 @@
       <c r="C244">
         <v>642</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D244">
+        <f t="shared" si="3"/>
+        <v>56741</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>245</v>
       </c>
@@ -4401,8 +5383,12 @@
       <c r="C245">
         <v>672</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D245">
+        <f t="shared" si="3"/>
+        <v>57680</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>246</v>
       </c>
@@ -4412,8 +5398,12 @@
       <c r="C246">
         <v>694</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D246">
+        <f t="shared" si="3"/>
+        <v>58489</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>247</v>
       </c>
@@ -4423,8 +5413,12 @@
       <c r="C247">
         <v>706</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D247">
+        <f t="shared" si="3"/>
+        <v>59138</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>248</v>
       </c>
@@ -4434,8 +5428,12 @@
       <c r="C248">
         <v>733</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D248">
+        <f t="shared" si="3"/>
+        <v>59945</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>249</v>
       </c>
@@ -4445,8 +5443,12 @@
       <c r="C249">
         <v>761</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D249">
+        <f t="shared" si="3"/>
+        <v>60691</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>250</v>
       </c>
@@ -4456,8 +5458,12 @@
       <c r="C250">
         <v>781</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D250">
+        <f t="shared" si="3"/>
+        <v>61412</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>251</v>
       </c>
@@ -4467,8 +5473,12 @@
       <c r="C251">
         <v>779</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D251">
+        <f t="shared" si="3"/>
+        <v>62195</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>252</v>
       </c>
@@ -4478,8 +5488,12 @@
       <c r="C252">
         <v>747</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D252">
+        <f t="shared" si="3"/>
+        <v>62907</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>253</v>
       </c>
@@ -4489,8 +5503,12 @@
       <c r="C253">
         <v>746</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D253">
+        <f t="shared" si="3"/>
+        <v>63712</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>254</v>
       </c>
@@ -4500,8 +5518,12 @@
       <c r="C254">
         <v>747</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D254">
+        <f t="shared" si="3"/>
+        <v>64370</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>255</v>
       </c>
@@ -4511,8 +5533,12 @@
       <c r="C255">
         <v>733</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D255">
+        <f t="shared" si="3"/>
+        <v>65074</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>256</v>
       </c>
@@ -4522,8 +5548,12 @@
       <c r="C256">
         <v>743</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D256">
+        <f t="shared" si="3"/>
+        <v>65895</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>257</v>
       </c>
@@ -4533,8 +5563,12 @@
       <c r="C257">
         <v>753</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D257">
+        <f t="shared" si="3"/>
+        <v>66685</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>258</v>
       </c>
@@ -4544,8 +5578,12 @@
       <c r="C258">
         <v>762</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D258">
+        <f t="shared" ref="D258:D321" si="4">(D259-B259)</f>
+        <v>67526</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>259</v>
       </c>
@@ -4555,8 +5593,12 @@
       <c r="C259">
         <v>778</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D259">
+        <f t="shared" si="4"/>
+        <v>68352</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>260</v>
       </c>
@@ -4566,8 +5608,12 @@
       <c r="C260">
         <v>803</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D260">
+        <f t="shared" si="4"/>
+        <v>69330</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>261</v>
       </c>
@@ -4577,8 +5623,12 @@
       <c r="C261">
         <v>857</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D261">
+        <f t="shared" si="4"/>
+        <v>70372</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>262</v>
       </c>
@@ -4588,8 +5638,12 @@
       <c r="C262">
         <v>878</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D262">
+        <f t="shared" si="4"/>
+        <v>71223</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>263</v>
       </c>
@@ -4599,8 +5653,12 @@
       <c r="C263">
         <v>879</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D263">
+        <f t="shared" si="4"/>
+        <v>72050</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>264</v>
       </c>
@@ -4610,8 +5668,12 @@
       <c r="C264">
         <v>886</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D264">
+        <f t="shared" si="4"/>
+        <v>72884</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>265</v>
       </c>
@@ -4621,8 +5683,12 @@
       <c r="C265">
         <v>899</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D265">
+        <f t="shared" si="4"/>
+        <v>73818</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>266</v>
       </c>
@@ -4632,8 +5698,12 @@
       <c r="C266">
         <v>909</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D266">
+        <f t="shared" si="4"/>
+        <v>74714</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>267</v>
       </c>
@@ -4643,8 +5713,12 @@
       <c r="C267">
         <v>914</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D267">
+        <f t="shared" si="4"/>
+        <v>75729</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>268</v>
       </c>
@@ -4654,8 +5728,12 @@
       <c r="C268">
         <v>905</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D268">
+        <f t="shared" si="4"/>
+        <v>76706</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>269</v>
       </c>
@@ -4665,8 +5743,12 @@
       <c r="C269">
         <v>919</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D269">
+        <f t="shared" si="4"/>
+        <v>77654</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>270</v>
       </c>
@@ -4676,8 +5758,12 @@
       <c r="C270">
         <v>951</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D270">
+        <f t="shared" si="4"/>
+        <v>78704</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>271</v>
       </c>
@@ -4687,8 +5773,12 @@
       <c r="C271">
         <v>972</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D271">
+        <f t="shared" si="4"/>
+        <v>79691</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>272</v>
       </c>
@@ -4698,8 +5788,12 @@
       <c r="C272">
         <v>982</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D272">
+        <f t="shared" si="4"/>
+        <v>80689</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>273</v>
       </c>
@@ -4709,8 +5803,12 @@
       <c r="C273">
         <v>997</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D273">
+        <f t="shared" si="4"/>
+        <v>81692</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>274</v>
       </c>
@@ -4720,8 +5818,12 @@
       <c r="C274">
         <v>1014</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D274">
+        <f t="shared" si="4"/>
+        <v>82824</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>275</v>
       </c>
@@ -4731,8 +5833,12 @@
       <c r="C275">
         <v>1064</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D275">
+        <f t="shared" si="4"/>
+        <v>84152</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>276</v>
       </c>
@@ -4742,8 +5848,12 @@
       <c r="C276">
         <v>1106</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D276">
+        <f t="shared" si="4"/>
+        <v>85394</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>277</v>
       </c>
@@ -4753,8 +5863,12 @@
       <c r="C277">
         <v>1154</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D277">
+        <f t="shared" si="4"/>
+        <v>86782</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>278</v>
       </c>
@@ -4764,8 +5878,12 @@
       <c r="C278">
         <v>1217</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D278">
+        <f t="shared" si="4"/>
+        <v>88208</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>279</v>
       </c>
@@ -4775,8 +5893,12 @@
       <c r="C279">
         <v>1299</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D279">
+        <f t="shared" si="4"/>
+        <v>89783</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>280</v>
       </c>
@@ -4786,8 +5908,12 @@
       <c r="C280">
         <v>1355</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D280">
+        <f t="shared" si="4"/>
+        <v>91179</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>281</v>
       </c>
@@ -4797,8 +5923,12 @@
       <c r="C281">
         <v>1419</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D281">
+        <f t="shared" si="4"/>
+        <v>92760</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>282</v>
       </c>
@@ -4808,8 +5938,12 @@
       <c r="C282">
         <v>1408</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D282">
+        <f t="shared" si="4"/>
+        <v>94008</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>283</v>
       </c>
@@ -4819,8 +5953,12 @@
       <c r="C283">
         <v>1443</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D283">
+        <f t="shared" si="4"/>
+        <v>95495</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>284</v>
       </c>
@@ -4830,8 +5968,12 @@
       <c r="C284">
         <v>1423</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D284">
+        <f t="shared" si="4"/>
+        <v>96744</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>285</v>
       </c>
@@ -4841,8 +5983,12 @@
       <c r="C285">
         <v>1422</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D285">
+        <f t="shared" si="4"/>
+        <v>98161</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>286</v>
       </c>
@@ -4852,8 +5998,12 @@
       <c r="C286">
         <v>1370</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D286">
+        <f t="shared" si="4"/>
+        <v>99371</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>287</v>
       </c>
@@ -4863,8 +6013,12 @@
       <c r="C287">
         <v>1373</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D287">
+        <f t="shared" si="4"/>
+        <v>100789</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>288</v>
       </c>
@@ -4874,8 +6028,12 @@
       <c r="C288">
         <v>1374</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D288">
+        <f t="shared" si="4"/>
+        <v>102377</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>289</v>
       </c>
@@ -4885,8 +6043,12 @@
       <c r="C289">
         <v>1415</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D289">
+        <f t="shared" si="4"/>
+        <v>103911</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>290</v>
       </c>
@@ -4896,8 +6058,12 @@
       <c r="C290">
         <v>1429</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D290">
+        <f t="shared" si="4"/>
+        <v>105500</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>291</v>
       </c>
@@ -4907,8 +6073,12 @@
       <c r="C291">
         <v>1395</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D291">
+        <f t="shared" si="4"/>
+        <v>106509</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>292</v>
       </c>
@@ -4918,8 +6088,12 @@
       <c r="C292">
         <v>1389</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D292">
+        <f t="shared" si="4"/>
+        <v>107882</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>293</v>
       </c>
@@ -4929,8 +6103,12 @@
       <c r="C293">
         <v>1427</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D293">
+        <f t="shared" si="4"/>
+        <v>109360</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>294</v>
       </c>
@@ -4940,8 +6118,12 @@
       <c r="C294">
         <v>1489</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D294">
+        <f t="shared" si="4"/>
+        <v>111215</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>295</v>
       </c>
@@ -4951,8 +6133,12 @@
       <c r="C295">
         <v>1523</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D295">
+        <f t="shared" si="4"/>
+        <v>113037</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>296</v>
       </c>
@@ -4962,8 +6148,12 @@
       <c r="C296">
         <v>1548</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D296">
+        <f t="shared" si="4"/>
+        <v>114745</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>297</v>
       </c>
@@ -4973,8 +6163,12 @@
       <c r="C297">
         <v>1570</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D297">
+        <f t="shared" si="4"/>
+        <v>116491</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>298</v>
       </c>
@@ -4984,8 +6178,12 @@
       <c r="C298">
         <v>1670</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D298">
+        <f t="shared" si="4"/>
+        <v>118198</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>299</v>
       </c>
@@ -4995,8 +6193,12 @@
       <c r="C299">
         <v>1720</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D299">
+        <f t="shared" si="4"/>
+        <v>119921</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>300</v>
       </c>
@@ -5006,8 +6208,12 @@
       <c r="C300">
         <v>1769</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D300">
+        <f t="shared" si="4"/>
+        <v>121745</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>301</v>
       </c>
@@ -5017,8 +6223,12 @@
       <c r="C301">
         <v>1759</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D301">
+        <f t="shared" si="4"/>
+        <v>123525</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>302</v>
       </c>
@@ -5028,8 +6238,12 @@
       <c r="C302">
         <v>1764</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D302">
+        <f t="shared" si="4"/>
+        <v>125384</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>303</v>
       </c>
@@ -5039,8 +6253,12 @@
       <c r="C303">
         <v>1795</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D303">
+        <f t="shared" si="4"/>
+        <v>127308</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>304</v>
       </c>
@@ -5050,8 +6268,12 @@
       <c r="C304">
         <v>1820</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D304">
+        <f t="shared" si="4"/>
+        <v>129233</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>305</v>
       </c>
@@ -5061,8 +6283,12 @@
       <c r="C305">
         <v>1816</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D305">
+        <f t="shared" si="4"/>
+        <v>130909</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>306</v>
       </c>
@@ -5072,8 +6298,12 @@
       <c r="C306">
         <v>1840</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D306">
+        <f t="shared" si="4"/>
+        <v>132799</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>307</v>
       </c>
@@ -5083,8 +6313,12 @@
       <c r="C307">
         <v>1862</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D307">
+        <f t="shared" si="4"/>
+        <v>134782</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>308</v>
       </c>
@@ -5094,8 +6328,12 @@
       <c r="C308">
         <v>1872</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D308">
+        <f t="shared" si="4"/>
+        <v>136630</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>309</v>
       </c>
@@ -5105,8 +6343,12 @@
       <c r="C309">
         <v>1874</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D309">
+        <f t="shared" si="4"/>
+        <v>138503</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>310</v>
       </c>
@@ -5116,8 +6358,12 @@
       <c r="C310">
         <v>1839</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D310">
+        <f t="shared" si="4"/>
+        <v>140180</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>311</v>
       </c>
@@ -5127,8 +6373,12 @@
       <c r="C311">
         <v>1841</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D311">
+        <f t="shared" si="4"/>
+        <v>142120</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>312</v>
       </c>
@@ -5138,8 +6388,12 @@
       <c r="C312">
         <v>1927</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D312">
+        <f t="shared" si="4"/>
+        <v>144395</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>313</v>
       </c>
@@ -5149,8 +6403,12 @@
       <c r="C313">
         <v>1962</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D313">
+        <f t="shared" si="4"/>
+        <v>146534</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>314</v>
       </c>
@@ -5160,8 +6418,12 @@
       <c r="C314">
         <v>2026</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D314">
+        <f t="shared" si="4"/>
+        <v>148966</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>315</v>
       </c>
@@ -5171,8 +6433,12 @@
       <c r="C315">
         <v>2089</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D315">
+        <f t="shared" si="4"/>
+        <v>151256</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>316</v>
       </c>
@@ -5182,8 +6448,12 @@
       <c r="C316">
         <v>2159</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D316">
+        <f t="shared" si="4"/>
+        <v>153613</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>317</v>
       </c>
@@ -5193,8 +6463,12 @@
       <c r="C317">
         <v>2250</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D317">
+        <f t="shared" si="4"/>
+        <v>155929</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>318</v>
       </c>
@@ -5204,8 +6478,12 @@
       <c r="C318">
         <v>2276</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D318">
+        <f t="shared" si="4"/>
+        <v>158052</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>319</v>
       </c>
@@ -5215,8 +6493,12 @@
       <c r="C319">
         <v>2266</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D319">
+        <f t="shared" si="4"/>
+        <v>160254</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>320</v>
       </c>
@@ -5226,8 +6508,12 @@
       <c r="C320">
         <v>2304</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D320">
+        <f t="shared" si="4"/>
+        <v>162662</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>321</v>
       </c>
@@ -5237,8 +6523,12 @@
       <c r="C321">
         <v>2306</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D321">
+        <f t="shared" si="4"/>
+        <v>165109</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>322</v>
       </c>
@@ -5248,8 +6538,12 @@
       <c r="C322">
         <v>2287</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D322">
+        <f t="shared" ref="D322:D385" si="5">(D323-B323)</f>
+        <v>167268</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>323</v>
       </c>
@@ -5259,8 +6553,12 @@
       <c r="C323">
         <v>2257</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D323">
+        <f t="shared" si="5"/>
+        <v>169410</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>324</v>
       </c>
@@ -5270,8 +6568,12 @@
       <c r="C324">
         <v>2212</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D324">
+        <f t="shared" si="5"/>
+        <v>171415</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>325</v>
       </c>
@@ -5281,8 +6583,12 @@
       <c r="C325">
         <v>2186</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D325">
+        <f t="shared" si="5"/>
+        <v>173354</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>326</v>
       </c>
@@ -5292,8 +6598,12 @@
       <c r="C326">
         <v>2236</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D326">
+        <f t="shared" si="5"/>
+        <v>175907</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>327</v>
       </c>
@@ -5303,8 +6613,12 @@
       <c r="C327">
         <v>2310</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D327">
+        <f t="shared" si="5"/>
+        <v>178830</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>328</v>
       </c>
@@ -5314,8 +6628,12 @@
       <c r="C328">
         <v>2436</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D328">
+        <f t="shared" si="5"/>
+        <v>182158</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>329</v>
       </c>
@@ -5325,8 +6643,12 @@
       <c r="C329">
         <v>2481</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D329">
+        <f t="shared" si="5"/>
+        <v>184634</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>330</v>
       </c>
@@ -5336,8 +6658,12 @@
       <c r="C330">
         <v>2655</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D330">
+        <f t="shared" si="5"/>
+        <v>187997</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>331</v>
       </c>
@@ -5347,8 +6673,12 @@
       <c r="C331">
         <v>2792</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D331">
+        <f t="shared" si="5"/>
+        <v>190961</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>332</v>
       </c>
@@ -5358,8 +6688,12 @@
       <c r="C332">
         <v>2982</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D332">
+        <f t="shared" si="5"/>
+        <v>194231</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>333</v>
       </c>
@@ -5369,8 +6703,12 @@
       <c r="C333">
         <v>3065</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D333">
+        <f t="shared" si="5"/>
+        <v>197359</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>334</v>
       </c>
@@ -5380,8 +6718,12 @@
       <c r="C334">
         <v>3114</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D334">
+        <f t="shared" si="5"/>
+        <v>200625</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>335</v>
       </c>
@@ -5391,8 +6733,12 @@
       <c r="C335">
         <v>3141</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D335">
+        <f t="shared" si="5"/>
+        <v>204144</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>336</v>
       </c>
@@ -5402,8 +6748,12 @@
       <c r="C336">
         <v>3394</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D336">
+        <f t="shared" si="5"/>
+        <v>208393</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>337</v>
       </c>
@@ -5413,8 +6763,12 @@
       <c r="C337">
         <v>3406</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D337">
+        <f t="shared" si="5"/>
+        <v>211836</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>338</v>
       </c>
@@ -5424,8 +6778,12 @@
       <c r="C338">
         <v>3546</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D338">
+        <f t="shared" si="5"/>
+        <v>215781</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>339</v>
       </c>
@@ -5435,8 +6793,12 @@
       <c r="C339">
         <v>3555</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D339">
+        <f t="shared" si="5"/>
+        <v>219119</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>340</v>
       </c>
@@ -5446,8 +6808,12 @@
       <c r="C340">
         <v>3523</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D340">
+        <f t="shared" si="5"/>
+        <v>222022</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>341</v>
       </c>
@@ -5457,8 +6823,12 @@
       <c r="C341">
         <v>3480</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D341">
+        <f t="shared" si="5"/>
+        <v>224983</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>342</v>
       </c>
@@ -5468,8 +6838,12 @@
       <c r="C342">
         <v>3452</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D342">
+        <f t="shared" si="5"/>
+        <v>228309</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>343</v>
       </c>
@@ -5479,8 +6853,12 @@
       <c r="C343">
         <v>3273</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D343">
+        <f t="shared" si="5"/>
+        <v>231307</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>344</v>
       </c>
@@ -5490,8 +6868,12 @@
       <c r="C344">
         <v>3218</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D344">
+        <f t="shared" si="5"/>
+        <v>234363</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>345</v>
       </c>
@@ -5501,8 +6883,12 @@
       <c r="C345">
         <v>3143</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D345">
+        <f t="shared" si="5"/>
+        <v>237785</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>346</v>
       </c>
@@ -5512,8 +6898,12 @@
       <c r="C346">
         <v>3035</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D346">
+        <f t="shared" si="5"/>
+        <v>240363</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>347</v>
       </c>
@@ -5523,8 +6913,12 @@
       <c r="C347">
         <v>2893</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D347">
+        <f t="shared" si="5"/>
+        <v>242276</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>348</v>
       </c>
@@ -5534,8 +6928,12 @@
       <c r="C348">
         <v>2850</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D348">
+        <f t="shared" si="5"/>
+        <v>244931</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>349</v>
       </c>
@@ -5545,8 +6943,12 @@
       <c r="C349">
         <v>2751</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D349">
+        <f t="shared" si="5"/>
+        <v>247563</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>350</v>
       </c>
@@ -5556,8 +6958,12 @@
       <c r="C350">
         <v>2703</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D350">
+        <f t="shared" si="5"/>
+        <v>250225</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>351</v>
       </c>
@@ -5567,8 +6973,12 @@
       <c r="C351">
         <v>2603</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D351">
+        <f t="shared" si="5"/>
+        <v>252584</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>352</v>
       </c>
@@ -5578,8 +6988,12 @@
       <c r="C352">
         <v>2459</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D352">
+        <f t="shared" si="5"/>
+        <v>255001</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>353</v>
       </c>
@@ -5589,8 +7003,12 @@
       <c r="C353">
         <v>2371</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D353">
+        <f t="shared" si="5"/>
+        <v>256959</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>354</v>
       </c>
@@ -5600,8 +7018,12 @@
       <c r="C354">
         <v>2346</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D354">
+        <f t="shared" si="5"/>
+        <v>258699</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>355</v>
       </c>
@@ -5611,8 +7033,12 @@
       <c r="C355">
         <v>2205</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D355">
+        <f t="shared" si="5"/>
+        <v>260369</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>356</v>
       </c>
@@ -5622,8 +7048,12 @@
       <c r="C356">
         <v>2128</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D356">
+        <f t="shared" si="5"/>
+        <v>262462</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>357</v>
       </c>
@@ -5633,8 +7063,12 @@
       <c r="C357">
         <v>2011</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D357">
+        <f t="shared" si="5"/>
+        <v>264299</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>358</v>
       </c>
@@ -5644,8 +7078,12 @@
       <c r="C358">
         <v>1968</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D358">
+        <f t="shared" si="5"/>
+        <v>266362</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>359</v>
       </c>
@@ -5655,8 +7093,12 @@
       <c r="C359">
         <v>1887</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D359">
+        <f t="shared" si="5"/>
+        <v>268210</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>360</v>
       </c>
@@ -5666,8 +7108,12 @@
       <c r="C360">
         <v>1889</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D360">
+        <f t="shared" si="5"/>
+        <v>270179</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>361</v>
       </c>
@@ -5677,8 +7123,12 @@
       <c r="C361">
         <v>1746</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D361">
+        <f t="shared" si="5"/>
+        <v>270924</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>362</v>
       </c>
@@ -5688,8 +7138,12 @@
       <c r="C362">
         <v>1675</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D362">
+        <f t="shared" si="5"/>
+        <v>272096</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>363</v>
       </c>
@@ -5699,8 +7153,12 @@
       <c r="C363">
         <v>1600</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D363">
+        <f t="shared" si="5"/>
+        <v>273659</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>364</v>
       </c>
@@ -5710,8 +7168,12 @@
       <c r="C364">
         <v>1576</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D364">
+        <f t="shared" si="5"/>
+        <v>275329</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>365</v>
       </c>
@@ -5721,8 +7183,12 @@
       <c r="C365">
         <v>1479</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D365">
+        <f t="shared" si="5"/>
+        <v>276717</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>366</v>
       </c>
@@ -5732,8 +7198,12 @@
       <c r="C366">
         <v>1428</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D366">
+        <f t="shared" si="5"/>
+        <v>278206</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>367</v>
       </c>
@@ -5743,8 +7213,12 @@
       <c r="C367">
         <v>1327</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D367">
+        <f t="shared" si="5"/>
+        <v>279471</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>368</v>
       </c>
@@ -5754,8 +7228,12 @@
       <c r="C368">
         <v>1367</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D368">
+        <f t="shared" si="5"/>
+        <v>280493</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>369</v>
       </c>
@@ -5765,8 +7243,12 @@
       <c r="C369">
         <v>1353</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D369">
+        <f t="shared" si="5"/>
+        <v>281565</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>370</v>
       </c>
@@ -5776,8 +7258,12 @@
       <c r="C370">
         <v>1264</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D370">
+        <f t="shared" si="5"/>
+        <v>282510</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>371</v>
       </c>
@@ -5787,8 +7273,12 @@
       <c r="C371">
         <v>1180</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D371">
+        <f t="shared" si="5"/>
+        <v>283586</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>372</v>
       </c>
@@ -5798,8 +7288,12 @@
       <c r="C372">
         <v>1167</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D372">
+        <f t="shared" si="5"/>
+        <v>284886</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>373</v>
       </c>
@@ -5809,8 +7303,12 @@
       <c r="C373">
         <v>1094</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D373">
+        <f t="shared" si="5"/>
+        <v>285867</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>374</v>
       </c>
@@ -5820,8 +7318,12 @@
       <c r="C374">
         <v>1051</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D374">
+        <f t="shared" si="5"/>
+        <v>286831</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>375</v>
       </c>
@@ -5831,8 +7333,12 @@
       <c r="C375">
         <v>1035</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D375">
+        <f t="shared" si="5"/>
+        <v>287735</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>376</v>
       </c>
@@ -5842,8 +7348,12 @@
       <c r="C376">
         <v>1002</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D376">
+        <f t="shared" si="5"/>
+        <v>288582</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>377</v>
       </c>
@@ -5853,8 +7363,12 @@
       <c r="C377">
         <v>1016</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D377">
+        <f t="shared" si="5"/>
+        <v>289620</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>378</v>
       </c>
@@ -5864,8 +7378,12 @@
       <c r="C378">
         <v>1026</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D378">
+        <f t="shared" si="5"/>
+        <v>290770</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>379</v>
       </c>
@@ -5875,8 +7393,12 @@
       <c r="C379">
         <v>1016</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D379">
+        <f t="shared" si="5"/>
+        <v>291998</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>380</v>
       </c>
@@ -5886,8 +7408,12 @@
       <c r="C380">
         <v>1031</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D380">
+        <f t="shared" si="5"/>
+        <v>293085</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>381</v>
       </c>
@@ -5897,8 +7423,12 @@
       <c r="C381">
         <v>1045</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D381">
+        <f t="shared" si="5"/>
+        <v>294143</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>382</v>
       </c>
@@ -5908,8 +7438,12 @@
       <c r="C382">
         <v>1055</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D382">
+        <f t="shared" si="5"/>
+        <v>295118</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>383</v>
       </c>
@@ -5919,8 +7453,12 @@
       <c r="C383">
         <v>1084</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D383">
+        <f t="shared" si="5"/>
+        <v>296172</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>384</v>
       </c>
@@ -5930,8 +7468,12 @@
       <c r="C384">
         <v>1099</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D384">
+        <f t="shared" si="5"/>
+        <v>297310</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>385</v>
       </c>
@@ -5941,8 +7483,12 @@
       <c r="C385">
         <v>1114</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D385">
+        <f t="shared" si="5"/>
+        <v>298568</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>386</v>
       </c>
@@ -5952,8 +7498,12 @@
       <c r="C386">
         <v>1108</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D386">
+        <f t="shared" ref="D386:D431" si="6">(D387-B387)</f>
+        <v>299753</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>387</v>
       </c>
@@ -5963,8 +7513,12 @@
       <c r="C387">
         <v>1104</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D387">
+        <f t="shared" si="6"/>
+        <v>300815</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>388</v>
       </c>
@@ -5974,8 +7528,12 @@
       <c r="C388">
         <v>1099</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D388">
+        <f t="shared" si="6"/>
+        <v>301838</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>389</v>
       </c>
@@ -5985,8 +7543,12 @@
       <c r="C389">
         <v>1098</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D389">
+        <f t="shared" si="6"/>
+        <v>302804</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>390</v>
       </c>
@@ -5996,8 +7558,12 @@
       <c r="C390">
         <v>1084</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D390">
+        <f t="shared" si="6"/>
+        <v>303762</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>391</v>
       </c>
@@ -6007,8 +7573,12 @@
       <c r="C391">
         <v>1064</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D391">
+        <f t="shared" si="6"/>
+        <v>304756</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>392</v>
       </c>
@@ -6018,8 +7588,12 @@
       <c r="C392">
         <v>1063</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D392">
+        <f t="shared" si="6"/>
+        <v>306006</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>393</v>
       </c>
@@ -6029,8 +7603,12 @@
       <c r="C393">
         <v>1035</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D393">
+        <f t="shared" si="6"/>
+        <v>306996</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>394</v>
       </c>
@@ -6040,8 +7618,12 @@
       <c r="C394">
         <v>1069</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D394">
+        <f t="shared" si="6"/>
+        <v>308295</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>395</v>
       </c>
@@ -6051,8 +7633,12 @@
       <c r="C395">
         <v>1155</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D395">
+        <f t="shared" si="6"/>
+        <v>309926</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>396</v>
       </c>
@@ -6062,8 +7648,12 @@
       <c r="C396">
         <v>1187</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D396">
+        <f t="shared" si="6"/>
+        <v>311111</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>397</v>
       </c>
@@ -6073,8 +7663,12 @@
       <c r="C397">
         <v>1238</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D397">
+        <f t="shared" si="6"/>
+        <v>312427</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>398</v>
       </c>
@@ -6084,8 +7678,12 @@
       <c r="C398">
         <v>1252</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D398">
+        <f t="shared" si="6"/>
+        <v>313519</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>399</v>
       </c>
@@ -6095,8 +7693,12 @@
       <c r="C399">
         <v>1269</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D399">
+        <f t="shared" si="6"/>
+        <v>314890</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>400</v>
       </c>
@@ -6106,8 +7708,12 @@
       <c r="C400">
         <v>1337</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D400">
+        <f t="shared" si="6"/>
+        <v>316358</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>401</v>
       </c>
@@ -6117,8 +7723,12 @@
       <c r="C401">
         <v>1401</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D401">
+        <f t="shared" si="6"/>
+        <v>318105</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>402</v>
       </c>
@@ -6128,8 +7738,12 @@
       <c r="C402">
         <v>1350</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D402">
+        <f t="shared" si="6"/>
+        <v>319373</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>403</v>
       </c>
@@ -6139,8 +7753,12 @@
       <c r="C403">
         <v>1334</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D403">
+        <f t="shared" si="6"/>
+        <v>320447</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>404</v>
       </c>
@@ -6150,8 +7768,12 @@
       <c r="C404">
         <v>1361</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D404">
+        <f t="shared" si="6"/>
+        <v>321955</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>405</v>
       </c>
@@ -6161,8 +7783,12 @@
       <c r="C405">
         <v>1427</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D405">
+        <f t="shared" si="6"/>
+        <v>323508</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>406</v>
       </c>
@@ -6172,8 +7798,12 @@
       <c r="C406">
         <v>1480</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D406">
+        <f t="shared" si="6"/>
+        <v>325253</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>407</v>
       </c>
@@ -6183,8 +7813,12 @@
       <c r="C407">
         <v>1532</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D407">
+        <f t="shared" si="6"/>
+        <v>327082</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>408</v>
       </c>
@@ -6194,8 +7828,12 @@
       <c r="C408">
         <v>1538</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D408">
+        <f t="shared" si="6"/>
+        <v>328873</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>409</v>
       </c>
@@ -6205,8 +7843,12 @@
       <c r="C409">
         <v>1600</v>
       </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D409">
+        <f t="shared" si="6"/>
+        <v>330572</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>410</v>
       </c>
@@ -6216,8 +7858,12 @@
       <c r="C410">
         <v>1667</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D410">
+        <f t="shared" si="6"/>
+        <v>332118</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>411</v>
       </c>
@@ -6227,8 +7873,12 @@
       <c r="C411">
         <v>1676</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D411">
+        <f t="shared" si="6"/>
+        <v>333689</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>413</v>
       </c>
@@ -6236,11 +7886,15 @@
         <v>2380</v>
       </c>
       <c r="C412" s="1">
-        <f t="shared" ref="C412:C434" si="0">AVERAGE(B406:B412)</f>
+        <f t="shared" ref="C412:C434" si="7">AVERAGE(B406:B412)</f>
         <v>1794.4285714285713</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D412">
+        <f t="shared" si="6"/>
+        <v>336069</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>414</v>
       </c>
@@ -6248,11 +7902,15 @@
         <v>2169</v>
       </c>
       <c r="C413" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1855</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D413">
+        <f t="shared" si="6"/>
+        <v>338238</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>415</v>
       </c>
@@ -6260,11 +7918,15 @@
         <v>2453</v>
       </c>
       <c r="C414" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1944.1428571428571</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D414">
+        <f t="shared" si="6"/>
+        <v>340691</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>416</v>
       </c>
@@ -6272,11 +7934,15 @@
         <v>2448</v>
       </c>
       <c r="C415" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>2038</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D415">
+        <f t="shared" si="6"/>
+        <v>343139</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>417</v>
       </c>
@@ -6284,11 +7950,15 @@
         <v>2094</v>
       </c>
       <c r="C416" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>2094.4285714285716</v>
       </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D416">
+        <f t="shared" si="6"/>
+        <v>345233</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>418</v>
       </c>
@@ -6296,11 +7966,15 @@
         <v>2336</v>
       </c>
       <c r="C417" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>2207.2857142857142</v>
       </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D417">
+        <f t="shared" si="6"/>
+        <v>347569</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>419</v>
       </c>
@@ -6308,11 +7982,15 @@
         <v>2333</v>
       </c>
       <c r="C418" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>2316.1428571428573</v>
       </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D418">
+        <f t="shared" si="6"/>
+        <v>349902</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>420</v>
       </c>
@@ -6320,11 +7998,15 @@
         <v>2557</v>
       </c>
       <c r="C419" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>2341.4285714285716</v>
       </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D419">
+        <f t="shared" si="6"/>
+        <v>352459</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>421</v>
       </c>
@@ -6332,11 +8014,15 @@
         <v>3089</v>
       </c>
       <c r="C420" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>2472.8571428571427</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D420">
+        <f t="shared" si="6"/>
+        <v>355548</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>422</v>
       </c>
@@ -6344,11 +8030,15 @@
         <v>3009</v>
       </c>
       <c r="C421" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>2552.2857142857142</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D421">
+        <f t="shared" si="6"/>
+        <v>358557</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>423</v>
       </c>
@@ -6356,11 +8046,15 @@
         <v>3041</v>
       </c>
       <c r="C422" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>2637</v>
       </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D422">
+        <f t="shared" si="6"/>
+        <v>361598</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>424</v>
       </c>
@@ -6368,11 +8062,15 @@
         <v>2938</v>
       </c>
       <c r="C423" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>2757.5714285714284</v>
       </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D423">
+        <f t="shared" si="6"/>
+        <v>364536</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>425</v>
       </c>
@@ -6380,11 +8078,15 @@
         <v>3065</v>
       </c>
       <c r="C424" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>2861.7142857142858</v>
       </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D424">
+        <f t="shared" si="6"/>
+        <v>367601</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>426</v>
       </c>
@@ -6392,11 +8094,15 @@
         <v>3215</v>
       </c>
       <c r="C425" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>2987.7142857142858</v>
       </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D425">
+        <f t="shared" si="6"/>
+        <v>370816</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>427</v>
       </c>
@@ -6404,11 +8110,15 @@
         <v>3295</v>
       </c>
       <c r="C426" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>3093.1428571428573</v>
       </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D426">
+        <f t="shared" si="6"/>
+        <v>374111</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>428</v>
       </c>
@@ -6416,11 +8126,15 @@
         <v>4227</v>
       </c>
       <c r="C427" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>3255.7142857142858</v>
       </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D427">
+        <f t="shared" si="6"/>
+        <v>378338</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>429</v>
       </c>
@@ -6428,11 +8142,15 @@
         <v>3813</v>
       </c>
       <c r="C428" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>3370.5714285714284</v>
       </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D428">
+        <f t="shared" si="6"/>
+        <v>382151</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>430</v>
       </c>
@@ -6440,11 +8158,15 @@
         <v>4456</v>
       </c>
       <c r="C429" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>3572.7142857142858</v>
       </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D429">
+        <f t="shared" si="6"/>
+        <v>386607</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>431</v>
       </c>
@@ -6452,11 +8174,15 @@
         <v>4401</v>
       </c>
       <c r="C430" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>3781.7142857142858</v>
       </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D430">
+        <f t="shared" si="6"/>
+        <v>391008</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>432</v>
       </c>
@@ -6464,11 +8190,15 @@
         <v>3670</v>
       </c>
       <c r="C431" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>3868.1428571428573</v>
       </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D431">
+        <f t="shared" si="6"/>
+        <v>394678</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>433</v>
       </c>
@@ -6476,11 +8206,15 @@
         <v>4156</v>
       </c>
       <c r="C432" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>4002.5714285714284</v>
       </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D432">
+        <f>(D433-B433)</f>
+        <v>398834</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>434</v>
       </c>
@@ -6488,12 +8222,29 @@
         <v>4736</v>
       </c>
       <c r="C433" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>4208.4285714285716</v>
       </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C434" s="1"/>
+      <c r="D433">
+        <f>SUM(B2:B433)</f>
+        <v>403570</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>436</v>
+      </c>
+      <c r="B434">
+        <v>4812</v>
+      </c>
+      <c r="C434" s="1">
+        <f t="shared" si="7"/>
+        <v>4292</v>
+      </c>
+      <c r="D434">
+        <f>SUM(B3:B434)</f>
+        <v>408381</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ontario_daily_cases.xlsx
+++ b/ontario_daily_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AD4E8C-BF3A-A643-A423-28D62B9C8453}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25AA9EC-6CD4-F543-98C7-7EF0014DA406}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
+    <workbookView xWindow="-38400" yWindow="-780" windowWidth="38400" windowHeight="21140" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="438">
   <si>
     <t>New cases</t>
   </si>
@@ -1342,6 +1342,9 @@
   </si>
   <si>
     <t>Fri Apr 16 2021</t>
+  </si>
+  <si>
+    <t>Sat Apr 17 2021</t>
   </si>
 </sst>
 </file>
@@ -1700,10 +1703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1917BCDE-B3C2-FF4A-8B47-29076C29F28C}">
-  <dimension ref="A1:D434"/>
+  <dimension ref="A1:D435"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="I430" sqref="I430"/>
+      <selection activeCell="K441" sqref="K441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7886,7 +7889,7 @@
         <v>2380</v>
       </c>
       <c r="C412" s="1">
-        <f t="shared" ref="C412:C434" si="7">AVERAGE(B406:B412)</f>
+        <f t="shared" ref="C412:C435" si="7">AVERAGE(B406:B412)</f>
         <v>1794.4285714285713</v>
       </c>
       <c r="D412">
@@ -8244,6 +8247,22 @@
       <c r="D434">
         <f>SUM(B3:B434)</f>
         <v>408381</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>437</v>
+      </c>
+      <c r="B435">
+        <v>4362</v>
+      </c>
+      <c r="C435" s="1">
+        <f t="shared" si="7"/>
+        <v>4370.4285714285716</v>
+      </c>
+      <c r="D435">
+        <f>SUM(B4:B435)</f>
+        <v>412743</v>
       </c>
     </row>
   </sheetData>

--- a/ontario_daily_cases.xlsx
+++ b/ontario_daily_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25AA9EC-6CD4-F543-98C7-7EF0014DA406}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33320AF6-FBE1-CE47-94C4-795FC11F49F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-780" windowWidth="38400" windowHeight="21140" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="441">
   <si>
     <t>New cases</t>
   </si>
@@ -1345,6 +1345,15 @@
   </si>
   <si>
     <t>Sat Apr 17 2021</t>
+  </si>
+  <si>
+    <t>Sun Apr 18 2021</t>
+  </si>
+  <si>
+    <t>Number of Tests</t>
+  </si>
+  <si>
+    <t>Positivity</t>
   </si>
 </sst>
 </file>
@@ -1703,10 +1712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1917BCDE-B3C2-FF4A-8B47-29076C29F28C}">
-  <dimension ref="A1:D435"/>
+  <dimension ref="A1:F436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="K441" sqref="K441"/>
+    <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
+      <selection activeCell="I430" sqref="I430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1715,9 +1724,10 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>412</v>
       </c>
@@ -1730,8 +1740,14 @@
       <c r="D1" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1745,8 +1761,14 @@
         <f t="shared" ref="D2:D65" si="0">(D3-B3)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1760,8 +1782,14 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1775,8 +1803,14 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1790,8 +1824,14 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1805,8 +1845,14 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1820,8 +1866,14 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1835,8 +1887,14 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1850,8 +1908,14 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1865,8 +1929,14 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1880,8 +1950,14 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1895,8 +1971,14 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1910,8 +1992,14 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1925,8 +2013,14 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1940,8 +2034,14 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1955,8 +2055,14 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1970,8 +2076,14 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1985,8 +2097,14 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2000,8 +2118,14 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2015,8 +2139,14 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2030,8 +2160,14 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -2045,8 +2181,14 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2202,14 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2075,8 +2223,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -2090,8 +2244,14 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -2105,8 +2265,14 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2120,8 +2286,14 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2135,8 +2307,14 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2150,8 +2328,14 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -2165,8 +2349,14 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -2180,8 +2370,14 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -2195,8 +2391,14 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2210,8 +2412,14 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -2225,8 +2433,14 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2454,14 @@
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2255,8 +2475,14 @@
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -2270,8 +2496,14 @@
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -2285,8 +2517,14 @@
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -2300,8 +2538,14 @@
         <f t="shared" si="0"/>
         <v>188</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -2315,8 +2559,14 @@
         <f t="shared" si="0"/>
         <v>213</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -2330,8 +2580,14 @@
         <f t="shared" si="0"/>
         <v>257</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -2345,8 +2601,14 @@
         <f t="shared" si="0"/>
         <v>317</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -2360,8 +2622,14 @@
         <f t="shared" si="0"/>
         <v>376</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -2375,8 +2643,14 @@
         <f t="shared" si="0"/>
         <v>424</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -2390,8 +2664,14 @@
         <f t="shared" si="0"/>
         <v>502</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -2405,8 +2685,14 @@
         <f t="shared" si="0"/>
         <v>587</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -2420,8 +2706,14 @@
         <f t="shared" si="0"/>
         <v>687</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -2435,8 +2727,14 @@
         <f t="shared" si="0"/>
         <v>857</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -2450,8 +2748,14 @@
         <f t="shared" si="0"/>
         <v>992</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -2465,8 +2769,14 @@
         <f t="shared" si="0"/>
         <v>1143</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -2480,8 +2790,14 @@
         <f t="shared" si="0"/>
         <v>1354</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -2495,8 +2811,14 @@
         <f t="shared" si="0"/>
         <v>1705</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -2510,8 +2832,14 @@
         <f t="shared" si="0"/>
         <v>1965</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -2525,8 +2853,14 @@
         <f t="shared" si="0"/>
         <v>2391</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -2540,8 +2874,14 @@
         <f t="shared" si="0"/>
         <v>2792</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -2555,8 +2895,14 @@
         <f t="shared" si="0"/>
         <v>3254</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -2570,8 +2916,14 @@
         <f t="shared" si="0"/>
         <v>3629</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -2585,8 +2937,14 @@
         <f t="shared" si="0"/>
         <v>4037</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -2600,8 +2958,14 @@
         <f t="shared" si="0"/>
         <v>4346</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -2615,8 +2979,14 @@
         <f t="shared" si="0"/>
         <v>4725</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -2630,8 +3000,14 @@
         <f t="shared" si="0"/>
         <v>5275</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -2645,8 +3021,14 @@
         <f t="shared" si="0"/>
         <v>5758</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -2660,8 +3042,14 @@
         <f t="shared" si="0"/>
         <v>6236</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2675,8 +3063,14 @@
         <f t="shared" si="0"/>
         <v>6647</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -2690,8 +3084,14 @@
         <f t="shared" si="0"/>
         <v>7048</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -2705,8 +3105,14 @@
         <f t="shared" ref="D66:D129" si="1">(D67-B67)</f>
         <v>7469</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -2720,8 +3126,14 @@
         <f t="shared" si="1"/>
         <v>7952</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -2735,8 +3147,14 @@
         <f t="shared" si="1"/>
         <v>8446</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -2750,8 +3168,14 @@
         <f t="shared" si="1"/>
         <v>8960</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -2765,8 +3189,14 @@
         <f t="shared" si="1"/>
         <v>9524</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -2780,8 +3210,14 @@
         <f t="shared" si="1"/>
         <v>10009</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -2795,8 +3231,14 @@
         <f t="shared" si="1"/>
         <v>10577</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -2810,8 +3252,14 @@
         <f t="shared" si="1"/>
         <v>11183</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -2825,8 +3273,14 @@
         <f t="shared" si="1"/>
         <v>11734</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -2840,8 +3294,14 @@
         <f t="shared" si="1"/>
         <v>12244</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -2855,8 +3315,14 @@
         <f t="shared" si="1"/>
         <v>12878</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -2870,8 +3336,14 @@
         <f t="shared" si="1"/>
         <v>13518</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -2885,8 +3357,14 @@
         <f t="shared" si="1"/>
         <v>13994</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -2900,8 +3378,14 @@
         <f t="shared" si="1"/>
         <v>14431</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -2915,8 +3399,14 @@
         <f t="shared" si="1"/>
         <v>14855</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -2930,8 +3420,14 @@
         <f t="shared" si="1"/>
         <v>15380</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -2945,8 +3441,14 @@
         <f t="shared" si="1"/>
         <v>15727</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -2960,8 +3462,14 @@
         <f t="shared" si="1"/>
         <v>16186</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -2975,8 +3483,14 @@
         <f t="shared" si="1"/>
         <v>16607</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -2990,8 +3504,14 @@
         <f t="shared" si="1"/>
         <v>17118</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -3005,8 +3525,14 @@
         <f t="shared" si="1"/>
         <v>17552</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -3020,8 +3546,14 @@
         <f t="shared" si="1"/>
         <v>17922</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -3035,8 +3567,14 @@
         <f t="shared" si="1"/>
         <v>18309</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -3050,8 +3588,14 @@
         <f t="shared" si="1"/>
         <v>18721</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -3065,8 +3609,14 @@
         <f t="shared" si="1"/>
         <v>19120</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -3080,8 +3630,14 @@
         <f t="shared" si="1"/>
         <v>19597</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -3095,8 +3651,14 @@
         <f t="shared" si="1"/>
         <v>19943</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -3110,8 +3672,14 @@
         <f t="shared" si="1"/>
         <v>20237</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -3125,8 +3693,14 @@
         <f t="shared" si="1"/>
         <v>20545</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -3140,8 +3714,14 @@
         <f t="shared" si="1"/>
         <v>20906</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -3155,8 +3735,14 @@
         <f t="shared" si="1"/>
         <v>21235</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -3170,8 +3756,14 @@
         <f t="shared" si="1"/>
         <v>21580</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -3185,8 +3777,14 @@
         <f t="shared" si="1"/>
         <v>21921</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -3200,8 +3798,14 @@
         <f t="shared" si="1"/>
         <v>22312</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -3215,8 +3819,14 @@
         <f t="shared" si="1"/>
         <v>22652</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -3230,8 +3840,14 @@
         <f t="shared" si="1"/>
         <v>22956</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -3245,8 +3861,14 @@
         <f t="shared" si="1"/>
         <v>23383</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -3260,8 +3882,14 @@
         <f t="shared" si="1"/>
         <v>23773</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -3275,8 +3903,14 @@
         <f t="shared" si="1"/>
         <v>24186</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -3290,8 +3924,14 @@
         <f t="shared" si="1"/>
         <v>24627</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -3305,8 +3945,14 @@
         <f t="shared" si="1"/>
         <v>25039</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -3320,8 +3966,14 @@
         <f t="shared" si="1"/>
         <v>25499</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -3335,8 +3987,14 @@
         <f t="shared" si="1"/>
         <v>25903</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -3350,8 +4008,14 @@
         <f t="shared" si="1"/>
         <v>26190</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -3365,8 +4029,14 @@
         <f t="shared" si="1"/>
         <v>26482</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -3380,8 +4050,14 @@
         <f t="shared" si="1"/>
         <v>26865</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -3395,8 +4071,14 @@
         <f t="shared" si="1"/>
         <v>27209</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -3410,8 +4092,14 @@
         <f t="shared" si="1"/>
         <v>27532</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -3425,8 +4113,14 @@
         <f t="shared" si="1"/>
         <v>27858</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -3440,8 +4134,14 @@
         <f t="shared" si="1"/>
         <v>28262</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -3455,8 +4155,14 @@
         <f t="shared" si="1"/>
         <v>28708</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -3470,8 +4176,14 @@
         <f t="shared" si="1"/>
         <v>29046</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -3485,8 +4197,14 @@
         <f t="shared" si="1"/>
         <v>29402</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -3500,8 +4218,14 @@
         <f t="shared" si="1"/>
         <v>29746</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -3515,8 +4239,14 @@
         <f t="shared" si="1"/>
         <v>30201</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -3530,8 +4260,14 @@
         <f t="shared" si="1"/>
         <v>30616</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -3545,8 +4281,14 @@
         <f t="shared" si="1"/>
         <v>30859</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -3560,8 +4302,14 @@
         <f t="shared" si="1"/>
         <v>31089</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -3575,8 +4323,14 @@
         <f t="shared" si="1"/>
         <v>31340</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -3590,8 +4344,14 @@
         <f t="shared" si="1"/>
         <v>31543</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -3605,8 +4365,14 @@
         <f t="shared" si="1"/>
         <v>31725</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -3620,8 +4386,14 @@
         <f t="shared" si="1"/>
         <v>31991</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -3635,8 +4407,14 @@
         <f t="shared" si="1"/>
         <v>32188</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -3650,8 +4428,14 @@
         <f t="shared" si="1"/>
         <v>32369</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -3665,8 +4449,14 @@
         <f t="shared" ref="D130:D193" si="2">(D131-B131)</f>
         <v>32553</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -3680,8 +4470,14 @@
         <f t="shared" si="2"/>
         <v>32743</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -3695,8 +4491,14 @@
         <f t="shared" si="2"/>
         <v>32916</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -3710,8 +4512,14 @@
         <f t="shared" si="2"/>
         <v>33094</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -3725,8 +4533,14 @@
         <f t="shared" si="2"/>
         <v>33300</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -3740,8 +4554,14 @@
         <f t="shared" si="2"/>
         <v>33475</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -3755,8 +4575,14 @@
         <f t="shared" si="2"/>
         <v>33636</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -3770,8 +4596,14 @@
         <f t="shared" si="2"/>
         <v>33852</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -3785,8 +4617,14 @@
         <f t="shared" si="2"/>
         <v>34015</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -3800,8 +4638,14 @@
         <f t="shared" si="2"/>
         <v>34204</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -3815,8 +4659,14 @@
         <f t="shared" si="2"/>
         <v>34315</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -3830,8 +4680,14 @@
         <f t="shared" si="2"/>
         <v>34475</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -3845,8 +4701,14 @@
         <f t="shared" si="2"/>
         <v>34653</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -3860,8 +4722,14 @@
         <f t="shared" si="2"/>
         <v>34910</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>144</v>
       </c>
@@ -3875,8 +4743,14 @@
         <f t="shared" si="2"/>
         <v>35067</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -3890,8 +4764,14 @@
         <f t="shared" si="2"/>
         <v>35216</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>146</v>
       </c>
@@ -3905,8 +4785,14 @@
         <f t="shared" si="2"/>
         <v>35369</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -3920,8 +4806,14 @@
         <f t="shared" si="2"/>
         <v>35534</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>148</v>
       </c>
@@ -3935,8 +4827,14 @@
         <f t="shared" si="2"/>
         <v>35655</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -3950,8 +4848,14 @@
         <f t="shared" si="2"/>
         <v>35793</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>150</v>
       </c>
@@ -3965,8 +4869,14 @@
         <f t="shared" si="2"/>
         <v>35947</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>151</v>
       </c>
@@ -3980,8 +4890,14 @@
         <f t="shared" si="2"/>
         <v>36059</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>152</v>
       </c>
@@ -3995,8 +4911,14 @@
         <f t="shared" si="2"/>
         <v>36177</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>153</v>
       </c>
@@ -4010,8 +4932,14 @@
         <f t="shared" si="2"/>
         <v>36347</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -4025,8 +4953,14 @@
         <f t="shared" si="2"/>
         <v>36463</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>155</v>
       </c>
@@ -4040,8 +4974,14 @@
         <f t="shared" si="2"/>
         <v>36593</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>156</v>
       </c>
@@ -4055,8 +4995,14 @@
         <f t="shared" si="2"/>
         <v>36722</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>157</v>
       </c>
@@ -4070,8 +5016,14 @@
         <f t="shared" si="2"/>
         <v>36838</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>158</v>
       </c>
@@ -4085,8 +5037,14 @@
         <f t="shared" si="2"/>
         <v>36949</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>159</v>
       </c>
@@ -4100,8 +5058,14 @@
         <f t="shared" si="2"/>
         <v>37051</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>160</v>
       </c>
@@ -4115,8 +5079,14 @@
         <f t="shared" si="2"/>
         <v>37162</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>161</v>
       </c>
@@ -4130,8 +5100,14 @@
         <f t="shared" si="2"/>
         <v>37273</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>162</v>
       </c>
@@ -4145,8 +5121,14 @@
         <f t="shared" si="2"/>
         <v>37439</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>163</v>
       </c>
@@ -4160,8 +5142,14 @@
         <f t="shared" si="2"/>
         <v>37603</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>164</v>
       </c>
@@ -4175,8 +5163,14 @@
         <f t="shared" si="2"/>
         <v>37738</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>165</v>
       </c>
@@ -4190,8 +5184,14 @@
         <f t="shared" si="2"/>
         <v>37941</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>166</v>
       </c>
@@ -4205,8 +5205,14 @@
         <f t="shared" si="2"/>
         <v>38106</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>167</v>
       </c>
@@ -4220,8 +5226,14 @@
         <f t="shared" si="2"/>
         <v>38209</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>168</v>
       </c>
@@ -4235,8 +5247,14 @@
         <f t="shared" si="2"/>
         <v>38404</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>169</v>
       </c>
@@ -4250,8 +5268,14 @@
         <f t="shared" si="2"/>
         <v>38542</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>170</v>
       </c>
@@ -4265,8 +5289,14 @@
         <f t="shared" si="2"/>
         <v>38679</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>171</v>
       </c>
@@ -4280,8 +5310,14 @@
         <f t="shared" si="2"/>
         <v>38798</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>172</v>
       </c>
@@ -4295,8 +5331,14 @@
         <f t="shared" si="2"/>
         <v>38909</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>173</v>
       </c>
@@ -4310,8 +5352,14 @@
         <f t="shared" si="2"/>
         <v>38985</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>174</v>
       </c>
@@ -4325,8 +5373,14 @@
         <f t="shared" si="2"/>
         <v>39074</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>175</v>
       </c>
@@ -4340,8 +5394,14 @@
         <f t="shared" si="2"/>
         <v>39208</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>176</v>
       </c>
@@ -4355,8 +5415,14 @@
         <f t="shared" si="2"/>
         <v>39332</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>177</v>
       </c>
@@ -4370,8 +5436,14 @@
         <f t="shared" si="2"/>
         <v>39448</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>178</v>
       </c>
@@ -4385,8 +5457,14 @@
         <f t="shared" si="2"/>
         <v>39536</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>179</v>
       </c>
@@ -4400,8 +5478,14 @@
         <f t="shared" si="2"/>
         <v>39627</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>180</v>
       </c>
@@ -4415,8 +5499,14 @@
         <f t="shared" si="2"/>
         <v>39713</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>181</v>
       </c>
@@ -4430,8 +5520,14 @@
         <f t="shared" si="2"/>
         <v>39808</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>182</v>
       </c>
@@ -4445,8 +5541,14 @@
         <f t="shared" si="2"/>
         <v>39896</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>183</v>
       </c>
@@ -4460,8 +5562,14 @@
         <f t="shared" si="2"/>
         <v>39966</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>184</v>
       </c>
@@ -4475,8 +5583,14 @@
         <f t="shared" si="2"/>
         <v>40045</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>185</v>
       </c>
@@ -4490,8 +5604,14 @@
         <f t="shared" si="2"/>
         <v>40160</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>186</v>
       </c>
@@ -4505,8 +5625,14 @@
         <f t="shared" si="2"/>
         <v>40193</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>187</v>
       </c>
@@ -4520,8 +5646,14 @@
         <f t="shared" si="2"/>
         <v>40288</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>188</v>
       </c>
@@ -4535,8 +5667,14 @@
         <f t="shared" si="2"/>
         <v>40366</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>189</v>
       </c>
@@ -4550,8 +5688,14 @@
         <f t="shared" si="2"/>
         <v>40458</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>190</v>
       </c>
@@ -4565,8 +5709,14 @@
         <f t="shared" si="2"/>
         <v>40564</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>191</v>
       </c>
@@ -4580,8 +5730,14 @@
         <f t="shared" si="2"/>
         <v>40645</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>192</v>
       </c>
@@ -4595,8 +5751,14 @@
         <f t="shared" si="2"/>
         <v>40744</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>193</v>
       </c>
@@ -4610,8 +5772,14 @@
         <f t="shared" si="2"/>
         <v>40869</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>194</v>
       </c>
@@ -4625,8 +5793,14 @@
         <f t="shared" ref="D194:D257" si="3">(D195-B195)</f>
         <v>40971</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>195</v>
       </c>
@@ -4640,8 +5814,14 @@
         <f t="shared" si="3"/>
         <v>41047</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>196</v>
       </c>
@@ -4655,8 +5835,14 @@
         <f t="shared" si="3"/>
         <v>41178</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>197</v>
       </c>
@@ -4670,8 +5856,14 @@
         <f t="shared" si="3"/>
         <v>41286</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>198</v>
       </c>
@@ -4685,8 +5877,14 @@
         <f t="shared" si="3"/>
         <v>41401</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>199</v>
       </c>
@@ -4700,8 +5898,14 @@
         <f t="shared" si="3"/>
         <v>41506</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>200</v>
       </c>
@@ -4715,8 +5919,14 @@
         <f t="shared" si="3"/>
         <v>41606</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>201</v>
       </c>
@@ -4730,8 +5940,14 @@
         <f t="shared" si="3"/>
         <v>41694</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>202</v>
       </c>
@@ -4745,8 +5961,14 @@
         <f t="shared" si="3"/>
         <v>41812</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>203</v>
       </c>
@@ -4760,8 +5982,14 @@
         <f t="shared" si="3"/>
         <v>41934</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>204</v>
       </c>
@@ -4775,8 +6003,14 @@
         <f t="shared" si="3"/>
         <v>42082</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>205</v>
       </c>
@@ -4790,8 +6024,14 @@
         <f t="shared" si="3"/>
         <v>42194</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>206</v>
       </c>
@@ -4805,8 +6045,14 @@
         <f t="shared" si="3"/>
         <v>42308</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>207</v>
       </c>
@@ -4820,8 +6066,14 @@
         <f t="shared" si="3"/>
         <v>42420</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>208</v>
       </c>
@@ -4835,8 +6087,14 @@
         <f t="shared" si="3"/>
         <v>42553</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>209</v>
       </c>
@@ -4850,8 +6108,14 @@
         <f t="shared" si="3"/>
         <v>42685</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>210</v>
       </c>
@@ -4865,8 +6129,14 @@
         <f t="shared" si="3"/>
         <v>42833</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>211</v>
       </c>
@@ -4880,8 +6150,14 @@
         <f t="shared" si="3"/>
         <v>43002</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>212</v>
       </c>
@@ -4895,8 +6171,14 @@
         <f t="shared" si="3"/>
         <v>43160</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>213</v>
       </c>
@@ -4910,8 +6192,14 @@
         <f t="shared" si="3"/>
         <v>43350</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>214</v>
       </c>
@@ -4925,8 +6213,14 @@
         <f t="shared" si="3"/>
         <v>43535</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>215</v>
       </c>
@@ -4940,8 +6234,14 @@
         <f t="shared" si="3"/>
         <v>43684</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>216</v>
       </c>
@@ -4955,8 +6255,14 @@
         <f t="shared" si="3"/>
         <v>43854</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>217</v>
       </c>
@@ -4970,8 +6276,14 @@
         <f t="shared" si="3"/>
         <v>44067</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>218</v>
       </c>
@@ -4985,8 +6297,14 @@
         <f t="shared" si="3"/>
         <v>44299</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>219</v>
       </c>
@@ -5000,8 +6318,14 @@
         <f t="shared" si="3"/>
         <v>44503</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>220</v>
       </c>
@@ -5015,8 +6339,14 @@
         <f t="shared" si="3"/>
         <v>44816</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>221</v>
       </c>
@@ -5030,8 +6360,14 @@
         <f t="shared" si="3"/>
         <v>45067</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>222</v>
       </c>
@@ -5045,8 +6381,14 @@
         <f t="shared" si="3"/>
         <v>45382</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>223</v>
       </c>
@@ -5060,8 +6402,14 @@
         <f t="shared" si="3"/>
         <v>45675</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>224</v>
       </c>
@@ -5075,8 +6423,14 @@
         <f t="shared" si="3"/>
         <v>46076</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>225</v>
       </c>
@@ -5090,8 +6444,14 @@
         <f t="shared" si="3"/>
         <v>46483</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>226</v>
       </c>
@@ -5105,8 +6465,14 @@
         <f t="shared" si="3"/>
         <v>46848</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>227</v>
       </c>
@@ -5120,8 +6486,14 @@
         <f t="shared" si="3"/>
         <v>47273</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>228</v>
       </c>
@@ -5135,8 +6507,14 @@
         <f t="shared" si="3"/>
         <v>47751</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>229</v>
       </c>
@@ -5150,8 +6528,14 @@
         <f t="shared" si="3"/>
         <v>48086</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>230</v>
       </c>
@@ -5165,8 +6549,14 @@
         <f t="shared" si="3"/>
         <v>48495</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>231</v>
       </c>
@@ -5180,8 +6570,14 @@
         <f t="shared" si="3"/>
         <v>48904</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>232</v>
       </c>
@@ -5195,8 +6591,14 @@
         <f t="shared" si="3"/>
         <v>49339</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>233</v>
       </c>
@@ -5210,8 +6612,14 @@
         <f t="shared" si="3"/>
         <v>49830</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>234</v>
       </c>
@@ -5225,8 +6633,14 @@
         <f t="shared" si="3"/>
         <v>50530</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>235</v>
       </c>
@@ -5240,8 +6654,14 @@
         <f t="shared" si="3"/>
         <v>51084</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>236</v>
       </c>
@@ -5255,8 +6675,14 @@
         <f t="shared" si="3"/>
         <v>51709</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>237</v>
       </c>
@@ -5270,8 +6696,14 @@
         <f t="shared" si="3"/>
         <v>52247</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>238</v>
       </c>
@@ -5285,8 +6717,14 @@
         <f t="shared" si="3"/>
         <v>52979</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>239</v>
       </c>
@@ -5300,8 +6738,14 @@
         <f t="shared" si="3"/>
         <v>53632</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>240</v>
       </c>
@@ -5315,8 +6759,14 @@
         <f t="shared" si="3"/>
         <v>54198</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>241</v>
       </c>
@@ -5330,8 +6780,14 @@
         <f t="shared" si="3"/>
         <v>54813</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>242</v>
       </c>
@@ -5345,8 +6801,14 @@
         <f t="shared" si="3"/>
         <v>55361</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>243</v>
       </c>
@@ -5360,8 +6822,14 @@
         <f t="shared" si="3"/>
         <v>55944</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>244</v>
       </c>
@@ -5375,8 +6843,14 @@
         <f t="shared" si="3"/>
         <v>56741</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E244">
+        <v>0</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>245</v>
       </c>
@@ -5390,8 +6864,14 @@
         <f t="shared" si="3"/>
         <v>57680</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>246</v>
       </c>
@@ -5405,8 +6885,14 @@
         <f t="shared" si="3"/>
         <v>58489</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>247</v>
       </c>
@@ -5420,8 +6906,14 @@
         <f t="shared" si="3"/>
         <v>59138</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>248</v>
       </c>
@@ -5435,8 +6927,14 @@
         <f t="shared" si="3"/>
         <v>59945</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>249</v>
       </c>
@@ -5450,8 +6948,14 @@
         <f t="shared" si="3"/>
         <v>60691</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>250</v>
       </c>
@@ -5465,8 +6969,14 @@
         <f t="shared" si="3"/>
         <v>61412</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>251</v>
       </c>
@@ -5480,8 +6990,14 @@
         <f t="shared" si="3"/>
         <v>62195</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>252</v>
       </c>
@@ -5495,8 +7011,14 @@
         <f t="shared" si="3"/>
         <v>62907</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>253</v>
       </c>
@@ -5510,8 +7032,14 @@
         <f t="shared" si="3"/>
         <v>63712</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>254</v>
       </c>
@@ -5525,8 +7053,14 @@
         <f t="shared" si="3"/>
         <v>64370</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>255</v>
       </c>
@@ -5540,8 +7074,14 @@
         <f t="shared" si="3"/>
         <v>65074</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>256</v>
       </c>
@@ -5555,8 +7095,14 @@
         <f t="shared" si="3"/>
         <v>65895</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>257</v>
       </c>
@@ -5570,8 +7116,14 @@
         <f t="shared" si="3"/>
         <v>66685</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>258</v>
       </c>
@@ -5585,8 +7137,14 @@
         <f t="shared" ref="D258:D321" si="4">(D259-B259)</f>
         <v>67526</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>259</v>
       </c>
@@ -5600,8 +7158,14 @@
         <f t="shared" si="4"/>
         <v>68352</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>260</v>
       </c>
@@ -5615,8 +7179,14 @@
         <f t="shared" si="4"/>
         <v>69330</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E260">
+        <v>0</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>261</v>
       </c>
@@ -5630,8 +7200,14 @@
         <f t="shared" si="4"/>
         <v>70372</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E261">
+        <v>0</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>262</v>
       </c>
@@ -5645,8 +7221,14 @@
         <f t="shared" si="4"/>
         <v>71223</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>263</v>
       </c>
@@ -5660,8 +7242,14 @@
         <f t="shared" si="4"/>
         <v>72050</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E263">
+        <v>0</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>264</v>
       </c>
@@ -5675,8 +7263,14 @@
         <f t="shared" si="4"/>
         <v>72884</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>265</v>
       </c>
@@ -5690,8 +7284,14 @@
         <f t="shared" si="4"/>
         <v>73818</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E265">
+        <v>0</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>266</v>
       </c>
@@ -5705,8 +7305,14 @@
         <f t="shared" si="4"/>
         <v>74714</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E266">
+        <v>0</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>267</v>
       </c>
@@ -5720,8 +7326,14 @@
         <f t="shared" si="4"/>
         <v>75729</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E267">
+        <v>0</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>268</v>
       </c>
@@ -5735,8 +7347,14 @@
         <f t="shared" si="4"/>
         <v>76706</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E268">
+        <v>0</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>269</v>
       </c>
@@ -5750,8 +7368,14 @@
         <f t="shared" si="4"/>
         <v>77654</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E269">
+        <v>0</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>270</v>
       </c>
@@ -5765,8 +7389,14 @@
         <f t="shared" si="4"/>
         <v>78704</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E270">
+        <v>0</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>271</v>
       </c>
@@ -5780,8 +7410,14 @@
         <f t="shared" si="4"/>
         <v>79691</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E271">
+        <v>0</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>272</v>
       </c>
@@ -5795,8 +7431,14 @@
         <f t="shared" si="4"/>
         <v>80689</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E272">
+        <v>0</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>273</v>
       </c>
@@ -5810,8 +7452,14 @@
         <f t="shared" si="4"/>
         <v>81692</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E273">
+        <v>0</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>274</v>
       </c>
@@ -5825,8 +7473,14 @@
         <f t="shared" si="4"/>
         <v>82824</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E274">
+        <v>0</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>275</v>
       </c>
@@ -5840,8 +7494,14 @@
         <f t="shared" si="4"/>
         <v>84152</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E275">
+        <v>0</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>276</v>
       </c>
@@ -5855,8 +7515,14 @@
         <f t="shared" si="4"/>
         <v>85394</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>277</v>
       </c>
@@ -5870,8 +7536,14 @@
         <f t="shared" si="4"/>
         <v>86782</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>278</v>
       </c>
@@ -5885,8 +7557,14 @@
         <f t="shared" si="4"/>
         <v>88208</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>279</v>
       </c>
@@ -5900,8 +7578,14 @@
         <f t="shared" si="4"/>
         <v>89783</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>280</v>
       </c>
@@ -5915,8 +7599,14 @@
         <f t="shared" si="4"/>
         <v>91179</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>281</v>
       </c>
@@ -5930,8 +7620,14 @@
         <f t="shared" si="4"/>
         <v>92760</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>282</v>
       </c>
@@ -5945,8 +7641,14 @@
         <f t="shared" si="4"/>
         <v>94008</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>283</v>
       </c>
@@ -5960,8 +7662,14 @@
         <f t="shared" si="4"/>
         <v>95495</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>284</v>
       </c>
@@ -5975,8 +7683,14 @@
         <f t="shared" si="4"/>
         <v>96744</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>285</v>
       </c>
@@ -5990,8 +7704,14 @@
         <f t="shared" si="4"/>
         <v>98161</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>286</v>
       </c>
@@ -6005,8 +7725,14 @@
         <f t="shared" si="4"/>
         <v>99371</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>287</v>
       </c>
@@ -6020,8 +7746,14 @@
         <f t="shared" si="4"/>
         <v>100789</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E287">
+        <v>0</v>
+      </c>
+      <c r="F287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>288</v>
       </c>
@@ -6035,8 +7767,14 @@
         <f t="shared" si="4"/>
         <v>102377</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E288">
+        <v>0</v>
+      </c>
+      <c r="F288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>289</v>
       </c>
@@ -6050,8 +7788,14 @@
         <f t="shared" si="4"/>
         <v>103911</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>290</v>
       </c>
@@ -6065,8 +7809,14 @@
         <f t="shared" si="4"/>
         <v>105500</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>291</v>
       </c>
@@ -6080,8 +7830,14 @@
         <f t="shared" si="4"/>
         <v>106509</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>292</v>
       </c>
@@ -6095,8 +7851,14 @@
         <f t="shared" si="4"/>
         <v>107882</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E292">
+        <v>0</v>
+      </c>
+      <c r="F292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>293</v>
       </c>
@@ -6110,8 +7872,14 @@
         <f t="shared" si="4"/>
         <v>109360</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E293">
+        <v>0</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>294</v>
       </c>
@@ -6125,8 +7893,14 @@
         <f t="shared" si="4"/>
         <v>111215</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E294">
+        <v>0</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>295</v>
       </c>
@@ -6140,8 +7914,14 @@
         <f t="shared" si="4"/>
         <v>113037</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E295">
+        <v>0</v>
+      </c>
+      <c r="F295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>296</v>
       </c>
@@ -6155,8 +7935,14 @@
         <f t="shared" si="4"/>
         <v>114745</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>297</v>
       </c>
@@ -6170,8 +7956,14 @@
         <f t="shared" si="4"/>
         <v>116491</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>298</v>
       </c>
@@ -6185,8 +7977,14 @@
         <f t="shared" si="4"/>
         <v>118198</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>299</v>
       </c>
@@ -6200,8 +7998,14 @@
         <f t="shared" si="4"/>
         <v>119921</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>300</v>
       </c>
@@ -6215,8 +8019,14 @@
         <f t="shared" si="4"/>
         <v>121745</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E300">
+        <v>0</v>
+      </c>
+      <c r="F300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>301</v>
       </c>
@@ -6230,8 +8040,14 @@
         <f t="shared" si="4"/>
         <v>123525</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E301">
+        <v>0</v>
+      </c>
+      <c r="F301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>302</v>
       </c>
@@ -6245,8 +8061,14 @@
         <f t="shared" si="4"/>
         <v>125384</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E302">
+        <v>0</v>
+      </c>
+      <c r="F302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>303</v>
       </c>
@@ -6260,8 +8082,14 @@
         <f t="shared" si="4"/>
         <v>127308</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E303">
+        <v>0</v>
+      </c>
+      <c r="F303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>304</v>
       </c>
@@ -6275,8 +8103,14 @@
         <f t="shared" si="4"/>
         <v>129233</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E304">
+        <v>0</v>
+      </c>
+      <c r="F304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>305</v>
       </c>
@@ -6290,8 +8124,14 @@
         <f t="shared" si="4"/>
         <v>130909</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E305">
+        <v>0</v>
+      </c>
+      <c r="F305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>306</v>
       </c>
@@ -6305,8 +8145,14 @@
         <f t="shared" si="4"/>
         <v>132799</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E306">
+        <v>0</v>
+      </c>
+      <c r="F306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>307</v>
       </c>
@@ -6320,8 +8166,14 @@
         <f t="shared" si="4"/>
         <v>134782</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E307">
+        <v>0</v>
+      </c>
+      <c r="F307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>308</v>
       </c>
@@ -6335,8 +8187,14 @@
         <f t="shared" si="4"/>
         <v>136630</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E308">
+        <v>0</v>
+      </c>
+      <c r="F308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>309</v>
       </c>
@@ -6350,8 +8208,14 @@
         <f t="shared" si="4"/>
         <v>138503</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E309">
+        <v>0</v>
+      </c>
+      <c r="F309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>310</v>
       </c>
@@ -6365,8 +8229,14 @@
         <f t="shared" si="4"/>
         <v>140180</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E310">
+        <v>0</v>
+      </c>
+      <c r="F310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>311</v>
       </c>
@@ -6380,8 +8250,14 @@
         <f t="shared" si="4"/>
         <v>142120</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E311">
+        <v>0</v>
+      </c>
+      <c r="F311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>312</v>
       </c>
@@ -6395,8 +8271,14 @@
         <f t="shared" si="4"/>
         <v>144395</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E312">
+        <v>0</v>
+      </c>
+      <c r="F312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>313</v>
       </c>
@@ -6410,8 +8292,14 @@
         <f t="shared" si="4"/>
         <v>146534</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E313">
+        <v>0</v>
+      </c>
+      <c r="F313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>314</v>
       </c>
@@ -6425,8 +8313,14 @@
         <f t="shared" si="4"/>
         <v>148966</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E314">
+        <v>0</v>
+      </c>
+      <c r="F314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>315</v>
       </c>
@@ -6440,8 +8334,14 @@
         <f t="shared" si="4"/>
         <v>151256</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E315">
+        <v>0</v>
+      </c>
+      <c r="F315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>316</v>
       </c>
@@ -6455,8 +8355,14 @@
         <f t="shared" si="4"/>
         <v>153613</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E316">
+        <v>0</v>
+      </c>
+      <c r="F316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>317</v>
       </c>
@@ -6470,8 +8376,14 @@
         <f t="shared" si="4"/>
         <v>155929</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E317">
+        <v>0</v>
+      </c>
+      <c r="F317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>318</v>
       </c>
@@ -6485,8 +8397,14 @@
         <f t="shared" si="4"/>
         <v>158052</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E318">
+        <v>0</v>
+      </c>
+      <c r="F318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>319</v>
       </c>
@@ -6500,8 +8418,14 @@
         <f t="shared" si="4"/>
         <v>160254</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E319">
+        <v>0</v>
+      </c>
+      <c r="F319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>320</v>
       </c>
@@ -6515,8 +8439,14 @@
         <f t="shared" si="4"/>
         <v>162662</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E320">
+        <v>0</v>
+      </c>
+      <c r="F320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>321</v>
       </c>
@@ -6530,8 +8460,14 @@
         <f t="shared" si="4"/>
         <v>165109</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E321">
+        <v>0</v>
+      </c>
+      <c r="F321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>322</v>
       </c>
@@ -6545,8 +8481,14 @@
         <f t="shared" ref="D322:D385" si="5">(D323-B323)</f>
         <v>167268</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E322">
+        <v>0</v>
+      </c>
+      <c r="F322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>323</v>
       </c>
@@ -6560,8 +8502,14 @@
         <f t="shared" si="5"/>
         <v>169410</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E323">
+        <v>0</v>
+      </c>
+      <c r="F323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>324</v>
       </c>
@@ -6575,8 +8523,14 @@
         <f t="shared" si="5"/>
         <v>171415</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E324">
+        <v>0</v>
+      </c>
+      <c r="F324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>325</v>
       </c>
@@ -6590,8 +8544,14 @@
         <f t="shared" si="5"/>
         <v>173354</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E325">
+        <v>0</v>
+      </c>
+      <c r="F325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>326</v>
       </c>
@@ -6605,8 +8565,14 @@
         <f t="shared" si="5"/>
         <v>175907</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E326">
+        <v>0</v>
+      </c>
+      <c r="F326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>327</v>
       </c>
@@ -6620,8 +8586,14 @@
         <f t="shared" si="5"/>
         <v>178830</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E327">
+        <v>0</v>
+      </c>
+      <c r="F327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>328</v>
       </c>
@@ -6635,8 +8607,14 @@
         <f t="shared" si="5"/>
         <v>182158</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E328">
+        <v>0</v>
+      </c>
+      <c r="F328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>329</v>
       </c>
@@ -6650,8 +8628,14 @@
         <f t="shared" si="5"/>
         <v>184634</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E329">
+        <v>0</v>
+      </c>
+      <c r="F329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>330</v>
       </c>
@@ -6665,8 +8649,14 @@
         <f t="shared" si="5"/>
         <v>187997</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E330">
+        <v>0</v>
+      </c>
+      <c r="F330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>331</v>
       </c>
@@ -6680,8 +8670,14 @@
         <f t="shared" si="5"/>
         <v>190961</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E331">
+        <v>0</v>
+      </c>
+      <c r="F331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>332</v>
       </c>
@@ -6695,8 +8691,14 @@
         <f t="shared" si="5"/>
         <v>194231</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E332">
+        <v>0</v>
+      </c>
+      <c r="F332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>333</v>
       </c>
@@ -6710,8 +8712,14 @@
         <f t="shared" si="5"/>
         <v>197359</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E333">
+        <v>0</v>
+      </c>
+      <c r="F333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>334</v>
       </c>
@@ -6725,8 +8733,14 @@
         <f t="shared" si="5"/>
         <v>200625</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E334">
+        <v>0</v>
+      </c>
+      <c r="F334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>335</v>
       </c>
@@ -6740,8 +8754,14 @@
         <f t="shared" si="5"/>
         <v>204144</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E335">
+        <v>0</v>
+      </c>
+      <c r="F335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>336</v>
       </c>
@@ -6755,8 +8775,14 @@
         <f t="shared" si="5"/>
         <v>208393</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E336">
+        <v>0</v>
+      </c>
+      <c r="F336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>337</v>
       </c>
@@ -6770,8 +8796,14 @@
         <f t="shared" si="5"/>
         <v>211836</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E337">
+        <v>0</v>
+      </c>
+      <c r="F337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>338</v>
       </c>
@@ -6785,8 +8817,14 @@
         <f t="shared" si="5"/>
         <v>215781</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E338">
+        <v>0</v>
+      </c>
+      <c r="F338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>339</v>
       </c>
@@ -6800,8 +8838,14 @@
         <f t="shared" si="5"/>
         <v>219119</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E339">
+        <v>0</v>
+      </c>
+      <c r="F339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>340</v>
       </c>
@@ -6815,8 +8859,14 @@
         <f t="shared" si="5"/>
         <v>222022</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E340">
+        <v>0</v>
+      </c>
+      <c r="F340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>341</v>
       </c>
@@ -6830,8 +8880,14 @@
         <f t="shared" si="5"/>
         <v>224983</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E341">
+        <v>0</v>
+      </c>
+      <c r="F341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>342</v>
       </c>
@@ -6845,8 +8901,14 @@
         <f t="shared" si="5"/>
         <v>228309</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E342">
+        <v>0</v>
+      </c>
+      <c r="F342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>343</v>
       </c>
@@ -6860,8 +8922,14 @@
         <f t="shared" si="5"/>
         <v>231307</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E343">
+        <v>0</v>
+      </c>
+      <c r="F343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>344</v>
       </c>
@@ -6875,8 +8943,14 @@
         <f t="shared" si="5"/>
         <v>234363</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E344">
+        <v>0</v>
+      </c>
+      <c r="F344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>345</v>
       </c>
@@ -6890,8 +8964,14 @@
         <f t="shared" si="5"/>
         <v>237785</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E345">
+        <v>0</v>
+      </c>
+      <c r="F345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>346</v>
       </c>
@@ -6905,8 +8985,14 @@
         <f t="shared" si="5"/>
         <v>240363</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E346">
+        <v>0</v>
+      </c>
+      <c r="F346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>347</v>
       </c>
@@ -6920,8 +9006,14 @@
         <f t="shared" si="5"/>
         <v>242276</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E347">
+        <v>0</v>
+      </c>
+      <c r="F347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>348</v>
       </c>
@@ -6935,8 +9027,14 @@
         <f t="shared" si="5"/>
         <v>244931</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E348">
+        <v>0</v>
+      </c>
+      <c r="F348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>349</v>
       </c>
@@ -6950,8 +9048,14 @@
         <f t="shared" si="5"/>
         <v>247563</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E349">
+        <v>0</v>
+      </c>
+      <c r="F349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>350</v>
       </c>
@@ -6965,8 +9069,14 @@
         <f t="shared" si="5"/>
         <v>250225</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E350">
+        <v>0</v>
+      </c>
+      <c r="F350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>351</v>
       </c>
@@ -6980,8 +9090,14 @@
         <f t="shared" si="5"/>
         <v>252584</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E351">
+        <v>0</v>
+      </c>
+      <c r="F351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>352</v>
       </c>
@@ -6995,8 +9111,14 @@
         <f t="shared" si="5"/>
         <v>255001</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E352">
+        <v>0</v>
+      </c>
+      <c r="F352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>353</v>
       </c>
@@ -7010,8 +9132,14 @@
         <f t="shared" si="5"/>
         <v>256959</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E353">
+        <v>0</v>
+      </c>
+      <c r="F353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>354</v>
       </c>
@@ -7025,8 +9153,14 @@
         <f t="shared" si="5"/>
         <v>258699</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E354">
+        <v>0</v>
+      </c>
+      <c r="F354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>355</v>
       </c>
@@ -7040,8 +9174,14 @@
         <f t="shared" si="5"/>
         <v>260369</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E355">
+        <v>0</v>
+      </c>
+      <c r="F355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>356</v>
       </c>
@@ -7055,8 +9195,14 @@
         <f t="shared" si="5"/>
         <v>262462</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E356">
+        <v>0</v>
+      </c>
+      <c r="F356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>357</v>
       </c>
@@ -7070,8 +9216,14 @@
         <f t="shared" si="5"/>
         <v>264299</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E357">
+        <v>0</v>
+      </c>
+      <c r="F357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>358</v>
       </c>
@@ -7085,8 +9237,14 @@
         <f t="shared" si="5"/>
         <v>266362</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E358">
+        <v>0</v>
+      </c>
+      <c r="F358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>359</v>
       </c>
@@ -7100,8 +9258,14 @@
         <f t="shared" si="5"/>
         <v>268210</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E359">
+        <v>0</v>
+      </c>
+      <c r="F359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>360</v>
       </c>
@@ -7115,8 +9279,14 @@
         <f t="shared" si="5"/>
         <v>270179</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E360">
+        <v>0</v>
+      </c>
+      <c r="F360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>361</v>
       </c>
@@ -7130,8 +9300,14 @@
         <f t="shared" si="5"/>
         <v>270924</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E361">
+        <v>0</v>
+      </c>
+      <c r="F361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>362</v>
       </c>
@@ -7145,8 +9321,14 @@
         <f t="shared" si="5"/>
         <v>272096</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E362">
+        <v>0</v>
+      </c>
+      <c r="F362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>363</v>
       </c>
@@ -7160,8 +9342,14 @@
         <f t="shared" si="5"/>
         <v>273659</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E363">
+        <v>0</v>
+      </c>
+      <c r="F363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>364</v>
       </c>
@@ -7175,8 +9363,14 @@
         <f t="shared" si="5"/>
         <v>275329</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E364">
+        <v>0</v>
+      </c>
+      <c r="F364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>365</v>
       </c>
@@ -7190,8 +9384,14 @@
         <f t="shared" si="5"/>
         <v>276717</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E365">
+        <v>0</v>
+      </c>
+      <c r="F365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>366</v>
       </c>
@@ -7205,8 +9405,14 @@
         <f t="shared" si="5"/>
         <v>278206</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E366">
+        <v>0</v>
+      </c>
+      <c r="F366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>367</v>
       </c>
@@ -7220,8 +9426,14 @@
         <f t="shared" si="5"/>
         <v>279471</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E367">
+        <v>0</v>
+      </c>
+      <c r="F367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>368</v>
       </c>
@@ -7235,8 +9447,14 @@
         <f t="shared" si="5"/>
         <v>280493</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E368">
+        <v>0</v>
+      </c>
+      <c r="F368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>369</v>
       </c>
@@ -7250,8 +9468,14 @@
         <f t="shared" si="5"/>
         <v>281565</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E369">
+        <v>0</v>
+      </c>
+      <c r="F369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>370</v>
       </c>
@@ -7265,8 +9489,14 @@
         <f t="shared" si="5"/>
         <v>282510</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E370">
+        <v>0</v>
+      </c>
+      <c r="F370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>371</v>
       </c>
@@ -7280,8 +9510,14 @@
         <f t="shared" si="5"/>
         <v>283586</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E371">
+        <v>0</v>
+      </c>
+      <c r="F371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>372</v>
       </c>
@@ -7295,8 +9531,14 @@
         <f t="shared" si="5"/>
         <v>284886</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E372">
+        <v>0</v>
+      </c>
+      <c r="F372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>373</v>
       </c>
@@ -7310,8 +9552,14 @@
         <f t="shared" si="5"/>
         <v>285867</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E373">
+        <v>0</v>
+      </c>
+      <c r="F373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>374</v>
       </c>
@@ -7325,8 +9573,14 @@
         <f t="shared" si="5"/>
         <v>286831</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E374">
+        <v>0</v>
+      </c>
+      <c r="F374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>375</v>
       </c>
@@ -7340,8 +9594,14 @@
         <f t="shared" si="5"/>
         <v>287735</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E375">
+        <v>0</v>
+      </c>
+      <c r="F375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>376</v>
       </c>
@@ -7355,8 +9615,14 @@
         <f t="shared" si="5"/>
         <v>288582</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E376">
+        <v>0</v>
+      </c>
+      <c r="F376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>377</v>
       </c>
@@ -7370,8 +9636,14 @@
         <f t="shared" si="5"/>
         <v>289620</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E377">
+        <v>0</v>
+      </c>
+      <c r="F377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>378</v>
       </c>
@@ -7385,8 +9657,14 @@
         <f t="shared" si="5"/>
         <v>290770</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E378">
+        <v>0</v>
+      </c>
+      <c r="F378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>379</v>
       </c>
@@ -7400,8 +9678,14 @@
         <f t="shared" si="5"/>
         <v>291998</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E379">
+        <v>0</v>
+      </c>
+      <c r="F379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>380</v>
       </c>
@@ -7415,8 +9699,14 @@
         <f t="shared" si="5"/>
         <v>293085</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E380">
+        <v>0</v>
+      </c>
+      <c r="F380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>381</v>
       </c>
@@ -7430,8 +9720,14 @@
         <f t="shared" si="5"/>
         <v>294143</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E381">
+        <v>0</v>
+      </c>
+      <c r="F381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>382</v>
       </c>
@@ -7445,8 +9741,14 @@
         <f t="shared" si="5"/>
         <v>295118</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E382">
+        <v>0</v>
+      </c>
+      <c r="F382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>383</v>
       </c>
@@ -7460,8 +9762,14 @@
         <f t="shared" si="5"/>
         <v>296172</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E383">
+        <v>0</v>
+      </c>
+      <c r="F383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>384</v>
       </c>
@@ -7475,8 +9783,14 @@
         <f t="shared" si="5"/>
         <v>297310</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E384">
+        <v>0</v>
+      </c>
+      <c r="F384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>385</v>
       </c>
@@ -7490,8 +9804,14 @@
         <f t="shared" si="5"/>
         <v>298568</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E385">
+        <v>0</v>
+      </c>
+      <c r="F385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>386</v>
       </c>
@@ -7505,8 +9825,14 @@
         <f t="shared" ref="D386:D431" si="6">(D387-B387)</f>
         <v>299753</v>
       </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E386">
+        <v>0</v>
+      </c>
+      <c r="F386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>387</v>
       </c>
@@ -7520,8 +9846,14 @@
         <f t="shared" si="6"/>
         <v>300815</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E387">
+        <v>0</v>
+      </c>
+      <c r="F387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>388</v>
       </c>
@@ -7535,8 +9867,14 @@
         <f t="shared" si="6"/>
         <v>301838</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E388">
+        <v>0</v>
+      </c>
+      <c r="F388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>389</v>
       </c>
@@ -7550,8 +9888,14 @@
         <f t="shared" si="6"/>
         <v>302804</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E389">
+        <v>0</v>
+      </c>
+      <c r="F389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>390</v>
       </c>
@@ -7565,8 +9909,14 @@
         <f t="shared" si="6"/>
         <v>303762</v>
       </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E390">
+        <v>0</v>
+      </c>
+      <c r="F390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>391</v>
       </c>
@@ -7580,8 +9930,14 @@
         <f t="shared" si="6"/>
         <v>304756</v>
       </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E391">
+        <v>0</v>
+      </c>
+      <c r="F391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>392</v>
       </c>
@@ -7595,8 +9951,14 @@
         <f t="shared" si="6"/>
         <v>306006</v>
       </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E392">
+        <v>0</v>
+      </c>
+      <c r="F392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>393</v>
       </c>
@@ -7610,8 +9972,14 @@
         <f t="shared" si="6"/>
         <v>306996</v>
       </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E393">
+        <v>0</v>
+      </c>
+      <c r="F393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>394</v>
       </c>
@@ -7625,8 +9993,14 @@
         <f t="shared" si="6"/>
         <v>308295</v>
       </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E394">
+        <v>0</v>
+      </c>
+      <c r="F394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>395</v>
       </c>
@@ -7640,8 +10014,14 @@
         <f t="shared" si="6"/>
         <v>309926</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E395">
+        <v>0</v>
+      </c>
+      <c r="F395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>396</v>
       </c>
@@ -7655,8 +10035,14 @@
         <f t="shared" si="6"/>
         <v>311111</v>
       </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E396">
+        <v>0</v>
+      </c>
+      <c r="F396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>397</v>
       </c>
@@ -7670,8 +10056,14 @@
         <f t="shared" si="6"/>
         <v>312427</v>
       </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E397">
+        <v>0</v>
+      </c>
+      <c r="F397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>398</v>
       </c>
@@ -7685,8 +10077,14 @@
         <f t="shared" si="6"/>
         <v>313519</v>
       </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E398">
+        <v>0</v>
+      </c>
+      <c r="F398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>399</v>
       </c>
@@ -7700,8 +10098,14 @@
         <f t="shared" si="6"/>
         <v>314890</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E399">
+        <v>0</v>
+      </c>
+      <c r="F399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>400</v>
       </c>
@@ -7715,8 +10119,14 @@
         <f t="shared" si="6"/>
         <v>316358</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E400">
+        <v>0</v>
+      </c>
+      <c r="F400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>401</v>
       </c>
@@ -7730,8 +10140,14 @@
         <f t="shared" si="6"/>
         <v>318105</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E401">
+        <v>0</v>
+      </c>
+      <c r="F401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>402</v>
       </c>
@@ -7745,8 +10161,14 @@
         <f t="shared" si="6"/>
         <v>319373</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E402">
+        <v>0</v>
+      </c>
+      <c r="F402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>403</v>
       </c>
@@ -7760,8 +10182,14 @@
         <f t="shared" si="6"/>
         <v>320447</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E403">
+        <v>0</v>
+      </c>
+      <c r="F403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>404</v>
       </c>
@@ -7775,8 +10203,14 @@
         <f t="shared" si="6"/>
         <v>321955</v>
       </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E404">
+        <v>0</v>
+      </c>
+      <c r="F404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>405</v>
       </c>
@@ -7790,8 +10224,14 @@
         <f t="shared" si="6"/>
         <v>323508</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E405">
+        <v>0</v>
+      </c>
+      <c r="F405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>406</v>
       </c>
@@ -7805,8 +10245,14 @@
         <f t="shared" si="6"/>
         <v>325253</v>
       </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E406">
+        <v>0</v>
+      </c>
+      <c r="F406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>407</v>
       </c>
@@ -7820,8 +10266,14 @@
         <f t="shared" si="6"/>
         <v>327082</v>
       </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E407">
+        <v>0</v>
+      </c>
+      <c r="F407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>408</v>
       </c>
@@ -7835,8 +10287,14 @@
         <f t="shared" si="6"/>
         <v>328873</v>
       </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E408">
+        <v>0</v>
+      </c>
+      <c r="F408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>409</v>
       </c>
@@ -7850,8 +10308,14 @@
         <f t="shared" si="6"/>
         <v>330572</v>
       </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E409">
+        <v>0</v>
+      </c>
+      <c r="F409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>410</v>
       </c>
@@ -7865,8 +10329,14 @@
         <f t="shared" si="6"/>
         <v>332118</v>
       </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E410">
+        <v>0</v>
+      </c>
+      <c r="F410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>411</v>
       </c>
@@ -7880,8 +10350,14 @@
         <f t="shared" si="6"/>
         <v>333689</v>
       </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E411">
+        <v>0</v>
+      </c>
+      <c r="F411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>413</v>
       </c>
@@ -7889,15 +10365,21 @@
         <v>2380</v>
       </c>
       <c r="C412" s="1">
-        <f t="shared" ref="C412:C435" si="7">AVERAGE(B406:B412)</f>
+        <f t="shared" ref="C412:C436" si="7">AVERAGE(B406:B412)</f>
         <v>1794.4285714285713</v>
       </c>
       <c r="D412">
         <f t="shared" si="6"/>
         <v>336069</v>
       </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E412">
+        <v>0</v>
+      </c>
+      <c r="F412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>414</v>
       </c>
@@ -7912,8 +10394,14 @@
         <f t="shared" si="6"/>
         <v>338238</v>
       </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E413">
+        <v>0</v>
+      </c>
+      <c r="F413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>415</v>
       </c>
@@ -7928,8 +10416,14 @@
         <f t="shared" si="6"/>
         <v>340691</v>
       </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E414">
+        <v>0</v>
+      </c>
+      <c r="F414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>416</v>
       </c>
@@ -7944,8 +10438,14 @@
         <f t="shared" si="6"/>
         <v>343139</v>
       </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E415">
+        <v>0</v>
+      </c>
+      <c r="F415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>417</v>
       </c>
@@ -7960,8 +10460,14 @@
         <f t="shared" si="6"/>
         <v>345233</v>
       </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E416">
+        <v>0</v>
+      </c>
+      <c r="F416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>418</v>
       </c>
@@ -7976,8 +10482,14 @@
         <f t="shared" si="6"/>
         <v>347569</v>
       </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E417">
+        <v>0</v>
+      </c>
+      <c r="F417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>419</v>
       </c>
@@ -7992,8 +10504,14 @@
         <f t="shared" si="6"/>
         <v>349902</v>
       </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E418">
+        <v>0</v>
+      </c>
+      <c r="F418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>420</v>
       </c>
@@ -8008,8 +10526,14 @@
         <f t="shared" si="6"/>
         <v>352459</v>
       </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E419">
+        <v>0</v>
+      </c>
+      <c r="F419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>421</v>
       </c>
@@ -8024,8 +10548,14 @@
         <f t="shared" si="6"/>
         <v>355548</v>
       </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E420">
+        <v>0</v>
+      </c>
+      <c r="F420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>422</v>
       </c>
@@ -8040,8 +10570,14 @@
         <f t="shared" si="6"/>
         <v>358557</v>
       </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E421">
+        <v>0</v>
+      </c>
+      <c r="F421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>423</v>
       </c>
@@ -8056,8 +10592,14 @@
         <f t="shared" si="6"/>
         <v>361598</v>
       </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E422">
+        <v>0</v>
+      </c>
+      <c r="F422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>424</v>
       </c>
@@ -8072,8 +10614,14 @@
         <f t="shared" si="6"/>
         <v>364536</v>
       </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E423">
+        <v>0</v>
+      </c>
+      <c r="F423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>425</v>
       </c>
@@ -8088,8 +10636,14 @@
         <f t="shared" si="6"/>
         <v>367601</v>
       </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E424">
+        <v>0</v>
+      </c>
+      <c r="F424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>426</v>
       </c>
@@ -8104,8 +10658,14 @@
         <f t="shared" si="6"/>
         <v>370816</v>
       </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E425">
+        <v>0</v>
+      </c>
+      <c r="F425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>427</v>
       </c>
@@ -8120,8 +10680,14 @@
         <f t="shared" si="6"/>
         <v>374111</v>
       </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E426">
+        <v>0</v>
+      </c>
+      <c r="F426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>428</v>
       </c>
@@ -8136,8 +10702,14 @@
         <f t="shared" si="6"/>
         <v>378338</v>
       </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E427">
+        <v>0</v>
+      </c>
+      <c r="F427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>429</v>
       </c>
@@ -8152,8 +10724,14 @@
         <f t="shared" si="6"/>
         <v>382151</v>
       </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E428">
+        <v>0</v>
+      </c>
+      <c r="F428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>430</v>
       </c>
@@ -8168,8 +10746,14 @@
         <f t="shared" si="6"/>
         <v>386607</v>
       </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E429">
+        <v>0</v>
+      </c>
+      <c r="F429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>431</v>
       </c>
@@ -8184,8 +10768,14 @@
         <f t="shared" si="6"/>
         <v>391008</v>
       </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E430">
+        <v>0</v>
+      </c>
+      <c r="F430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>432</v>
       </c>
@@ -8200,8 +10790,14 @@
         <f t="shared" si="6"/>
         <v>394678</v>
       </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E431">
+        <v>0</v>
+      </c>
+      <c r="F431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>433</v>
       </c>
@@ -8216,8 +10812,14 @@
         <f>(D433-B433)</f>
         <v>398834</v>
       </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E432">
+        <v>0</v>
+      </c>
+      <c r="F432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>434</v>
       </c>
@@ -8232,8 +10834,14 @@
         <f>SUM(B2:B433)</f>
         <v>403570</v>
       </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E433">
+        <v>0</v>
+      </c>
+      <c r="F433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>436</v>
       </c>
@@ -8248,8 +10856,14 @@
         <f>SUM(B3:B434)</f>
         <v>408381</v>
       </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E434">
+        <v>0</v>
+      </c>
+      <c r="F434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>437</v>
       </c>
@@ -8263,6 +10877,34 @@
       <c r="D435">
         <f>SUM(B4:B435)</f>
         <v>412743</v>
+      </c>
+      <c r="E435">
+        <v>0</v>
+      </c>
+      <c r="F435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>438</v>
+      </c>
+      <c r="B436">
+        <v>4250</v>
+      </c>
+      <c r="C436" s="1">
+        <f t="shared" si="7"/>
+        <v>4341</v>
+      </c>
+      <c r="D436">
+        <f>SUM(B5:B436)</f>
+        <v>416992</v>
+      </c>
+      <c r="E436">
+        <v>0</v>
+      </c>
+      <c r="F436">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ontario_daily_cases.xlsx
+++ b/ontario_daily_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33320AF6-FBE1-CE47-94C4-795FC11F49F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D279D8-5F9A-5D4E-8EB4-55E073FC2EE4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="442">
   <si>
     <t>New cases</t>
   </si>
@@ -1354,6 +1354,9 @@
   </si>
   <si>
     <t>Positivity</t>
+  </si>
+  <si>
+    <t>Mon Apr 19 2021</t>
   </si>
 </sst>
 </file>
@@ -1712,10 +1715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1917BCDE-B3C2-FF4A-8B47-29076C29F28C}">
-  <dimension ref="A1:F436"/>
+  <dimension ref="A1:F437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
-      <selection activeCell="I430" sqref="I430"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K428" sqref="K428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10365,7 +10368,7 @@
         <v>2380</v>
       </c>
       <c r="C412" s="1">
-        <f t="shared" ref="C412:C436" si="7">AVERAGE(B406:B412)</f>
+        <f t="shared" ref="C412:C437" si="7">AVERAGE(B406:B412)</f>
         <v>1794.4285714285713</v>
       </c>
       <c r="D412">
@@ -10904,6 +10907,28 @@
         <v>0</v>
       </c>
       <c r="F436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>441</v>
+      </c>
+      <c r="B437">
+        <v>4447</v>
+      </c>
+      <c r="C437" s="1">
+        <f t="shared" si="7"/>
+        <v>4347.5714285714284</v>
+      </c>
+      <c r="D437">
+        <f>SUM(B6:B437)</f>
+        <v>421439</v>
+      </c>
+      <c r="E437">
+        <v>0</v>
+      </c>
+      <c r="F437">
         <v>0</v>
       </c>
     </row>

--- a/ontario_daily_cases.xlsx
+++ b/ontario_daily_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D279D8-5F9A-5D4E-8EB4-55E073FC2EE4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC8C4E8-2E0E-BF47-AE6C-08D304703531}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="444">
   <si>
     <t>New cases</t>
   </si>
@@ -1357,6 +1357,12 @@
   </si>
   <si>
     <t>Mon Apr 19 2021</t>
+  </si>
+  <si>
+    <t>Tue Apr 20 2021</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
 </sst>
 </file>
@@ -1398,9 +1404,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1715,10 +1724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1917BCDE-B3C2-FF4A-8B47-29076C29F28C}">
-  <dimension ref="A1:F437"/>
+  <dimension ref="A1:F438"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K428" sqref="K428"/>
+    <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
+      <selection activeCell="H439" sqref="H439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1727,7 +1736,8 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1743,10 +1753,10 @@
       <c r="D1" t="s">
         <v>435</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>440</v>
       </c>
     </row>
@@ -1764,11 +1774,11 @@
         <f t="shared" ref="D2:D65" si="0">(D3-B3)</f>
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
+      <c r="E2" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1785,11 +1795,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+      <c r="E3" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1806,11 +1816,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+      <c r="E4" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1827,11 +1837,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+      <c r="E5" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1848,11 +1858,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="E6" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1869,11 +1879,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+      <c r="E7" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1890,11 +1900,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="E8" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1911,11 +1921,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+      <c r="E9" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1932,11 +1942,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+      <c r="E10" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1953,11 +1963,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+      <c r="E11" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1974,11 +1984,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
+      <c r="E12" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1995,11 +2005,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
+      <c r="E13" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -2016,11 +2026,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
+      <c r="E14" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -2037,11 +2047,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
+      <c r="E15" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -2058,11 +2068,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
+      <c r="E16" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -2079,11 +2089,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
+      <c r="E17" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -2100,11 +2110,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
+      <c r="E18" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -2121,11 +2131,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
+      <c r="E19" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -2142,11 +2152,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
+      <c r="E20" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -2163,11 +2173,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
+      <c r="E21" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -2184,11 +2194,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
+      <c r="E22" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -2205,11 +2215,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
+      <c r="E23" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -2226,11 +2236,11 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
+      <c r="E24" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -2247,11 +2257,11 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
+      <c r="E25" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -2268,11 +2278,11 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
+      <c r="E26" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -2289,11 +2299,11 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
+      <c r="E27" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -2310,11 +2320,11 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
+      <c r="E28" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -2331,11 +2341,11 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
+      <c r="E29" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -2352,11 +2362,11 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
+      <c r="E30" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -2373,11 +2383,11 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
+      <c r="E31" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -2394,11 +2404,11 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
+      <c r="E32" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -2415,11 +2425,11 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
+      <c r="E33" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -2436,11 +2446,11 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
+      <c r="E34" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -2457,11 +2467,11 @@
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
+      <c r="E35" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -2478,11 +2488,11 @@
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
+      <c r="E36" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -2499,11 +2509,11 @@
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
+      <c r="E37" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -2520,11 +2530,11 @@
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
+      <c r="E38" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -2541,11 +2551,11 @@
         <f t="shared" si="0"/>
         <v>188</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
+      <c r="E39" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -2562,11 +2572,11 @@
         <f t="shared" si="0"/>
         <v>213</v>
       </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
+      <c r="E40" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -2583,11 +2593,11 @@
         <f t="shared" si="0"/>
         <v>257</v>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
+      <c r="E41" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -2604,11 +2614,11 @@
         <f t="shared" si="0"/>
         <v>317</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
+      <c r="E42" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -2625,11 +2635,11 @@
         <f t="shared" si="0"/>
         <v>376</v>
       </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
+      <c r="E43" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -2646,11 +2656,11 @@
         <f t="shared" si="0"/>
         <v>424</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
+      <c r="E44" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -2667,11 +2677,11 @@
         <f t="shared" si="0"/>
         <v>502</v>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
+      <c r="E45" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -2688,11 +2698,11 @@
         <f t="shared" si="0"/>
         <v>587</v>
       </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
+      <c r="E46" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -2709,11 +2719,11 @@
         <f t="shared" si="0"/>
         <v>687</v>
       </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
+      <c r="E47" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -2730,11 +2740,11 @@
         <f t="shared" si="0"/>
         <v>857</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
+      <c r="E48" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -2751,11 +2761,11 @@
         <f t="shared" si="0"/>
         <v>992</v>
       </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
+      <c r="E49" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -2772,11 +2782,11 @@
         <f t="shared" si="0"/>
         <v>1143</v>
       </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
+      <c r="E50" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -2793,11 +2803,11 @@
         <f t="shared" si="0"/>
         <v>1354</v>
       </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
+      <c r="E51" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -2814,11 +2824,11 @@
         <f t="shared" si="0"/>
         <v>1705</v>
       </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
+      <c r="E52" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -2835,11 +2845,11 @@
         <f t="shared" si="0"/>
         <v>1965</v>
       </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
+      <c r="E53" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -2856,11 +2866,11 @@
         <f t="shared" si="0"/>
         <v>2391</v>
       </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
+      <c r="E54" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -2877,11 +2887,11 @@
         <f t="shared" si="0"/>
         <v>2792</v>
       </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
+      <c r="E55" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -2898,11 +2908,11 @@
         <f t="shared" si="0"/>
         <v>3254</v>
       </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
+      <c r="E56" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -2919,11 +2929,11 @@
         <f t="shared" si="0"/>
         <v>3629</v>
       </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
+      <c r="E57" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -2940,11 +2950,11 @@
         <f t="shared" si="0"/>
         <v>4037</v>
       </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
+      <c r="E58" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -2961,11 +2971,11 @@
         <f t="shared" si="0"/>
         <v>4346</v>
       </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
+      <c r="E59" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -2982,11 +2992,11 @@
         <f t="shared" si="0"/>
         <v>4725</v>
       </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
+      <c r="E60" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -3003,11 +3013,11 @@
         <f t="shared" si="0"/>
         <v>5275</v>
       </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
+      <c r="E61" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -3024,11 +3034,11 @@
         <f t="shared" si="0"/>
         <v>5758</v>
       </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
+      <c r="E62" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -3045,11 +3055,11 @@
         <f t="shared" si="0"/>
         <v>6236</v>
       </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
+      <c r="E63" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -3066,11 +3076,11 @@
         <f t="shared" si="0"/>
         <v>6647</v>
       </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
+      <c r="E64" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -3087,11 +3097,11 @@
         <f t="shared" si="0"/>
         <v>7048</v>
       </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
+      <c r="E65" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -3108,11 +3118,11 @@
         <f t="shared" ref="D66:D129" si="1">(D67-B67)</f>
         <v>7469</v>
       </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
+      <c r="E66" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -3129,11 +3139,11 @@
         <f t="shared" si="1"/>
         <v>7952</v>
       </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
+      <c r="E67" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -3150,11 +3160,11 @@
         <f t="shared" si="1"/>
         <v>8446</v>
       </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
+      <c r="E68" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -3171,11 +3181,11 @@
         <f t="shared" si="1"/>
         <v>8960</v>
       </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
+      <c r="E69" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -3192,11 +3202,11 @@
         <f t="shared" si="1"/>
         <v>9524</v>
       </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
+      <c r="E70" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -3213,11 +3223,11 @@
         <f t="shared" si="1"/>
         <v>10009</v>
       </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
+      <c r="E71" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -3234,11 +3244,11 @@
         <f t="shared" si="1"/>
         <v>10577</v>
       </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
+      <c r="E72" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -3255,11 +3265,11 @@
         <f t="shared" si="1"/>
         <v>11183</v>
       </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
+      <c r="E73" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -3276,11 +3286,11 @@
         <f t="shared" si="1"/>
         <v>11734</v>
       </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
+      <c r="E74" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -3297,11 +3307,11 @@
         <f t="shared" si="1"/>
         <v>12244</v>
       </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
+      <c r="E75" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -3318,11 +3328,11 @@
         <f t="shared" si="1"/>
         <v>12878</v>
       </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
+      <c r="E76" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -3339,11 +3349,11 @@
         <f t="shared" si="1"/>
         <v>13518</v>
       </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
+      <c r="E77" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -3360,11 +3370,11 @@
         <f t="shared" si="1"/>
         <v>13994</v>
       </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
+      <c r="E78" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -3381,11 +3391,11 @@
         <f t="shared" si="1"/>
         <v>14431</v>
       </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
+      <c r="E79" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -3402,11 +3412,11 @@
         <f t="shared" si="1"/>
         <v>14855</v>
       </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
+      <c r="E80" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -3423,11 +3433,11 @@
         <f t="shared" si="1"/>
         <v>15380</v>
       </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
+      <c r="E81" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -3444,11 +3454,11 @@
         <f t="shared" si="1"/>
         <v>15727</v>
       </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
+      <c r="E82" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -3465,11 +3475,11 @@
         <f t="shared" si="1"/>
         <v>16186</v>
       </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
+      <c r="E83" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -3486,11 +3496,11 @@
         <f t="shared" si="1"/>
         <v>16607</v>
       </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
+      <c r="E84" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -3507,11 +3517,11 @@
         <f t="shared" si="1"/>
         <v>17118</v>
       </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
+      <c r="E85" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -3528,11 +3538,11 @@
         <f t="shared" si="1"/>
         <v>17552</v>
       </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
+      <c r="E86" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -3549,11 +3559,11 @@
         <f t="shared" si="1"/>
         <v>17922</v>
       </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
+      <c r="E87" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -3570,11 +3580,11 @@
         <f t="shared" si="1"/>
         <v>18309</v>
       </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
+      <c r="E88" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -3591,11 +3601,11 @@
         <f t="shared" si="1"/>
         <v>18721</v>
       </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
+      <c r="E89" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -3612,11 +3622,11 @@
         <f t="shared" si="1"/>
         <v>19120</v>
       </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
+      <c r="E90" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -3633,11 +3643,11 @@
         <f t="shared" si="1"/>
         <v>19597</v>
       </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
+      <c r="E91" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -3654,11 +3664,11 @@
         <f t="shared" si="1"/>
         <v>19943</v>
       </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
+      <c r="E92" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -3675,11 +3685,11 @@
         <f t="shared" si="1"/>
         <v>20237</v>
       </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
+      <c r="E93" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -3696,11 +3706,11 @@
         <f t="shared" si="1"/>
         <v>20545</v>
       </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>0</v>
+      <c r="E94" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -3717,11 +3727,11 @@
         <f t="shared" si="1"/>
         <v>20906</v>
       </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
+      <c r="E95" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -3738,11 +3748,11 @@
         <f t="shared" si="1"/>
         <v>21235</v>
       </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
+      <c r="E96" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -3759,11 +3769,11 @@
         <f t="shared" si="1"/>
         <v>21580</v>
       </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
+      <c r="E97" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -3780,11 +3790,11 @@
         <f t="shared" si="1"/>
         <v>21921</v>
       </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98">
-        <v>0</v>
+      <c r="E98" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -3801,11 +3811,11 @@
         <f t="shared" si="1"/>
         <v>22312</v>
       </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99">
-        <v>0</v>
+      <c r="E99" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -3822,11 +3832,11 @@
         <f t="shared" si="1"/>
         <v>22652</v>
       </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
+      <c r="E100" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -3843,11 +3853,11 @@
         <f t="shared" si="1"/>
         <v>22956</v>
       </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101">
-        <v>0</v>
+      <c r="E101" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -3864,11 +3874,11 @@
         <f t="shared" si="1"/>
         <v>23383</v>
       </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102">
-        <v>0</v>
+      <c r="E102" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -3885,11 +3895,11 @@
         <f t="shared" si="1"/>
         <v>23773</v>
       </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="F103">
-        <v>0</v>
+      <c r="E103" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -3906,11 +3916,11 @@
         <f t="shared" si="1"/>
         <v>24186</v>
       </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
+      <c r="E104" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -3927,11 +3937,11 @@
         <f t="shared" si="1"/>
         <v>24627</v>
       </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105">
-        <v>0</v>
+      <c r="E105" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -3948,11 +3958,11 @@
         <f t="shared" si="1"/>
         <v>25039</v>
       </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106">
-        <v>0</v>
+      <c r="E106" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -3969,11 +3979,11 @@
         <f t="shared" si="1"/>
         <v>25499</v>
       </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107">
-        <v>0</v>
+      <c r="E107" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -3990,11 +4000,11 @@
         <f t="shared" si="1"/>
         <v>25903</v>
       </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
+      <c r="E108" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -4011,11 +4021,11 @@
         <f t="shared" si="1"/>
         <v>26190</v>
       </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-      <c r="F109">
-        <v>0</v>
+      <c r="E109" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -4032,11 +4042,11 @@
         <f t="shared" si="1"/>
         <v>26482</v>
       </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
+      <c r="E110" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -4053,11 +4063,11 @@
         <f t="shared" si="1"/>
         <v>26865</v>
       </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
-        <v>0</v>
+      <c r="E111" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -4074,11 +4084,11 @@
         <f t="shared" si="1"/>
         <v>27209</v>
       </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
+      <c r="E112" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -4095,11 +4105,11 @@
         <f t="shared" si="1"/>
         <v>27532</v>
       </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113">
-        <v>0</v>
+      <c r="E113" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -4116,11 +4126,11 @@
         <f t="shared" si="1"/>
         <v>27858</v>
       </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-      <c r="F114">
-        <v>0</v>
+      <c r="E114" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -4137,11 +4147,11 @@
         <f t="shared" si="1"/>
         <v>28262</v>
       </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115">
-        <v>0</v>
+      <c r="E115" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -4158,11 +4168,11 @@
         <f t="shared" si="1"/>
         <v>28708</v>
       </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
-      <c r="F116">
-        <v>0</v>
+      <c r="E116" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -4179,11 +4189,11 @@
         <f t="shared" si="1"/>
         <v>29046</v>
       </c>
-      <c r="E117">
-        <v>0</v>
-      </c>
-      <c r="F117">
-        <v>0</v>
+      <c r="E117" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
@@ -4200,11 +4210,11 @@
         <f t="shared" si="1"/>
         <v>29402</v>
       </c>
-      <c r="E118">
-        <v>0</v>
-      </c>
-      <c r="F118">
-        <v>0</v>
+      <c r="E118" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -4221,11 +4231,11 @@
         <f t="shared" si="1"/>
         <v>29746</v>
       </c>
-      <c r="E119">
-        <v>0</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
+      <c r="E119" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -4242,11 +4252,11 @@
         <f t="shared" si="1"/>
         <v>30201</v>
       </c>
-      <c r="E120">
-        <v>0</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
+      <c r="E120" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -4263,11 +4273,11 @@
         <f t="shared" si="1"/>
         <v>30616</v>
       </c>
-      <c r="E121">
-        <v>0</v>
-      </c>
-      <c r="F121">
-        <v>0</v>
+      <c r="E121" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -4284,11 +4294,11 @@
         <f t="shared" si="1"/>
         <v>30859</v>
       </c>
-      <c r="E122">
-        <v>0</v>
-      </c>
-      <c r="F122">
-        <v>0</v>
+      <c r="E122" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -4305,11 +4315,11 @@
         <f t="shared" si="1"/>
         <v>31089</v>
       </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
+      <c r="E123" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -4326,11 +4336,11 @@
         <f t="shared" si="1"/>
         <v>31340</v>
       </c>
-      <c r="E124">
-        <v>0</v>
-      </c>
-      <c r="F124">
-        <v>0</v>
+      <c r="E124" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -4347,11 +4357,11 @@
         <f t="shared" si="1"/>
         <v>31543</v>
       </c>
-      <c r="E125">
-        <v>0</v>
-      </c>
-      <c r="F125">
-        <v>0</v>
+      <c r="E125" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -4368,11 +4378,11 @@
         <f t="shared" si="1"/>
         <v>31725</v>
       </c>
-      <c r="E126">
-        <v>0</v>
-      </c>
-      <c r="F126">
-        <v>0</v>
+      <c r="E126" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -4389,11 +4399,11 @@
         <f t="shared" si="1"/>
         <v>31991</v>
       </c>
-      <c r="E127">
-        <v>0</v>
-      </c>
-      <c r="F127">
-        <v>0</v>
+      <c r="E127" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -4410,11 +4420,11 @@
         <f t="shared" si="1"/>
         <v>32188</v>
       </c>
-      <c r="E128">
-        <v>0</v>
-      </c>
-      <c r="F128">
-        <v>0</v>
+      <c r="E128" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -4431,11 +4441,11 @@
         <f t="shared" si="1"/>
         <v>32369</v>
       </c>
-      <c r="E129">
-        <v>0</v>
-      </c>
-      <c r="F129">
-        <v>0</v>
+      <c r="E129" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -4452,11 +4462,11 @@
         <f t="shared" ref="D130:D193" si="2">(D131-B131)</f>
         <v>32553</v>
       </c>
-      <c r="E130">
-        <v>0</v>
-      </c>
-      <c r="F130">
-        <v>0</v>
+      <c r="E130" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -4473,11 +4483,11 @@
         <f t="shared" si="2"/>
         <v>32743</v>
       </c>
-      <c r="E131">
-        <v>0</v>
-      </c>
-      <c r="F131">
-        <v>0</v>
+      <c r="E131" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -4494,11 +4504,11 @@
         <f t="shared" si="2"/>
         <v>32916</v>
       </c>
-      <c r="E132">
-        <v>0</v>
-      </c>
-      <c r="F132">
-        <v>0</v>
+      <c r="E132" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -4515,11 +4525,11 @@
         <f t="shared" si="2"/>
         <v>33094</v>
       </c>
-      <c r="E133">
-        <v>0</v>
-      </c>
-      <c r="F133">
-        <v>0</v>
+      <c r="E133" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -4536,11 +4546,11 @@
         <f t="shared" si="2"/>
         <v>33300</v>
       </c>
-      <c r="E134">
-        <v>0</v>
-      </c>
-      <c r="F134">
-        <v>0</v>
+      <c r="E134" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
@@ -4557,11 +4567,11 @@
         <f t="shared" si="2"/>
         <v>33475</v>
       </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
-      <c r="F135">
-        <v>0</v>
+      <c r="E135" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -4578,11 +4588,11 @@
         <f t="shared" si="2"/>
         <v>33636</v>
       </c>
-      <c r="E136">
-        <v>0</v>
-      </c>
-      <c r="F136">
-        <v>0</v>
+      <c r="E136" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -4599,11 +4609,11 @@
         <f t="shared" si="2"/>
         <v>33852</v>
       </c>
-      <c r="E137">
-        <v>0</v>
-      </c>
-      <c r="F137">
-        <v>0</v>
+      <c r="E137" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
@@ -4620,11 +4630,11 @@
         <f t="shared" si="2"/>
         <v>34015</v>
       </c>
-      <c r="E138">
-        <v>0</v>
-      </c>
-      <c r="F138">
-        <v>0</v>
+      <c r="E138" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
@@ -4641,11 +4651,11 @@
         <f t="shared" si="2"/>
         <v>34204</v>
       </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
-      <c r="F139">
-        <v>0</v>
+      <c r="E139" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -4662,11 +4672,11 @@
         <f t="shared" si="2"/>
         <v>34315</v>
       </c>
-      <c r="E140">
-        <v>0</v>
-      </c>
-      <c r="F140">
-        <v>0</v>
+      <c r="E140" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
@@ -4683,11 +4693,11 @@
         <f t="shared" si="2"/>
         <v>34475</v>
       </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-      <c r="F141">
-        <v>0</v>
+      <c r="E141" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -4704,11 +4714,11 @@
         <f t="shared" si="2"/>
         <v>34653</v>
       </c>
-      <c r="E142">
-        <v>0</v>
-      </c>
-      <c r="F142">
-        <v>0</v>
+      <c r="E142" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
@@ -4725,11 +4735,11 @@
         <f t="shared" si="2"/>
         <v>34910</v>
       </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-      <c r="F143">
-        <v>0</v>
+      <c r="E143" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -4746,11 +4756,11 @@
         <f t="shared" si="2"/>
         <v>35067</v>
       </c>
-      <c r="E144">
-        <v>0</v>
-      </c>
-      <c r="F144">
-        <v>0</v>
+      <c r="E144" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -4767,11 +4777,11 @@
         <f t="shared" si="2"/>
         <v>35216</v>
       </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
-      <c r="F145">
-        <v>0</v>
+      <c r="E145" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -4788,11 +4798,11 @@
         <f t="shared" si="2"/>
         <v>35369</v>
       </c>
-      <c r="E146">
-        <v>0</v>
-      </c>
-      <c r="F146">
-        <v>0</v>
+      <c r="E146" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
@@ -4809,11 +4819,11 @@
         <f t="shared" si="2"/>
         <v>35534</v>
       </c>
-      <c r="E147">
-        <v>0</v>
-      </c>
-      <c r="F147">
-        <v>0</v>
+      <c r="E147" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -4830,11 +4840,11 @@
         <f t="shared" si="2"/>
         <v>35655</v>
       </c>
-      <c r="E148">
-        <v>0</v>
-      </c>
-      <c r="F148">
-        <v>0</v>
+      <c r="E148" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -4851,11 +4861,11 @@
         <f t="shared" si="2"/>
         <v>35793</v>
       </c>
-      <c r="E149">
-        <v>0</v>
-      </c>
-      <c r="F149">
-        <v>0</v>
+      <c r="E149" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -4872,11 +4882,11 @@
         <f t="shared" si="2"/>
         <v>35947</v>
       </c>
-      <c r="E150">
-        <v>0</v>
-      </c>
-      <c r="F150">
-        <v>0</v>
+      <c r="E150" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -4893,11 +4903,11 @@
         <f t="shared" si="2"/>
         <v>36059</v>
       </c>
-      <c r="E151">
-        <v>0</v>
-      </c>
-      <c r="F151">
-        <v>0</v>
+      <c r="E151" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -4914,11 +4924,11 @@
         <f t="shared" si="2"/>
         <v>36177</v>
       </c>
-      <c r="E152">
-        <v>0</v>
-      </c>
-      <c r="F152">
-        <v>0</v>
+      <c r="E152" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -4935,11 +4945,11 @@
         <f t="shared" si="2"/>
         <v>36347</v>
       </c>
-      <c r="E153">
-        <v>0</v>
-      </c>
-      <c r="F153">
-        <v>0</v>
+      <c r="E153" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -4956,11 +4966,11 @@
         <f t="shared" si="2"/>
         <v>36463</v>
       </c>
-      <c r="E154">
-        <v>0</v>
-      </c>
-      <c r="F154">
-        <v>0</v>
+      <c r="E154" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -4977,11 +4987,11 @@
         <f t="shared" si="2"/>
         <v>36593</v>
       </c>
-      <c r="E155">
-        <v>0</v>
-      </c>
-      <c r="F155">
-        <v>0</v>
+      <c r="E155" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -4998,11 +5008,11 @@
         <f t="shared" si="2"/>
         <v>36722</v>
       </c>
-      <c r="E156">
-        <v>0</v>
-      </c>
-      <c r="F156">
-        <v>0</v>
+      <c r="E156" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -5019,11 +5029,11 @@
         <f t="shared" si="2"/>
         <v>36838</v>
       </c>
-      <c r="E157">
-        <v>0</v>
-      </c>
-      <c r="F157">
-        <v>0</v>
+      <c r="E157" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -5040,11 +5050,11 @@
         <f t="shared" si="2"/>
         <v>36949</v>
       </c>
-      <c r="E158">
-        <v>0</v>
-      </c>
-      <c r="F158">
-        <v>0</v>
+      <c r="E158" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -5061,11 +5071,11 @@
         <f t="shared" si="2"/>
         <v>37051</v>
       </c>
-      <c r="E159">
-        <v>0</v>
-      </c>
-      <c r="F159">
-        <v>0</v>
+      <c r="E159" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -5082,11 +5092,11 @@
         <f t="shared" si="2"/>
         <v>37162</v>
       </c>
-      <c r="E160">
-        <v>0</v>
-      </c>
-      <c r="F160">
-        <v>0</v>
+      <c r="E160" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
@@ -5103,11 +5113,11 @@
         <f t="shared" si="2"/>
         <v>37273</v>
       </c>
-      <c r="E161">
-        <v>0</v>
-      </c>
-      <c r="F161">
-        <v>0</v>
+      <c r="E161" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
@@ -5124,11 +5134,11 @@
         <f t="shared" si="2"/>
         <v>37439</v>
       </c>
-      <c r="E162">
-        <v>0</v>
-      </c>
-      <c r="F162">
-        <v>0</v>
+      <c r="E162" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
@@ -5145,11 +5155,11 @@
         <f t="shared" si="2"/>
         <v>37603</v>
       </c>
-      <c r="E163">
-        <v>0</v>
-      </c>
-      <c r="F163">
-        <v>0</v>
+      <c r="E163" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -5166,11 +5176,11 @@
         <f t="shared" si="2"/>
         <v>37738</v>
       </c>
-      <c r="E164">
-        <v>0</v>
-      </c>
-      <c r="F164">
-        <v>0</v>
+      <c r="E164" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -5187,11 +5197,11 @@
         <f t="shared" si="2"/>
         <v>37941</v>
       </c>
-      <c r="E165">
-        <v>0</v>
-      </c>
-      <c r="F165">
-        <v>0</v>
+      <c r="E165" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
@@ -5208,11 +5218,11 @@
         <f t="shared" si="2"/>
         <v>38106</v>
       </c>
-      <c r="E166">
-        <v>0</v>
-      </c>
-      <c r="F166">
-        <v>0</v>
+      <c r="E166" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
@@ -5229,11 +5239,11 @@
         <f t="shared" si="2"/>
         <v>38209</v>
       </c>
-      <c r="E167">
-        <v>0</v>
-      </c>
-      <c r="F167">
-        <v>0</v>
+      <c r="E167" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
@@ -5250,11 +5260,11 @@
         <f t="shared" si="2"/>
         <v>38404</v>
       </c>
-      <c r="E168">
-        <v>0</v>
-      </c>
-      <c r="F168">
-        <v>0</v>
+      <c r="E168" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
@@ -5271,11 +5281,11 @@
         <f t="shared" si="2"/>
         <v>38542</v>
       </c>
-      <c r="E169">
-        <v>0</v>
-      </c>
-      <c r="F169">
-        <v>0</v>
+      <c r="E169" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
@@ -5292,11 +5302,11 @@
         <f t="shared" si="2"/>
         <v>38679</v>
       </c>
-      <c r="E170">
-        <v>0</v>
-      </c>
-      <c r="F170">
-        <v>0</v>
+      <c r="E170" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
@@ -5313,11 +5323,11 @@
         <f t="shared" si="2"/>
         <v>38798</v>
       </c>
-      <c r="E171">
-        <v>0</v>
-      </c>
-      <c r="F171">
-        <v>0</v>
+      <c r="E171" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
@@ -5334,11 +5344,11 @@
         <f t="shared" si="2"/>
         <v>38909</v>
       </c>
-      <c r="E172">
-        <v>0</v>
-      </c>
-      <c r="F172">
-        <v>0</v>
+      <c r="E172" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
@@ -5355,11 +5365,11 @@
         <f t="shared" si="2"/>
         <v>38985</v>
       </c>
-      <c r="E173">
-        <v>0</v>
-      </c>
-      <c r="F173">
-        <v>0</v>
+      <c r="E173" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
@@ -5376,11 +5386,11 @@
         <f t="shared" si="2"/>
         <v>39074</v>
       </c>
-      <c r="E174">
-        <v>0</v>
-      </c>
-      <c r="F174">
-        <v>0</v>
+      <c r="E174" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
@@ -5397,11 +5407,11 @@
         <f t="shared" si="2"/>
         <v>39208</v>
       </c>
-      <c r="E175">
-        <v>0</v>
-      </c>
-      <c r="F175">
-        <v>0</v>
+      <c r="E175" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
@@ -5418,11 +5428,11 @@
         <f t="shared" si="2"/>
         <v>39332</v>
       </c>
-      <c r="E176">
-        <v>0</v>
-      </c>
-      <c r="F176">
-        <v>0</v>
+      <c r="E176" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
@@ -5439,11 +5449,11 @@
         <f t="shared" si="2"/>
         <v>39448</v>
       </c>
-      <c r="E177">
-        <v>0</v>
-      </c>
-      <c r="F177">
-        <v>0</v>
+      <c r="E177" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
@@ -5460,11 +5470,11 @@
         <f t="shared" si="2"/>
         <v>39536</v>
       </c>
-      <c r="E178">
-        <v>0</v>
-      </c>
-      <c r="F178">
-        <v>0</v>
+      <c r="E178" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
@@ -5481,11 +5491,11 @@
         <f t="shared" si="2"/>
         <v>39627</v>
       </c>
-      <c r="E179">
-        <v>0</v>
-      </c>
-      <c r="F179">
-        <v>0</v>
+      <c r="E179" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
@@ -5502,11 +5512,11 @@
         <f t="shared" si="2"/>
         <v>39713</v>
       </c>
-      <c r="E180">
-        <v>0</v>
-      </c>
-      <c r="F180">
-        <v>0</v>
+      <c r="E180" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
@@ -5523,11 +5533,11 @@
         <f t="shared" si="2"/>
         <v>39808</v>
       </c>
-      <c r="E181">
-        <v>0</v>
-      </c>
-      <c r="F181">
-        <v>0</v>
+      <c r="E181" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
@@ -5544,11 +5554,11 @@
         <f t="shared" si="2"/>
         <v>39896</v>
       </c>
-      <c r="E182">
-        <v>0</v>
-      </c>
-      <c r="F182">
-        <v>0</v>
+      <c r="E182" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
@@ -5565,11 +5575,11 @@
         <f t="shared" si="2"/>
         <v>39966</v>
       </c>
-      <c r="E183">
-        <v>0</v>
-      </c>
-      <c r="F183">
-        <v>0</v>
+      <c r="E183" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
@@ -5586,11 +5596,11 @@
         <f t="shared" si="2"/>
         <v>40045</v>
       </c>
-      <c r="E184">
-        <v>0</v>
-      </c>
-      <c r="F184">
-        <v>0</v>
+      <c r="E184" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
@@ -5607,11 +5617,11 @@
         <f t="shared" si="2"/>
         <v>40160</v>
       </c>
-      <c r="E185">
-        <v>0</v>
-      </c>
-      <c r="F185">
-        <v>0</v>
+      <c r="E185" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
@@ -5628,11 +5638,11 @@
         <f t="shared" si="2"/>
         <v>40193</v>
       </c>
-      <c r="E186">
-        <v>0</v>
-      </c>
-      <c r="F186">
-        <v>0</v>
+      <c r="E186" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
@@ -5649,11 +5659,11 @@
         <f t="shared" si="2"/>
         <v>40288</v>
       </c>
-      <c r="E187">
-        <v>0</v>
-      </c>
-      <c r="F187">
-        <v>0</v>
+      <c r="E187" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
@@ -5670,11 +5680,11 @@
         <f t="shared" si="2"/>
         <v>40366</v>
       </c>
-      <c r="E188">
-        <v>0</v>
-      </c>
-      <c r="F188">
-        <v>0</v>
+      <c r="E188" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
@@ -5691,11 +5701,11 @@
         <f t="shared" si="2"/>
         <v>40458</v>
       </c>
-      <c r="E189">
-        <v>0</v>
-      </c>
-      <c r="F189">
-        <v>0</v>
+      <c r="E189" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
@@ -5712,11 +5722,11 @@
         <f t="shared" si="2"/>
         <v>40564</v>
       </c>
-      <c r="E190">
-        <v>0</v>
-      </c>
-      <c r="F190">
-        <v>0</v>
+      <c r="E190" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
@@ -5733,11 +5743,11 @@
         <f t="shared" si="2"/>
         <v>40645</v>
       </c>
-      <c r="E191">
-        <v>0</v>
-      </c>
-      <c r="F191">
-        <v>0</v>
+      <c r="E191" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
@@ -5754,11 +5764,11 @@
         <f t="shared" si="2"/>
         <v>40744</v>
       </c>
-      <c r="E192">
-        <v>0</v>
-      </c>
-      <c r="F192">
-        <v>0</v>
+      <c r="E192" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
@@ -5775,11 +5785,11 @@
         <f t="shared" si="2"/>
         <v>40869</v>
       </c>
-      <c r="E193">
-        <v>0</v>
-      </c>
-      <c r="F193">
-        <v>0</v>
+      <c r="E193" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
@@ -5796,11 +5806,11 @@
         <f t="shared" ref="D194:D257" si="3">(D195-B195)</f>
         <v>40971</v>
       </c>
-      <c r="E194">
-        <v>0</v>
-      </c>
-      <c r="F194">
-        <v>0</v>
+      <c r="E194" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
@@ -5817,11 +5827,11 @@
         <f t="shared" si="3"/>
         <v>41047</v>
       </c>
-      <c r="E195">
-        <v>0</v>
-      </c>
-      <c r="F195">
-        <v>0</v>
+      <c r="E195" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
@@ -5838,11 +5848,11 @@
         <f t="shared" si="3"/>
         <v>41178</v>
       </c>
-      <c r="E196">
-        <v>0</v>
-      </c>
-      <c r="F196">
-        <v>0</v>
+      <c r="E196" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
@@ -5859,11 +5869,11 @@
         <f t="shared" si="3"/>
         <v>41286</v>
       </c>
-      <c r="E197">
-        <v>0</v>
-      </c>
-      <c r="F197">
-        <v>0</v>
+      <c r="E197" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
@@ -5880,11 +5890,11 @@
         <f t="shared" si="3"/>
         <v>41401</v>
       </c>
-      <c r="E198">
-        <v>0</v>
-      </c>
-      <c r="F198">
-        <v>0</v>
+      <c r="E198" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
@@ -5901,11 +5911,11 @@
         <f t="shared" si="3"/>
         <v>41506</v>
       </c>
-      <c r="E199">
-        <v>0</v>
-      </c>
-      <c r="F199">
-        <v>0</v>
+      <c r="E199" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
@@ -5922,11 +5932,11 @@
         <f t="shared" si="3"/>
         <v>41606</v>
       </c>
-      <c r="E200">
-        <v>0</v>
-      </c>
-      <c r="F200">
-        <v>0</v>
+      <c r="E200" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
@@ -5943,11 +5953,11 @@
         <f t="shared" si="3"/>
         <v>41694</v>
       </c>
-      <c r="E201">
-        <v>0</v>
-      </c>
-      <c r="F201">
-        <v>0</v>
+      <c r="E201" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
@@ -5964,11 +5974,11 @@
         <f t="shared" si="3"/>
         <v>41812</v>
       </c>
-      <c r="E202">
-        <v>0</v>
-      </c>
-      <c r="F202">
-        <v>0</v>
+      <c r="E202" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
@@ -5985,11 +5995,11 @@
         <f t="shared" si="3"/>
         <v>41934</v>
       </c>
-      <c r="E203">
-        <v>0</v>
-      </c>
-      <c r="F203">
-        <v>0</v>
+      <c r="E203" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
@@ -6006,11 +6016,11 @@
         <f t="shared" si="3"/>
         <v>42082</v>
       </c>
-      <c r="E204">
-        <v>0</v>
-      </c>
-      <c r="F204">
-        <v>0</v>
+      <c r="E204" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
@@ -6027,11 +6037,11 @@
         <f t="shared" si="3"/>
         <v>42194</v>
       </c>
-      <c r="E205">
-        <v>0</v>
-      </c>
-      <c r="F205">
-        <v>0</v>
+      <c r="E205" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
@@ -6048,11 +6058,11 @@
         <f t="shared" si="3"/>
         <v>42308</v>
       </c>
-      <c r="E206">
-        <v>0</v>
-      </c>
-      <c r="F206">
-        <v>0</v>
+      <c r="E206" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
@@ -6069,11 +6079,11 @@
         <f t="shared" si="3"/>
         <v>42420</v>
       </c>
-      <c r="E207">
-        <v>0</v>
-      </c>
-      <c r="F207">
-        <v>0</v>
+      <c r="E207" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
@@ -6090,11 +6100,11 @@
         <f t="shared" si="3"/>
         <v>42553</v>
       </c>
-      <c r="E208">
-        <v>0</v>
-      </c>
-      <c r="F208">
-        <v>0</v>
+      <c r="E208" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
@@ -6111,11 +6121,11 @@
         <f t="shared" si="3"/>
         <v>42685</v>
       </c>
-      <c r="E209">
-        <v>0</v>
-      </c>
-      <c r="F209">
-        <v>0</v>
+      <c r="E209" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
@@ -6132,11 +6142,11 @@
         <f t="shared" si="3"/>
         <v>42833</v>
       </c>
-      <c r="E210">
-        <v>0</v>
-      </c>
-      <c r="F210">
-        <v>0</v>
+      <c r="E210" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
@@ -6153,11 +6163,11 @@
         <f t="shared" si="3"/>
         <v>43002</v>
       </c>
-      <c r="E211">
-        <v>0</v>
-      </c>
-      <c r="F211">
-        <v>0</v>
+      <c r="E211" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
@@ -6174,11 +6184,11 @@
         <f t="shared" si="3"/>
         <v>43160</v>
       </c>
-      <c r="E212">
-        <v>0</v>
-      </c>
-      <c r="F212">
-        <v>0</v>
+      <c r="E212" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
@@ -6195,11 +6205,11 @@
         <f t="shared" si="3"/>
         <v>43350</v>
       </c>
-      <c r="E213">
-        <v>0</v>
-      </c>
-      <c r="F213">
-        <v>0</v>
+      <c r="E213" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
@@ -6216,11 +6226,11 @@
         <f t="shared" si="3"/>
         <v>43535</v>
       </c>
-      <c r="E214">
-        <v>0</v>
-      </c>
-      <c r="F214">
-        <v>0</v>
+      <c r="E214" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
@@ -6237,11 +6247,11 @@
         <f t="shared" si="3"/>
         <v>43684</v>
       </c>
-      <c r="E215">
-        <v>0</v>
-      </c>
-      <c r="F215">
-        <v>0</v>
+      <c r="E215" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
@@ -6258,11 +6268,11 @@
         <f t="shared" si="3"/>
         <v>43854</v>
       </c>
-      <c r="E216">
-        <v>0</v>
-      </c>
-      <c r="F216">
-        <v>0</v>
+      <c r="E216" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
@@ -6279,11 +6289,11 @@
         <f t="shared" si="3"/>
         <v>44067</v>
       </c>
-      <c r="E217">
-        <v>0</v>
-      </c>
-      <c r="F217">
-        <v>0</v>
+      <c r="E217" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
@@ -6300,11 +6310,11 @@
         <f t="shared" si="3"/>
         <v>44299</v>
       </c>
-      <c r="E218">
-        <v>0</v>
-      </c>
-      <c r="F218">
-        <v>0</v>
+      <c r="E218" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
@@ -6321,11 +6331,11 @@
         <f t="shared" si="3"/>
         <v>44503</v>
       </c>
-      <c r="E219">
-        <v>0</v>
-      </c>
-      <c r="F219">
-        <v>0</v>
+      <c r="E219" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
@@ -6342,11 +6352,11 @@
         <f t="shared" si="3"/>
         <v>44816</v>
       </c>
-      <c r="E220">
-        <v>0</v>
-      </c>
-      <c r="F220">
-        <v>0</v>
+      <c r="E220" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
@@ -6363,11 +6373,11 @@
         <f t="shared" si="3"/>
         <v>45067</v>
       </c>
-      <c r="E221">
-        <v>0</v>
-      </c>
-      <c r="F221">
-        <v>0</v>
+      <c r="E221" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
@@ -6384,11 +6394,11 @@
         <f t="shared" si="3"/>
         <v>45382</v>
       </c>
-      <c r="E222">
-        <v>0</v>
-      </c>
-      <c r="F222">
-        <v>0</v>
+      <c r="E222" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
@@ -6405,11 +6415,11 @@
         <f t="shared" si="3"/>
         <v>45675</v>
       </c>
-      <c r="E223">
-        <v>0</v>
-      </c>
-      <c r="F223">
-        <v>0</v>
+      <c r="E223" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
@@ -6426,11 +6436,11 @@
         <f t="shared" si="3"/>
         <v>46076</v>
       </c>
-      <c r="E224">
-        <v>0</v>
-      </c>
-      <c r="F224">
-        <v>0</v>
+      <c r="E224" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
@@ -6447,11 +6457,11 @@
         <f t="shared" si="3"/>
         <v>46483</v>
       </c>
-      <c r="E225">
-        <v>0</v>
-      </c>
-      <c r="F225">
-        <v>0</v>
+      <c r="E225" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
@@ -6468,11 +6478,11 @@
         <f t="shared" si="3"/>
         <v>46848</v>
       </c>
-      <c r="E226">
-        <v>0</v>
-      </c>
-      <c r="F226">
-        <v>0</v>
+      <c r="E226" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
@@ -6489,11 +6499,11 @@
         <f t="shared" si="3"/>
         <v>47273</v>
       </c>
-      <c r="E227">
-        <v>0</v>
-      </c>
-      <c r="F227">
-        <v>0</v>
+      <c r="E227" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
@@ -6510,11 +6520,11 @@
         <f t="shared" si="3"/>
         <v>47751</v>
       </c>
-      <c r="E228">
-        <v>0</v>
-      </c>
-      <c r="F228">
-        <v>0</v>
+      <c r="E228" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
@@ -6531,11 +6541,11 @@
         <f t="shared" si="3"/>
         <v>48086</v>
       </c>
-      <c r="E229">
-        <v>0</v>
-      </c>
-      <c r="F229">
-        <v>0</v>
+      <c r="E229" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
@@ -6552,11 +6562,11 @@
         <f t="shared" si="3"/>
         <v>48495</v>
       </c>
-      <c r="E230">
-        <v>0</v>
-      </c>
-      <c r="F230">
-        <v>0</v>
+      <c r="E230" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
@@ -6573,11 +6583,11 @@
         <f t="shared" si="3"/>
         <v>48904</v>
       </c>
-      <c r="E231">
-        <v>0</v>
-      </c>
-      <c r="F231">
-        <v>0</v>
+      <c r="E231" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
@@ -6594,11 +6604,11 @@
         <f t="shared" si="3"/>
         <v>49339</v>
       </c>
-      <c r="E232">
-        <v>0</v>
-      </c>
-      <c r="F232">
-        <v>0</v>
+      <c r="E232" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
@@ -6615,11 +6625,11 @@
         <f t="shared" si="3"/>
         <v>49830</v>
       </c>
-      <c r="E233">
-        <v>0</v>
-      </c>
-      <c r="F233">
-        <v>0</v>
+      <c r="E233" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
@@ -6636,11 +6646,11 @@
         <f t="shared" si="3"/>
         <v>50530</v>
       </c>
-      <c r="E234">
-        <v>0</v>
-      </c>
-      <c r="F234">
-        <v>0</v>
+      <c r="E234" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
@@ -6657,11 +6667,11 @@
         <f t="shared" si="3"/>
         <v>51084</v>
       </c>
-      <c r="E235">
-        <v>0</v>
-      </c>
-      <c r="F235">
-        <v>0</v>
+      <c r="E235" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
@@ -6678,11 +6688,11 @@
         <f t="shared" si="3"/>
         <v>51709</v>
       </c>
-      <c r="E236">
-        <v>0</v>
-      </c>
-      <c r="F236">
-        <v>0</v>
+      <c r="E236" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
@@ -6699,11 +6709,11 @@
         <f t="shared" si="3"/>
         <v>52247</v>
       </c>
-      <c r="E237">
-        <v>0</v>
-      </c>
-      <c r="F237">
-        <v>0</v>
+      <c r="E237" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
@@ -6720,11 +6730,11 @@
         <f t="shared" si="3"/>
         <v>52979</v>
       </c>
-      <c r="E238">
-        <v>0</v>
-      </c>
-      <c r="F238">
-        <v>0</v>
+      <c r="E238" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
@@ -6741,11 +6751,11 @@
         <f t="shared" si="3"/>
         <v>53632</v>
       </c>
-      <c r="E239">
-        <v>0</v>
-      </c>
-      <c r="F239">
-        <v>0</v>
+      <c r="E239" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
@@ -6762,11 +6772,11 @@
         <f t="shared" si="3"/>
         <v>54198</v>
       </c>
-      <c r="E240">
-        <v>0</v>
-      </c>
-      <c r="F240">
-        <v>0</v>
+      <c r="E240" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
@@ -6783,11 +6793,11 @@
         <f t="shared" si="3"/>
         <v>54813</v>
       </c>
-      <c r="E241">
-        <v>0</v>
-      </c>
-      <c r="F241">
-        <v>0</v>
+      <c r="E241" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
@@ -6804,11 +6814,11 @@
         <f t="shared" si="3"/>
         <v>55361</v>
       </c>
-      <c r="E242">
-        <v>0</v>
-      </c>
-      <c r="F242">
-        <v>0</v>
+      <c r="E242" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
@@ -6825,11 +6835,11 @@
         <f t="shared" si="3"/>
         <v>55944</v>
       </c>
-      <c r="E243">
-        <v>0</v>
-      </c>
-      <c r="F243">
-        <v>0</v>
+      <c r="E243" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
@@ -6846,11 +6856,11 @@
         <f t="shared" si="3"/>
         <v>56741</v>
       </c>
-      <c r="E244">
-        <v>0</v>
-      </c>
-      <c r="F244">
-        <v>0</v>
+      <c r="E244" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
@@ -6867,11 +6877,11 @@
         <f t="shared" si="3"/>
         <v>57680</v>
       </c>
-      <c r="E245">
-        <v>0</v>
-      </c>
-      <c r="F245">
-        <v>0</v>
+      <c r="E245" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
@@ -6888,11 +6898,11 @@
         <f t="shared" si="3"/>
         <v>58489</v>
       </c>
-      <c r="E246">
-        <v>0</v>
-      </c>
-      <c r="F246">
-        <v>0</v>
+      <c r="E246" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
@@ -6909,11 +6919,11 @@
         <f t="shared" si="3"/>
         <v>59138</v>
       </c>
-      <c r="E247">
-        <v>0</v>
-      </c>
-      <c r="F247">
-        <v>0</v>
+      <c r="E247" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
@@ -6930,11 +6940,11 @@
         <f t="shared" si="3"/>
         <v>59945</v>
       </c>
-      <c r="E248">
-        <v>0</v>
-      </c>
-      <c r="F248">
-        <v>0</v>
+      <c r="E248" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
@@ -6951,11 +6961,11 @@
         <f t="shared" si="3"/>
         <v>60691</v>
       </c>
-      <c r="E249">
-        <v>0</v>
-      </c>
-      <c r="F249">
-        <v>0</v>
+      <c r="E249" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
@@ -6972,11 +6982,11 @@
         <f t="shared" si="3"/>
         <v>61412</v>
       </c>
-      <c r="E250">
-        <v>0</v>
-      </c>
-      <c r="F250">
-        <v>0</v>
+      <c r="E250" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
@@ -6993,11 +7003,11 @@
         <f t="shared" si="3"/>
         <v>62195</v>
       </c>
-      <c r="E251">
-        <v>0</v>
-      </c>
-      <c r="F251">
-        <v>0</v>
+      <c r="E251" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
@@ -7014,11 +7024,11 @@
         <f t="shared" si="3"/>
         <v>62907</v>
       </c>
-      <c r="E252">
-        <v>0</v>
-      </c>
-      <c r="F252">
-        <v>0</v>
+      <c r="E252" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
@@ -7035,11 +7045,11 @@
         <f t="shared" si="3"/>
         <v>63712</v>
       </c>
-      <c r="E253">
-        <v>0</v>
-      </c>
-      <c r="F253">
-        <v>0</v>
+      <c r="E253" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
@@ -7056,11 +7066,11 @@
         <f t="shared" si="3"/>
         <v>64370</v>
       </c>
-      <c r="E254">
-        <v>0</v>
-      </c>
-      <c r="F254">
-        <v>0</v>
+      <c r="E254" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
@@ -7077,11 +7087,11 @@
         <f t="shared" si="3"/>
         <v>65074</v>
       </c>
-      <c r="E255">
-        <v>0</v>
-      </c>
-      <c r="F255">
-        <v>0</v>
+      <c r="E255" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
@@ -7098,11 +7108,11 @@
         <f t="shared" si="3"/>
         <v>65895</v>
       </c>
-      <c r="E256">
-        <v>0</v>
-      </c>
-      <c r="F256">
-        <v>0</v>
+      <c r="E256" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
@@ -7119,11 +7129,11 @@
         <f t="shared" si="3"/>
         <v>66685</v>
       </c>
-      <c r="E257">
-        <v>0</v>
-      </c>
-      <c r="F257">
-        <v>0</v>
+      <c r="E257" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F257" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
@@ -7140,11 +7150,11 @@
         <f t="shared" ref="D258:D321" si="4">(D259-B259)</f>
         <v>67526</v>
       </c>
-      <c r="E258">
-        <v>0</v>
-      </c>
-      <c r="F258">
-        <v>0</v>
+      <c r="E258" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
@@ -7161,11 +7171,11 @@
         <f t="shared" si="4"/>
         <v>68352</v>
       </c>
-      <c r="E259">
-        <v>0</v>
-      </c>
-      <c r="F259">
-        <v>0</v>
+      <c r="E259" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
@@ -7182,11 +7192,11 @@
         <f t="shared" si="4"/>
         <v>69330</v>
       </c>
-      <c r="E260">
-        <v>0</v>
-      </c>
-      <c r="F260">
-        <v>0</v>
+      <c r="E260" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
@@ -7203,11 +7213,11 @@
         <f t="shared" si="4"/>
         <v>70372</v>
       </c>
-      <c r="E261">
-        <v>0</v>
-      </c>
-      <c r="F261">
-        <v>0</v>
+      <c r="E261" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
@@ -7224,11 +7234,11 @@
         <f t="shared" si="4"/>
         <v>71223</v>
       </c>
-      <c r="E262">
-        <v>0</v>
-      </c>
-      <c r="F262">
-        <v>0</v>
+      <c r="E262" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
@@ -7245,11 +7255,11 @@
         <f t="shared" si="4"/>
         <v>72050</v>
       </c>
-      <c r="E263">
-        <v>0</v>
-      </c>
-      <c r="F263">
-        <v>0</v>
+      <c r="E263" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
@@ -7266,11 +7276,11 @@
         <f t="shared" si="4"/>
         <v>72884</v>
       </c>
-      <c r="E264">
-        <v>0</v>
-      </c>
-      <c r="F264">
-        <v>0</v>
+      <c r="E264" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F264" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
@@ -7287,11 +7297,11 @@
         <f t="shared" si="4"/>
         <v>73818</v>
       </c>
-      <c r="E265">
-        <v>0</v>
-      </c>
-      <c r="F265">
-        <v>0</v>
+      <c r="E265" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F265" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
@@ -7308,11 +7318,11 @@
         <f t="shared" si="4"/>
         <v>74714</v>
       </c>
-      <c r="E266">
-        <v>0</v>
-      </c>
-      <c r="F266">
-        <v>0</v>
+      <c r="E266" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F266" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
@@ -7329,11 +7339,11 @@
         <f t="shared" si="4"/>
         <v>75729</v>
       </c>
-      <c r="E267">
-        <v>0</v>
-      </c>
-      <c r="F267">
-        <v>0</v>
+      <c r="E267" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F267" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
@@ -7350,11 +7360,11 @@
         <f t="shared" si="4"/>
         <v>76706</v>
       </c>
-      <c r="E268">
-        <v>0</v>
-      </c>
-      <c r="F268">
-        <v>0</v>
+      <c r="E268" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F268" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
@@ -7371,11 +7381,11 @@
         <f t="shared" si="4"/>
         <v>77654</v>
       </c>
-      <c r="E269">
-        <v>0</v>
-      </c>
-      <c r="F269">
-        <v>0</v>
+      <c r="E269" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F269" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
@@ -7392,11 +7402,11 @@
         <f t="shared" si="4"/>
         <v>78704</v>
       </c>
-      <c r="E270">
-        <v>0</v>
-      </c>
-      <c r="F270">
-        <v>0</v>
+      <c r="E270" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F270" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
@@ -7413,11 +7423,11 @@
         <f t="shared" si="4"/>
         <v>79691</v>
       </c>
-      <c r="E271">
-        <v>0</v>
-      </c>
-      <c r="F271">
-        <v>0</v>
+      <c r="E271" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
@@ -7434,11 +7444,11 @@
         <f t="shared" si="4"/>
         <v>80689</v>
       </c>
-      <c r="E272">
-        <v>0</v>
-      </c>
-      <c r="F272">
-        <v>0</v>
+      <c r="E272" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
@@ -7455,11 +7465,11 @@
         <f t="shared" si="4"/>
         <v>81692</v>
       </c>
-      <c r="E273">
-        <v>0</v>
-      </c>
-      <c r="F273">
-        <v>0</v>
+      <c r="E273" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
@@ -7476,11 +7486,11 @@
         <f t="shared" si="4"/>
         <v>82824</v>
       </c>
-      <c r="E274">
-        <v>0</v>
-      </c>
-      <c r="F274">
-        <v>0</v>
+      <c r="E274" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
@@ -7497,11 +7507,11 @@
         <f t="shared" si="4"/>
         <v>84152</v>
       </c>
-      <c r="E275">
-        <v>0</v>
-      </c>
-      <c r="F275">
-        <v>0</v>
+      <c r="E275" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F275" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
@@ -7518,11 +7528,11 @@
         <f t="shared" si="4"/>
         <v>85394</v>
       </c>
-      <c r="E276">
-        <v>0</v>
-      </c>
-      <c r="F276">
-        <v>0</v>
+      <c r="E276" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F276" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
@@ -7539,11 +7549,11 @@
         <f t="shared" si="4"/>
         <v>86782</v>
       </c>
-      <c r="E277">
-        <v>0</v>
-      </c>
-      <c r="F277">
-        <v>0</v>
+      <c r="E277" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
@@ -7560,11 +7570,11 @@
         <f t="shared" si="4"/>
         <v>88208</v>
       </c>
-      <c r="E278">
-        <v>0</v>
-      </c>
-      <c r="F278">
-        <v>0</v>
+      <c r="E278" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
@@ -7581,11 +7591,11 @@
         <f t="shared" si="4"/>
         <v>89783</v>
       </c>
-      <c r="E279">
-        <v>0</v>
-      </c>
-      <c r="F279">
-        <v>0</v>
+      <c r="E279" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
@@ -7602,11 +7612,11 @@
         <f t="shared" si="4"/>
         <v>91179</v>
       </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-      <c r="F280">
-        <v>0</v>
+      <c r="E280" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
@@ -7623,11 +7633,11 @@
         <f t="shared" si="4"/>
         <v>92760</v>
       </c>
-      <c r="E281">
-        <v>0</v>
-      </c>
-      <c r="F281">
-        <v>0</v>
+      <c r="E281" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
@@ -7644,11 +7654,11 @@
         <f t="shared" si="4"/>
         <v>94008</v>
       </c>
-      <c r="E282">
-        <v>0</v>
-      </c>
-      <c r="F282">
-        <v>0</v>
+      <c r="E282" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
@@ -7665,11 +7675,11 @@
         <f t="shared" si="4"/>
         <v>95495</v>
       </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283">
-        <v>0</v>
+      <c r="E283" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
@@ -7686,11 +7696,11 @@
         <f t="shared" si="4"/>
         <v>96744</v>
       </c>
-      <c r="E284">
-        <v>0</v>
-      </c>
-      <c r="F284">
-        <v>0</v>
+      <c r="E284" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
@@ -7707,11 +7717,11 @@
         <f t="shared" si="4"/>
         <v>98161</v>
       </c>
-      <c r="E285">
-        <v>0</v>
-      </c>
-      <c r="F285">
-        <v>0</v>
+      <c r="E285" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
@@ -7728,11 +7738,11 @@
         <f t="shared" si="4"/>
         <v>99371</v>
       </c>
-      <c r="E286">
-        <v>0</v>
-      </c>
-      <c r="F286">
-        <v>0</v>
+      <c r="E286" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
@@ -7749,11 +7759,11 @@
         <f t="shared" si="4"/>
         <v>100789</v>
       </c>
-      <c r="E287">
-        <v>0</v>
-      </c>
-      <c r="F287">
-        <v>0</v>
+      <c r="E287" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
@@ -7770,11 +7780,11 @@
         <f t="shared" si="4"/>
         <v>102377</v>
       </c>
-      <c r="E288">
-        <v>0</v>
-      </c>
-      <c r="F288">
-        <v>0</v>
+      <c r="E288" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F288" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
@@ -7791,11 +7801,11 @@
         <f t="shared" si="4"/>
         <v>103911</v>
       </c>
-      <c r="E289">
-        <v>0</v>
-      </c>
-      <c r="F289">
-        <v>0</v>
+      <c r="E289" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
@@ -7812,11 +7822,11 @@
         <f t="shared" si="4"/>
         <v>105500</v>
       </c>
-      <c r="E290">
-        <v>0</v>
-      </c>
-      <c r="F290">
-        <v>0</v>
+      <c r="E290" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
@@ -7833,11 +7843,11 @@
         <f t="shared" si="4"/>
         <v>106509</v>
       </c>
-      <c r="E291">
-        <v>0</v>
-      </c>
-      <c r="F291">
-        <v>0</v>
+      <c r="E291" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
@@ -7854,11 +7864,11 @@
         <f t="shared" si="4"/>
         <v>107882</v>
       </c>
-      <c r="E292">
-        <v>0</v>
-      </c>
-      <c r="F292">
-        <v>0</v>
+      <c r="E292" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
@@ -7875,11 +7885,11 @@
         <f t="shared" si="4"/>
         <v>109360</v>
       </c>
-      <c r="E293">
-        <v>0</v>
-      </c>
-      <c r="F293">
-        <v>0</v>
+      <c r="E293" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F293" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
@@ -7896,11 +7906,11 @@
         <f t="shared" si="4"/>
         <v>111215</v>
       </c>
-      <c r="E294">
-        <v>0</v>
-      </c>
-      <c r="F294">
-        <v>0</v>
+      <c r="E294" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
@@ -7917,11 +7927,11 @@
         <f t="shared" si="4"/>
         <v>113037</v>
       </c>
-      <c r="E295">
-        <v>0</v>
-      </c>
-      <c r="F295">
-        <v>0</v>
+      <c r="E295" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
@@ -7938,11 +7948,11 @@
         <f t="shared" si="4"/>
         <v>114745</v>
       </c>
-      <c r="E296">
-        <v>0</v>
-      </c>
-      <c r="F296">
-        <v>0</v>
+      <c r="E296" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
@@ -7959,11 +7969,11 @@
         <f t="shared" si="4"/>
         <v>116491</v>
       </c>
-      <c r="E297">
-        <v>0</v>
-      </c>
-      <c r="F297">
-        <v>0</v>
+      <c r="E297" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
@@ -7980,11 +7990,11 @@
         <f t="shared" si="4"/>
         <v>118198</v>
       </c>
-      <c r="E298">
-        <v>0</v>
-      </c>
-      <c r="F298">
-        <v>0</v>
+      <c r="E298" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
@@ -8001,11 +8011,11 @@
         <f t="shared" si="4"/>
         <v>119921</v>
       </c>
-      <c r="E299">
-        <v>0</v>
-      </c>
-      <c r="F299">
-        <v>0</v>
+      <c r="E299" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
@@ -8022,11 +8032,11 @@
         <f t="shared" si="4"/>
         <v>121745</v>
       </c>
-      <c r="E300">
-        <v>0</v>
-      </c>
-      <c r="F300">
-        <v>0</v>
+      <c r="E300" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
@@ -8043,11 +8053,11 @@
         <f t="shared" si="4"/>
         <v>123525</v>
       </c>
-      <c r="E301">
-        <v>0</v>
-      </c>
-      <c r="F301">
-        <v>0</v>
+      <c r="E301" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
@@ -8064,11 +8074,11 @@
         <f t="shared" si="4"/>
         <v>125384</v>
       </c>
-      <c r="E302">
-        <v>0</v>
-      </c>
-      <c r="F302">
-        <v>0</v>
+      <c r="E302" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
@@ -8085,11 +8095,11 @@
         <f t="shared" si="4"/>
         <v>127308</v>
       </c>
-      <c r="E303">
-        <v>0</v>
-      </c>
-      <c r="F303">
-        <v>0</v>
+      <c r="E303" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
@@ -8106,11 +8116,11 @@
         <f t="shared" si="4"/>
         <v>129233</v>
       </c>
-      <c r="E304">
-        <v>0</v>
-      </c>
-      <c r="F304">
-        <v>0</v>
+      <c r="E304" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
@@ -8127,11 +8137,11 @@
         <f t="shared" si="4"/>
         <v>130909</v>
       </c>
-      <c r="E305">
-        <v>0</v>
-      </c>
-      <c r="F305">
-        <v>0</v>
+      <c r="E305" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
@@ -8148,11 +8158,11 @@
         <f t="shared" si="4"/>
         <v>132799</v>
       </c>
-      <c r="E306">
-        <v>0</v>
-      </c>
-      <c r="F306">
-        <v>0</v>
+      <c r="E306" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F306" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
@@ -8169,11 +8179,11 @@
         <f t="shared" si="4"/>
         <v>134782</v>
       </c>
-      <c r="E307">
-        <v>0</v>
-      </c>
-      <c r="F307">
-        <v>0</v>
+      <c r="E307" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
@@ -8190,11 +8200,11 @@
         <f t="shared" si="4"/>
         <v>136630</v>
       </c>
-      <c r="E308">
-        <v>0</v>
-      </c>
-      <c r="F308">
-        <v>0</v>
+      <c r="E308" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F308" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
@@ -8211,11 +8221,11 @@
         <f t="shared" si="4"/>
         <v>138503</v>
       </c>
-      <c r="E309">
-        <v>0</v>
-      </c>
-      <c r="F309">
-        <v>0</v>
+      <c r="E309" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
@@ -8232,11 +8242,11 @@
         <f t="shared" si="4"/>
         <v>140180</v>
       </c>
-      <c r="E310">
-        <v>0</v>
-      </c>
-      <c r="F310">
-        <v>0</v>
+      <c r="E310" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
@@ -8253,11 +8263,11 @@
         <f t="shared" si="4"/>
         <v>142120</v>
       </c>
-      <c r="E311">
-        <v>0</v>
-      </c>
-      <c r="F311">
-        <v>0</v>
+      <c r="E311" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
@@ -8274,11 +8284,11 @@
         <f t="shared" si="4"/>
         <v>144395</v>
       </c>
-      <c r="E312">
-        <v>0</v>
-      </c>
-      <c r="F312">
-        <v>0</v>
+      <c r="E312" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F312" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
@@ -8295,11 +8305,11 @@
         <f t="shared" si="4"/>
         <v>146534</v>
       </c>
-      <c r="E313">
-        <v>0</v>
-      </c>
-      <c r="F313">
-        <v>0</v>
+      <c r="E313" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F313" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
@@ -8316,11 +8326,11 @@
         <f t="shared" si="4"/>
         <v>148966</v>
       </c>
-      <c r="E314">
-        <v>0</v>
-      </c>
-      <c r="F314">
-        <v>0</v>
+      <c r="E314" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F314" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
@@ -8337,11 +8347,11 @@
         <f t="shared" si="4"/>
         <v>151256</v>
       </c>
-      <c r="E315">
-        <v>0</v>
-      </c>
-      <c r="F315">
-        <v>0</v>
+      <c r="E315" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F315" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
@@ -8358,11 +8368,11 @@
         <f t="shared" si="4"/>
         <v>153613</v>
       </c>
-      <c r="E316">
-        <v>0</v>
-      </c>
-      <c r="F316">
-        <v>0</v>
+      <c r="E316" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F316" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
@@ -8379,11 +8389,11 @@
         <f t="shared" si="4"/>
         <v>155929</v>
       </c>
-      <c r="E317">
-        <v>0</v>
-      </c>
-      <c r="F317">
-        <v>0</v>
+      <c r="E317" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F317" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
@@ -8400,11 +8410,11 @@
         <f t="shared" si="4"/>
         <v>158052</v>
       </c>
-      <c r="E318">
-        <v>0</v>
-      </c>
-      <c r="F318">
-        <v>0</v>
+      <c r="E318" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F318" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
@@ -8421,11 +8431,11 @@
         <f t="shared" si="4"/>
         <v>160254</v>
       </c>
-      <c r="E319">
-        <v>0</v>
-      </c>
-      <c r="F319">
-        <v>0</v>
+      <c r="E319" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F319" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
@@ -8442,11 +8452,11 @@
         <f t="shared" si="4"/>
         <v>162662</v>
       </c>
-      <c r="E320">
-        <v>0</v>
-      </c>
-      <c r="F320">
-        <v>0</v>
+      <c r="E320" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F320" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
@@ -8463,11 +8473,11 @@
         <f t="shared" si="4"/>
         <v>165109</v>
       </c>
-      <c r="E321">
-        <v>0</v>
-      </c>
-      <c r="F321">
-        <v>0</v>
+      <c r="E321" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F321" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
@@ -8484,11 +8494,11 @@
         <f t="shared" ref="D322:D385" si="5">(D323-B323)</f>
         <v>167268</v>
       </c>
-      <c r="E322">
-        <v>0</v>
-      </c>
-      <c r="F322">
-        <v>0</v>
+      <c r="E322" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F322" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
@@ -8505,11 +8515,11 @@
         <f t="shared" si="5"/>
         <v>169410</v>
       </c>
-      <c r="E323">
-        <v>0</v>
-      </c>
-      <c r="F323">
-        <v>0</v>
+      <c r="E323" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F323" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
@@ -8526,11 +8536,11 @@
         <f t="shared" si="5"/>
         <v>171415</v>
       </c>
-      <c r="E324">
-        <v>0</v>
-      </c>
-      <c r="F324">
-        <v>0</v>
+      <c r="E324" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F324" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
@@ -8547,11 +8557,11 @@
         <f t="shared" si="5"/>
         <v>173354</v>
       </c>
-      <c r="E325">
-        <v>0</v>
-      </c>
-      <c r="F325">
-        <v>0</v>
+      <c r="E325" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F325" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
@@ -8568,11 +8578,11 @@
         <f t="shared" si="5"/>
         <v>175907</v>
       </c>
-      <c r="E326">
-        <v>0</v>
-      </c>
-      <c r="F326">
-        <v>0</v>
+      <c r="E326" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F326" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
@@ -8589,11 +8599,11 @@
         <f t="shared" si="5"/>
         <v>178830</v>
       </c>
-      <c r="E327">
-        <v>0</v>
-      </c>
-      <c r="F327">
-        <v>0</v>
+      <c r="E327" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F327" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
@@ -8610,11 +8620,11 @@
         <f t="shared" si="5"/>
         <v>182158</v>
       </c>
-      <c r="E328">
-        <v>0</v>
-      </c>
-      <c r="F328">
-        <v>0</v>
+      <c r="E328" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F328" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
@@ -8631,11 +8641,11 @@
         <f t="shared" si="5"/>
         <v>184634</v>
       </c>
-      <c r="E329">
-        <v>0</v>
-      </c>
-      <c r="F329">
-        <v>0</v>
+      <c r="E329" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F329" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
@@ -8652,11 +8662,11 @@
         <f t="shared" si="5"/>
         <v>187997</v>
       </c>
-      <c r="E330">
-        <v>0</v>
-      </c>
-      <c r="F330">
-        <v>0</v>
+      <c r="E330" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F330" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
@@ -8673,11 +8683,11 @@
         <f t="shared" si="5"/>
         <v>190961</v>
       </c>
-      <c r="E331">
-        <v>0</v>
-      </c>
-      <c r="F331">
-        <v>0</v>
+      <c r="E331" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
@@ -8694,11 +8704,11 @@
         <f t="shared" si="5"/>
         <v>194231</v>
       </c>
-      <c r="E332">
-        <v>0</v>
-      </c>
-      <c r="F332">
-        <v>0</v>
+      <c r="E332" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F332" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
@@ -8715,11 +8725,11 @@
         <f t="shared" si="5"/>
         <v>197359</v>
       </c>
-      <c r="E333">
-        <v>0</v>
-      </c>
-      <c r="F333">
-        <v>0</v>
+      <c r="E333" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F333" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
@@ -8736,11 +8746,11 @@
         <f t="shared" si="5"/>
         <v>200625</v>
       </c>
-      <c r="E334">
-        <v>0</v>
-      </c>
-      <c r="F334">
-        <v>0</v>
+      <c r="E334" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F334" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
@@ -8757,11 +8767,11 @@
         <f t="shared" si="5"/>
         <v>204144</v>
       </c>
-      <c r="E335">
-        <v>0</v>
-      </c>
-      <c r="F335">
-        <v>0</v>
+      <c r="E335" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F335" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
@@ -8778,11 +8788,11 @@
         <f t="shared" si="5"/>
         <v>208393</v>
       </c>
-      <c r="E336">
-        <v>0</v>
-      </c>
-      <c r="F336">
-        <v>0</v>
+      <c r="E336" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F336" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
@@ -8799,11 +8809,11 @@
         <f t="shared" si="5"/>
         <v>211836</v>
       </c>
-      <c r="E337">
-        <v>0</v>
-      </c>
-      <c r="F337">
-        <v>0</v>
+      <c r="E337" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F337" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
@@ -8820,11 +8830,11 @@
         <f t="shared" si="5"/>
         <v>215781</v>
       </c>
-      <c r="E338">
-        <v>0</v>
-      </c>
-      <c r="F338">
-        <v>0</v>
+      <c r="E338" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F338" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.2">
@@ -8841,11 +8851,11 @@
         <f t="shared" si="5"/>
         <v>219119</v>
       </c>
-      <c r="E339">
-        <v>0</v>
-      </c>
-      <c r="F339">
-        <v>0</v>
+      <c r="E339" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F339" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.2">
@@ -8862,11 +8872,11 @@
         <f t="shared" si="5"/>
         <v>222022</v>
       </c>
-      <c r="E340">
-        <v>0</v>
-      </c>
-      <c r="F340">
-        <v>0</v>
+      <c r="E340" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F340" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.2">
@@ -8883,11 +8893,11 @@
         <f t="shared" si="5"/>
         <v>224983</v>
       </c>
-      <c r="E341">
-        <v>0</v>
-      </c>
-      <c r="F341">
-        <v>0</v>
+      <c r="E341" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F341" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
@@ -8904,11 +8914,11 @@
         <f t="shared" si="5"/>
         <v>228309</v>
       </c>
-      <c r="E342">
-        <v>0</v>
-      </c>
-      <c r="F342">
-        <v>0</v>
+      <c r="E342" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F342" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.2">
@@ -8925,11 +8935,11 @@
         <f t="shared" si="5"/>
         <v>231307</v>
       </c>
-      <c r="E343">
-        <v>0</v>
-      </c>
-      <c r="F343">
-        <v>0</v>
+      <c r="E343" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F343" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.2">
@@ -8946,11 +8956,11 @@
         <f t="shared" si="5"/>
         <v>234363</v>
       </c>
-      <c r="E344">
-        <v>0</v>
-      </c>
-      <c r="F344">
-        <v>0</v>
+      <c r="E344" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F344" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.2">
@@ -8967,11 +8977,11 @@
         <f t="shared" si="5"/>
         <v>237785</v>
       </c>
-      <c r="E345">
-        <v>0</v>
-      </c>
-      <c r="F345">
-        <v>0</v>
+      <c r="E345" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F345" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.2">
@@ -8988,11 +8998,11 @@
         <f t="shared" si="5"/>
         <v>240363</v>
       </c>
-      <c r="E346">
-        <v>0</v>
-      </c>
-      <c r="F346">
-        <v>0</v>
+      <c r="E346" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F346" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.2">
@@ -9009,11 +9019,11 @@
         <f t="shared" si="5"/>
         <v>242276</v>
       </c>
-      <c r="E347">
-        <v>0</v>
-      </c>
-      <c r="F347">
-        <v>0</v>
+      <c r="E347" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F347" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.2">
@@ -9030,11 +9040,11 @@
         <f t="shared" si="5"/>
         <v>244931</v>
       </c>
-      <c r="E348">
-        <v>0</v>
-      </c>
-      <c r="F348">
-        <v>0</v>
+      <c r="E348" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F348" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.2">
@@ -9051,11 +9061,11 @@
         <f t="shared" si="5"/>
         <v>247563</v>
       </c>
-      <c r="E349">
-        <v>0</v>
-      </c>
-      <c r="F349">
-        <v>0</v>
+      <c r="E349" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F349" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.2">
@@ -9072,11 +9082,11 @@
         <f t="shared" si="5"/>
         <v>250225</v>
       </c>
-      <c r="E350">
-        <v>0</v>
-      </c>
-      <c r="F350">
-        <v>0</v>
+      <c r="E350" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F350" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.2">
@@ -9093,11 +9103,11 @@
         <f t="shared" si="5"/>
         <v>252584</v>
       </c>
-      <c r="E351">
-        <v>0</v>
-      </c>
-      <c r="F351">
-        <v>0</v>
+      <c r="E351" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F351" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.2">
@@ -9114,11 +9124,11 @@
         <f t="shared" si="5"/>
         <v>255001</v>
       </c>
-      <c r="E352">
-        <v>0</v>
-      </c>
-      <c r="F352">
-        <v>0</v>
+      <c r="E352" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F352" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.2">
@@ -9135,11 +9145,11 @@
         <f t="shared" si="5"/>
         <v>256959</v>
       </c>
-      <c r="E353">
-        <v>0</v>
-      </c>
-      <c r="F353">
-        <v>0</v>
+      <c r="E353" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F353" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.2">
@@ -9156,11 +9166,11 @@
         <f t="shared" si="5"/>
         <v>258699</v>
       </c>
-      <c r="E354">
-        <v>0</v>
-      </c>
-      <c r="F354">
-        <v>0</v>
+      <c r="E354" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F354" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.2">
@@ -9177,11 +9187,11 @@
         <f t="shared" si="5"/>
         <v>260369</v>
       </c>
-      <c r="E355">
-        <v>0</v>
-      </c>
-      <c r="F355">
-        <v>0</v>
+      <c r="E355" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F355" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.2">
@@ -9198,11 +9208,11 @@
         <f t="shared" si="5"/>
         <v>262462</v>
       </c>
-      <c r="E356">
-        <v>0</v>
-      </c>
-      <c r="F356">
-        <v>0</v>
+      <c r="E356" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F356" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.2">
@@ -9219,11 +9229,11 @@
         <f t="shared" si="5"/>
         <v>264299</v>
       </c>
-      <c r="E357">
-        <v>0</v>
-      </c>
-      <c r="F357">
-        <v>0</v>
+      <c r="E357" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F357" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.2">
@@ -9240,11 +9250,11 @@
         <f t="shared" si="5"/>
         <v>266362</v>
       </c>
-      <c r="E358">
-        <v>0</v>
-      </c>
-      <c r="F358">
-        <v>0</v>
+      <c r="E358" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F358" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.2">
@@ -9261,11 +9271,11 @@
         <f t="shared" si="5"/>
         <v>268210</v>
       </c>
-      <c r="E359">
-        <v>0</v>
-      </c>
-      <c r="F359">
-        <v>0</v>
+      <c r="E359" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F359" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.2">
@@ -9282,11 +9292,11 @@
         <f t="shared" si="5"/>
         <v>270179</v>
       </c>
-      <c r="E360">
-        <v>0</v>
-      </c>
-      <c r="F360">
-        <v>0</v>
+      <c r="E360" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F360" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.2">
@@ -9303,11 +9313,11 @@
         <f t="shared" si="5"/>
         <v>270924</v>
       </c>
-      <c r="E361">
-        <v>0</v>
-      </c>
-      <c r="F361">
-        <v>0</v>
+      <c r="E361" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F361" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.2">
@@ -9324,11 +9334,11 @@
         <f t="shared" si="5"/>
         <v>272096</v>
       </c>
-      <c r="E362">
-        <v>0</v>
-      </c>
-      <c r="F362">
-        <v>0</v>
+      <c r="E362" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F362" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.2">
@@ -9345,11 +9355,11 @@
         <f t="shared" si="5"/>
         <v>273659</v>
       </c>
-      <c r="E363">
-        <v>0</v>
-      </c>
-      <c r="F363">
-        <v>0</v>
+      <c r="E363" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F363" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.2">
@@ -9366,11 +9376,11 @@
         <f t="shared" si="5"/>
         <v>275329</v>
       </c>
-      <c r="E364">
-        <v>0</v>
-      </c>
-      <c r="F364">
-        <v>0</v>
+      <c r="E364" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F364" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.2">
@@ -9387,11 +9397,11 @@
         <f t="shared" si="5"/>
         <v>276717</v>
       </c>
-      <c r="E365">
-        <v>0</v>
-      </c>
-      <c r="F365">
-        <v>0</v>
+      <c r="E365" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F365" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.2">
@@ -9408,11 +9418,11 @@
         <f t="shared" si="5"/>
         <v>278206</v>
       </c>
-      <c r="E366">
-        <v>0</v>
-      </c>
-      <c r="F366">
-        <v>0</v>
+      <c r="E366" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F366" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.2">
@@ -9429,11 +9439,11 @@
         <f t="shared" si="5"/>
         <v>279471</v>
       </c>
-      <c r="E367">
-        <v>0</v>
-      </c>
-      <c r="F367">
-        <v>0</v>
+      <c r="E367" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F367" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.2">
@@ -9450,11 +9460,11 @@
         <f t="shared" si="5"/>
         <v>280493</v>
       </c>
-      <c r="E368">
-        <v>0</v>
-      </c>
-      <c r="F368">
-        <v>0</v>
+      <c r="E368" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F368" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.2">
@@ -9471,11 +9481,11 @@
         <f t="shared" si="5"/>
         <v>281565</v>
       </c>
-      <c r="E369">
-        <v>0</v>
-      </c>
-      <c r="F369">
-        <v>0</v>
+      <c r="E369" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F369" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.2">
@@ -9492,11 +9502,11 @@
         <f t="shared" si="5"/>
         <v>282510</v>
       </c>
-      <c r="E370">
-        <v>0</v>
-      </c>
-      <c r="F370">
-        <v>0</v>
+      <c r="E370" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F370" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.2">
@@ -9513,11 +9523,11 @@
         <f t="shared" si="5"/>
         <v>283586</v>
       </c>
-      <c r="E371">
-        <v>0</v>
-      </c>
-      <c r="F371">
-        <v>0</v>
+      <c r="E371" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F371" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.2">
@@ -9534,11 +9544,11 @@
         <f t="shared" si="5"/>
         <v>284886</v>
       </c>
-      <c r="E372">
-        <v>0</v>
-      </c>
-      <c r="F372">
-        <v>0</v>
+      <c r="E372" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F372" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.2">
@@ -9555,11 +9565,11 @@
         <f t="shared" si="5"/>
         <v>285867</v>
       </c>
-      <c r="E373">
-        <v>0</v>
-      </c>
-      <c r="F373">
-        <v>0</v>
+      <c r="E373" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F373" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.2">
@@ -9576,11 +9586,11 @@
         <f t="shared" si="5"/>
         <v>286831</v>
       </c>
-      <c r="E374">
-        <v>0</v>
-      </c>
-      <c r="F374">
-        <v>0</v>
+      <c r="E374" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F374" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.2">
@@ -9597,11 +9607,11 @@
         <f t="shared" si="5"/>
         <v>287735</v>
       </c>
-      <c r="E375">
-        <v>0</v>
-      </c>
-      <c r="F375">
-        <v>0</v>
+      <c r="E375" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F375" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.2">
@@ -9618,11 +9628,11 @@
         <f t="shared" si="5"/>
         <v>288582</v>
       </c>
-      <c r="E376">
-        <v>0</v>
-      </c>
-      <c r="F376">
-        <v>0</v>
+      <c r="E376" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F376" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.2">
@@ -9639,11 +9649,11 @@
         <f t="shared" si="5"/>
         <v>289620</v>
       </c>
-      <c r="E377">
-        <v>0</v>
-      </c>
-      <c r="F377">
-        <v>0</v>
+      <c r="E377" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F377" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.2">
@@ -9660,11 +9670,11 @@
         <f t="shared" si="5"/>
         <v>290770</v>
       </c>
-      <c r="E378">
-        <v>0</v>
-      </c>
-      <c r="F378">
-        <v>0</v>
+      <c r="E378" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F378" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.2">
@@ -9681,11 +9691,11 @@
         <f t="shared" si="5"/>
         <v>291998</v>
       </c>
-      <c r="E379">
-        <v>0</v>
-      </c>
-      <c r="F379">
-        <v>0</v>
+      <c r="E379" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F379" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.2">
@@ -9702,11 +9712,11 @@
         <f t="shared" si="5"/>
         <v>293085</v>
       </c>
-      <c r="E380">
-        <v>0</v>
-      </c>
-      <c r="F380">
-        <v>0</v>
+      <c r="E380" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F380" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.2">
@@ -9723,11 +9733,11 @@
         <f t="shared" si="5"/>
         <v>294143</v>
       </c>
-      <c r="E381">
-        <v>0</v>
-      </c>
-      <c r="F381">
-        <v>0</v>
+      <c r="E381" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F381" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.2">
@@ -9744,11 +9754,11 @@
         <f t="shared" si="5"/>
         <v>295118</v>
       </c>
-      <c r="E382">
-        <v>0</v>
-      </c>
-      <c r="F382">
-        <v>0</v>
+      <c r="E382" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F382" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.2">
@@ -9765,11 +9775,11 @@
         <f t="shared" si="5"/>
         <v>296172</v>
       </c>
-      <c r="E383">
-        <v>0</v>
-      </c>
-      <c r="F383">
-        <v>0</v>
+      <c r="E383" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F383" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.2">
@@ -9786,11 +9796,11 @@
         <f t="shared" si="5"/>
         <v>297310</v>
       </c>
-      <c r="E384">
-        <v>0</v>
-      </c>
-      <c r="F384">
-        <v>0</v>
+      <c r="E384" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F384" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.2">
@@ -9807,11 +9817,11 @@
         <f t="shared" si="5"/>
         <v>298568</v>
       </c>
-      <c r="E385">
-        <v>0</v>
-      </c>
-      <c r="F385">
-        <v>0</v>
+      <c r="E385" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F385" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.2">
@@ -9828,11 +9838,11 @@
         <f t="shared" ref="D386:D431" si="6">(D387-B387)</f>
         <v>299753</v>
       </c>
-      <c r="E386">
-        <v>0</v>
-      </c>
-      <c r="F386">
-        <v>0</v>
+      <c r="E386" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F386" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.2">
@@ -9849,11 +9859,11 @@
         <f t="shared" si="6"/>
         <v>300815</v>
       </c>
-      <c r="E387">
-        <v>0</v>
-      </c>
-      <c r="F387">
-        <v>0</v>
+      <c r="E387" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F387" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.2">
@@ -9870,11 +9880,11 @@
         <f t="shared" si="6"/>
         <v>301838</v>
       </c>
-      <c r="E388">
-        <v>0</v>
-      </c>
-      <c r="F388">
-        <v>0</v>
+      <c r="E388" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F388" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.2">
@@ -9891,11 +9901,11 @@
         <f t="shared" si="6"/>
         <v>302804</v>
       </c>
-      <c r="E389">
-        <v>0</v>
-      </c>
-      <c r="F389">
-        <v>0</v>
+      <c r="E389" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F389" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.2">
@@ -9912,11 +9922,11 @@
         <f t="shared" si="6"/>
         <v>303762</v>
       </c>
-      <c r="E390">
-        <v>0</v>
-      </c>
-      <c r="F390">
-        <v>0</v>
+      <c r="E390" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F390" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.2">
@@ -9933,11 +9943,11 @@
         <f t="shared" si="6"/>
         <v>304756</v>
       </c>
-      <c r="E391">
-        <v>0</v>
-      </c>
-      <c r="F391">
-        <v>0</v>
+      <c r="E391" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F391" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.2">
@@ -9954,11 +9964,11 @@
         <f t="shared" si="6"/>
         <v>306006</v>
       </c>
-      <c r="E392">
-        <v>0</v>
-      </c>
-      <c r="F392">
-        <v>0</v>
+      <c r="E392" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F392" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.2">
@@ -9975,11 +9985,11 @@
         <f t="shared" si="6"/>
         <v>306996</v>
       </c>
-      <c r="E393">
-        <v>0</v>
-      </c>
-      <c r="F393">
-        <v>0</v>
+      <c r="E393" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F393" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.2">
@@ -9996,11 +10006,11 @@
         <f t="shared" si="6"/>
         <v>308295</v>
       </c>
-      <c r="E394">
-        <v>0</v>
-      </c>
-      <c r="F394">
-        <v>0</v>
+      <c r="E394" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F394" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.2">
@@ -10017,11 +10027,11 @@
         <f t="shared" si="6"/>
         <v>309926</v>
       </c>
-      <c r="E395">
-        <v>0</v>
-      </c>
-      <c r="F395">
-        <v>0</v>
+      <c r="E395" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F395" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.2">
@@ -10038,11 +10048,11 @@
         <f t="shared" si="6"/>
         <v>311111</v>
       </c>
-      <c r="E396">
-        <v>0</v>
-      </c>
-      <c r="F396">
-        <v>0</v>
+      <c r="E396" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F396" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.2">
@@ -10059,11 +10069,11 @@
         <f t="shared" si="6"/>
         <v>312427</v>
       </c>
-      <c r="E397">
-        <v>0</v>
-      </c>
-      <c r="F397">
-        <v>0</v>
+      <c r="E397" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F397" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.2">
@@ -10080,11 +10090,11 @@
         <f t="shared" si="6"/>
         <v>313519</v>
       </c>
-      <c r="E398">
-        <v>0</v>
-      </c>
-      <c r="F398">
-        <v>0</v>
+      <c r="E398" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F398" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.2">
@@ -10101,11 +10111,11 @@
         <f t="shared" si="6"/>
         <v>314890</v>
       </c>
-      <c r="E399">
-        <v>0</v>
-      </c>
-      <c r="F399">
-        <v>0</v>
+      <c r="E399" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F399" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.2">
@@ -10122,11 +10132,11 @@
         <f t="shared" si="6"/>
         <v>316358</v>
       </c>
-      <c r="E400">
-        <v>0</v>
-      </c>
-      <c r="F400">
-        <v>0</v>
+      <c r="E400" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F400" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.2">
@@ -10143,11 +10153,11 @@
         <f t="shared" si="6"/>
         <v>318105</v>
       </c>
-      <c r="E401">
-        <v>0</v>
-      </c>
-      <c r="F401">
-        <v>0</v>
+      <c r="E401" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F401" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.2">
@@ -10164,11 +10174,11 @@
         <f t="shared" si="6"/>
         <v>319373</v>
       </c>
-      <c r="E402">
-        <v>0</v>
-      </c>
-      <c r="F402">
-        <v>0</v>
+      <c r="E402" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F402" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.2">
@@ -10185,11 +10195,11 @@
         <f t="shared" si="6"/>
         <v>320447</v>
       </c>
-      <c r="E403">
-        <v>0</v>
-      </c>
-      <c r="F403">
-        <v>0</v>
+      <c r="E403" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F403" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.2">
@@ -10206,11 +10216,11 @@
         <f t="shared" si="6"/>
         <v>321955</v>
       </c>
-      <c r="E404">
-        <v>0</v>
-      </c>
-      <c r="F404">
-        <v>0</v>
+      <c r="E404" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F404" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.2">
@@ -10227,11 +10237,11 @@
         <f t="shared" si="6"/>
         <v>323508</v>
       </c>
-      <c r="E405">
-        <v>0</v>
-      </c>
-      <c r="F405">
-        <v>0</v>
+      <c r="E405" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F405" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.2">
@@ -10248,11 +10258,11 @@
         <f t="shared" si="6"/>
         <v>325253</v>
       </c>
-      <c r="E406">
-        <v>0</v>
-      </c>
-      <c r="F406">
-        <v>0</v>
+      <c r="E406" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F406" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.2">
@@ -10269,11 +10279,11 @@
         <f t="shared" si="6"/>
         <v>327082</v>
       </c>
-      <c r="E407">
-        <v>0</v>
-      </c>
-      <c r="F407">
-        <v>0</v>
+      <c r="E407" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F407" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.2">
@@ -10290,11 +10300,11 @@
         <f t="shared" si="6"/>
         <v>328873</v>
       </c>
-      <c r="E408">
-        <v>0</v>
-      </c>
-      <c r="F408">
-        <v>0</v>
+      <c r="E408" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F408" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.2">
@@ -10311,11 +10321,11 @@
         <f t="shared" si="6"/>
         <v>330572</v>
       </c>
-      <c r="E409">
-        <v>0</v>
-      </c>
-      <c r="F409">
-        <v>0</v>
+      <c r="E409" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F409" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.2">
@@ -10332,11 +10342,11 @@
         <f t="shared" si="6"/>
         <v>332118</v>
       </c>
-      <c r="E410">
-        <v>0</v>
-      </c>
-      <c r="F410">
-        <v>0</v>
+      <c r="E410" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F410" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.2">
@@ -10353,11 +10363,11 @@
         <f t="shared" si="6"/>
         <v>333689</v>
       </c>
-      <c r="E411">
-        <v>0</v>
-      </c>
-      <c r="F411">
-        <v>0</v>
+      <c r="E411" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F411" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.2">
@@ -10368,18 +10378,18 @@
         <v>2380</v>
       </c>
       <c r="C412" s="1">
-        <f t="shared" ref="C412:C437" si="7">AVERAGE(B406:B412)</f>
+        <f t="shared" ref="C412:C438" si="7">AVERAGE(B406:B412)</f>
         <v>1794.4285714285713</v>
       </c>
       <c r="D412">
         <f t="shared" si="6"/>
         <v>336069</v>
       </c>
-      <c r="E412">
-        <v>0</v>
-      </c>
-      <c r="F412">
-        <v>0</v>
+      <c r="E412" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F412" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.2">
@@ -10397,11 +10407,11 @@
         <f t="shared" si="6"/>
         <v>338238</v>
       </c>
-      <c r="E413">
-        <v>0</v>
-      </c>
-      <c r="F413">
-        <v>0</v>
+      <c r="E413" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F413" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.2">
@@ -10419,11 +10429,11 @@
         <f t="shared" si="6"/>
         <v>340691</v>
       </c>
-      <c r="E414">
-        <v>0</v>
-      </c>
-      <c r="F414">
-        <v>0</v>
+      <c r="E414" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F414" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.2">
@@ -10441,11 +10451,11 @@
         <f t="shared" si="6"/>
         <v>343139</v>
       </c>
-      <c r="E415">
-        <v>0</v>
-      </c>
-      <c r="F415">
-        <v>0</v>
+      <c r="E415" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F415" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.2">
@@ -10463,11 +10473,11 @@
         <f t="shared" si="6"/>
         <v>345233</v>
       </c>
-      <c r="E416">
-        <v>0</v>
-      </c>
-      <c r="F416">
-        <v>0</v>
+      <c r="E416" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F416" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.2">
@@ -10485,11 +10495,11 @@
         <f t="shared" si="6"/>
         <v>347569</v>
       </c>
-      <c r="E417">
-        <v>0</v>
-      </c>
-      <c r="F417">
-        <v>0</v>
+      <c r="E417" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F417" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.2">
@@ -10507,11 +10517,11 @@
         <f t="shared" si="6"/>
         <v>349902</v>
       </c>
-      <c r="E418">
-        <v>0</v>
-      </c>
-      <c r="F418">
-        <v>0</v>
+      <c r="E418" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F418" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.2">
@@ -10529,11 +10539,11 @@
         <f t="shared" si="6"/>
         <v>352459</v>
       </c>
-      <c r="E419">
-        <v>0</v>
-      </c>
-      <c r="F419">
-        <v>0</v>
+      <c r="E419" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F419" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.2">
@@ -10551,11 +10561,11 @@
         <f t="shared" si="6"/>
         <v>355548</v>
       </c>
-      <c r="E420">
-        <v>0</v>
-      </c>
-      <c r="F420">
-        <v>0</v>
+      <c r="E420" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F420" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.2">
@@ -10573,11 +10583,11 @@
         <f t="shared" si="6"/>
         <v>358557</v>
       </c>
-      <c r="E421">
-        <v>0</v>
-      </c>
-      <c r="F421">
-        <v>0</v>
+      <c r="E421" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F421" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.2">
@@ -10595,11 +10605,11 @@
         <f t="shared" si="6"/>
         <v>361598</v>
       </c>
-      <c r="E422">
-        <v>0</v>
-      </c>
-      <c r="F422">
-        <v>0</v>
+      <c r="E422" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F422" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.2">
@@ -10617,11 +10627,11 @@
         <f t="shared" si="6"/>
         <v>364536</v>
       </c>
-      <c r="E423">
-        <v>0</v>
-      </c>
-      <c r="F423">
-        <v>0</v>
+      <c r="E423" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F423" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.2">
@@ -10639,11 +10649,11 @@
         <f t="shared" si="6"/>
         <v>367601</v>
       </c>
-      <c r="E424">
-        <v>0</v>
-      </c>
-      <c r="F424">
-        <v>0</v>
+      <c r="E424" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F424" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.2">
@@ -10661,11 +10671,11 @@
         <f t="shared" si="6"/>
         <v>370816</v>
       </c>
-      <c r="E425">
-        <v>0</v>
-      </c>
-      <c r="F425">
-        <v>0</v>
+      <c r="E425" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F425" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.2">
@@ -10683,11 +10693,11 @@
         <f t="shared" si="6"/>
         <v>374111</v>
       </c>
-      <c r="E426">
-        <v>0</v>
-      </c>
-      <c r="F426">
-        <v>0</v>
+      <c r="E426" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F426" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.2">
@@ -10705,11 +10715,11 @@
         <f t="shared" si="6"/>
         <v>378338</v>
       </c>
-      <c r="E427">
-        <v>0</v>
-      </c>
-      <c r="F427">
-        <v>0</v>
+      <c r="E427" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F427" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.2">
@@ -10727,11 +10737,11 @@
         <f t="shared" si="6"/>
         <v>382151</v>
       </c>
-      <c r="E428">
-        <v>0</v>
-      </c>
-      <c r="F428">
-        <v>0</v>
+      <c r="E428" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F428" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.2">
@@ -10749,11 +10759,11 @@
         <f t="shared" si="6"/>
         <v>386607</v>
       </c>
-      <c r="E429">
-        <v>0</v>
-      </c>
-      <c r="F429">
-        <v>0</v>
+      <c r="E429" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F429" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.2">
@@ -10771,11 +10781,11 @@
         <f t="shared" si="6"/>
         <v>391008</v>
       </c>
-      <c r="E430">
-        <v>0</v>
-      </c>
-      <c r="F430">
-        <v>0</v>
+      <c r="E430" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F430" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.2">
@@ -10793,11 +10803,11 @@
         <f t="shared" si="6"/>
         <v>394678</v>
       </c>
-      <c r="E431">
-        <v>0</v>
-      </c>
-      <c r="F431">
-        <v>0</v>
+      <c r="E431" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F431" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.2">
@@ -10815,11 +10825,11 @@
         <f>(D433-B433)</f>
         <v>398834</v>
       </c>
-      <c r="E432">
-        <v>0</v>
-      </c>
-      <c r="F432">
-        <v>0</v>
+      <c r="E432" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F432" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.2">
@@ -10837,11 +10847,11 @@
         <f>SUM(B2:B433)</f>
         <v>403570</v>
       </c>
-      <c r="E433">
-        <v>0</v>
-      </c>
-      <c r="F433">
-        <v>0</v>
+      <c r="E433" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F433" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.2">
@@ -10859,11 +10869,11 @@
         <f>SUM(B3:B434)</f>
         <v>408381</v>
       </c>
-      <c r="E434">
-        <v>0</v>
-      </c>
-      <c r="F434">
-        <v>0</v>
+      <c r="E434" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F434" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.2">
@@ -10881,11 +10891,11 @@
         <f>SUM(B4:B435)</f>
         <v>412743</v>
       </c>
-      <c r="E435">
-        <v>0</v>
-      </c>
-      <c r="F435">
-        <v>0</v>
+      <c r="E435" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F435" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.2">
@@ -10903,11 +10913,11 @@
         <f>SUM(B5:B436)</f>
         <v>416992</v>
       </c>
-      <c r="E436">
-        <v>0</v>
-      </c>
-      <c r="F436">
-        <v>0</v>
+      <c r="E436" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F436" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.2">
@@ -10925,11 +10935,33 @@
         <f>SUM(B6:B437)</f>
         <v>421439</v>
       </c>
-      <c r="E437">
-        <v>0</v>
-      </c>
-      <c r="F437">
-        <v>0</v>
+      <c r="E437" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F437" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>442</v>
+      </c>
+      <c r="B438">
+        <v>3469</v>
+      </c>
+      <c r="C438" s="1">
+        <f t="shared" si="7"/>
+        <v>4318.8571428571431</v>
+      </c>
+      <c r="D438">
+        <f>SUM(B7:B438)</f>
+        <v>424908</v>
+      </c>
+      <c r="E438" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F438" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
   </sheetData>

--- a/ontario_daily_cases.xlsx
+++ b/ontario_daily_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC8C4E8-2E0E-BF47-AE6C-08D304703531}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EEB2B7-715C-C345-B7EE-5907AAB0F116}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="445">
   <si>
     <t>New cases</t>
   </si>
@@ -1363,6 +1363,9 @@
   </si>
   <si>
     <t>n/a</t>
+  </si>
+  <si>
+    <t>Wed Apr 21 2021</t>
   </si>
 </sst>
 </file>
@@ -1724,10 +1727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1917BCDE-B3C2-FF4A-8B47-29076C29F28C}">
-  <dimension ref="A1:F438"/>
+  <dimension ref="A1:F439"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="H439" sqref="H439"/>
+      <selection activeCell="Q428" sqref="Q428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10378,7 +10381,7 @@
         <v>2380</v>
       </c>
       <c r="C412" s="1">
-        <f t="shared" ref="C412:C438" si="7">AVERAGE(B406:B412)</f>
+        <f t="shared" ref="C412:C439" si="7">AVERAGE(B406:B412)</f>
         <v>1794.4285714285713</v>
       </c>
       <c r="D412">
@@ -10844,7 +10847,7 @@
         <v>4208.4285714285716</v>
       </c>
       <c r="D433">
-        <f>SUM(B2:B433)</f>
+        <f t="shared" ref="D433:D439" si="8">SUM(B2:B433)</f>
         <v>403570</v>
       </c>
       <c r="E433" s="2" t="s">
@@ -10866,7 +10869,7 @@
         <v>4292</v>
       </c>
       <c r="D434">
-        <f>SUM(B3:B434)</f>
+        <f t="shared" si="8"/>
         <v>408381</v>
       </c>
       <c r="E434" s="2" t="s">
@@ -10888,7 +10891,7 @@
         <v>4370.4285714285716</v>
       </c>
       <c r="D435">
-        <f>SUM(B4:B435)</f>
+        <f t="shared" si="8"/>
         <v>412743</v>
       </c>
       <c r="E435" s="2" t="s">
@@ -10910,7 +10913,7 @@
         <v>4341</v>
       </c>
       <c r="D436">
-        <f>SUM(B5:B436)</f>
+        <f t="shared" si="8"/>
         <v>416992</v>
       </c>
       <c r="E436" s="2" t="s">
@@ -10932,7 +10935,7 @@
         <v>4347.5714285714284</v>
       </c>
       <c r="D437">
-        <f>SUM(B6:B437)</f>
+        <f t="shared" si="8"/>
         <v>421439</v>
       </c>
       <c r="E437" s="2" t="s">
@@ -10954,13 +10957,35 @@
         <v>4318.8571428571431</v>
       </c>
       <c r="D438">
-        <f>SUM(B7:B438)</f>
+        <f t="shared" si="8"/>
         <v>424908</v>
       </c>
       <c r="E438" s="2" t="s">
         <v>443</v>
       </c>
       <c r="F438" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>444</v>
+      </c>
+      <c r="B439">
+        <v>4212</v>
+      </c>
+      <c r="C439" s="1">
+        <f t="shared" si="7"/>
+        <v>4326.8571428571431</v>
+      </c>
+      <c r="D439">
+        <f t="shared" si="8"/>
+        <v>429120</v>
+      </c>
+      <c r="E439" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F439" s="2" t="s">
         <v>443</v>
       </c>
     </row>

--- a/ontario_daily_cases.xlsx
+++ b/ontario_daily_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EEB2B7-715C-C345-B7EE-5907AAB0F116}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E43BFF-B254-B04A-87BD-09E509F98BF0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="446">
   <si>
     <t>New cases</t>
   </si>
@@ -1366,6 +1366,9 @@
   </si>
   <si>
     <t>Wed Apr 21 2021</t>
+  </si>
+  <si>
+    <t>Thu Apr 22 2021</t>
   </si>
 </sst>
 </file>
@@ -1727,10 +1730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1917BCDE-B3C2-FF4A-8B47-29076C29F28C}">
-  <dimension ref="A1:F439"/>
+  <dimension ref="A1:F440"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="Q428" sqref="Q428"/>
+      <selection activeCell="G440" sqref="G440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10381,7 +10384,7 @@
         <v>2380</v>
       </c>
       <c r="C412" s="1">
-        <f t="shared" ref="C412:C439" si="7">AVERAGE(B406:B412)</f>
+        <f t="shared" ref="C412:C440" si="7">AVERAGE(B406:B412)</f>
         <v>1794.4285714285713</v>
       </c>
       <c r="D412">
@@ -10847,7 +10850,7 @@
         <v>4208.4285714285716</v>
       </c>
       <c r="D433">
-        <f t="shared" ref="D433:D439" si="8">SUM(B2:B433)</f>
+        <f t="shared" ref="D433:D440" si="8">SUM(B2:B433)</f>
         <v>403570</v>
       </c>
       <c r="E433" s="2" t="s">
@@ -10986,6 +10989,28 @@
         <v>443</v>
       </c>
       <c r="F439" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>445</v>
+      </c>
+      <c r="B440">
+        <v>3682</v>
+      </c>
+      <c r="C440" s="1">
+        <f t="shared" si="7"/>
+        <v>4176.2857142857147</v>
+      </c>
+      <c r="D440">
+        <f t="shared" si="8"/>
+        <v>432802</v>
+      </c>
+      <c r="E440" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F440" s="2" t="s">
         <v>443</v>
       </c>
     </row>

--- a/ontario_daily_cases.xlsx
+++ b/ontario_daily_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E43BFF-B254-B04A-87BD-09E509F98BF0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABE433D-6473-6E44-9D07-9E2F1F061C83}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="447">
   <si>
     <t>New cases</t>
   </si>
@@ -1369,6 +1369,9 @@
   </si>
   <si>
     <t>Thu Apr 22 2021</t>
+  </si>
+  <si>
+    <t>Fri Apr 23 2021</t>
   </si>
 </sst>
 </file>
@@ -1730,10 +1733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1917BCDE-B3C2-FF4A-8B47-29076C29F28C}">
-  <dimension ref="A1:F440"/>
+  <dimension ref="A1:F441"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="G440" sqref="G440"/>
+      <selection activeCell="K427" sqref="K427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10384,7 +10387,7 @@
         <v>2380</v>
       </c>
       <c r="C412" s="1">
-        <f t="shared" ref="C412:C440" si="7">AVERAGE(B406:B412)</f>
+        <f t="shared" ref="C412:C441" si="7">AVERAGE(B406:B412)</f>
         <v>1794.4285714285713</v>
       </c>
       <c r="D412">
@@ -10850,7 +10853,7 @@
         <v>4208.4285714285716</v>
       </c>
       <c r="D433">
-        <f t="shared" ref="D433:D440" si="8">SUM(B2:B433)</f>
+        <f t="shared" ref="D433:D441" si="8">SUM(B2:B433)</f>
         <v>403570</v>
       </c>
       <c r="E433" s="2" t="s">
@@ -11011,6 +11014,28 @@
         <v>443</v>
       </c>
       <c r="F440" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>446</v>
+      </c>
+      <c r="B441">
+        <v>4505</v>
+      </c>
+      <c r="C441" s="1">
+        <f t="shared" si="7"/>
+        <v>4132.4285714285716</v>
+      </c>
+      <c r="D441">
+        <f t="shared" si="8"/>
+        <v>437307</v>
+      </c>
+      <c r="E441" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F441" s="2" t="s">
         <v>443</v>
       </c>
     </row>

--- a/ontario_daily_cases.xlsx
+++ b/ontario_daily_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABE433D-6473-6E44-9D07-9E2F1F061C83}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FFA021-431D-3943-9C21-C3FE31FF45EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="448">
   <si>
     <t>New cases</t>
   </si>
@@ -1372,6 +1372,9 @@
   </si>
   <si>
     <t>Fri Apr 23 2021</t>
+  </si>
+  <si>
+    <t>Sat Apr 24 2021</t>
   </si>
 </sst>
 </file>
@@ -1733,10 +1736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1917BCDE-B3C2-FF4A-8B47-29076C29F28C}">
-  <dimension ref="A1:F441"/>
+  <dimension ref="A1:F442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="K427" sqref="K427"/>
+    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
+      <selection activeCell="I439" sqref="I439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10387,7 +10390,7 @@
         <v>2380</v>
       </c>
       <c r="C412" s="1">
-        <f t="shared" ref="C412:C441" si="7">AVERAGE(B406:B412)</f>
+        <f t="shared" ref="C412:C442" si="7">AVERAGE(B406:B412)</f>
         <v>1794.4285714285713</v>
       </c>
       <c r="D412">
@@ -10853,7 +10856,7 @@
         <v>4208.4285714285716</v>
       </c>
       <c r="D433">
-        <f t="shared" ref="D433:D441" si="8">SUM(B2:B433)</f>
+        <f t="shared" ref="D433:D442" si="8">SUM(B2:B433)</f>
         <v>403570</v>
       </c>
       <c r="E433" s="2" t="s">
@@ -11036,6 +11039,28 @@
         <v>443</v>
       </c>
       <c r="F441" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>447</v>
+      </c>
+      <c r="B442">
+        <v>4094</v>
+      </c>
+      <c r="C442" s="1">
+        <f t="shared" si="7"/>
+        <v>4094.1428571428573</v>
+      </c>
+      <c r="D442">
+        <f t="shared" si="8"/>
+        <v>441401</v>
+      </c>
+      <c r="E442" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F442" s="2" t="s">
         <v>443</v>
       </c>
     </row>

--- a/ontario_daily_cases.xlsx
+++ b/ontario_daily_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FFA021-431D-3943-9C21-C3FE31FF45EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B329B953-3C00-0342-A09E-7B0F4E9255A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="449">
   <si>
     <t>New cases</t>
   </si>
@@ -1375,6 +1375,9 @@
   </si>
   <si>
     <t>Sat Apr 24 2021</t>
+  </si>
+  <si>
+    <t>Sun Apr 25 2021</t>
   </si>
 </sst>
 </file>
@@ -1736,10 +1739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1917BCDE-B3C2-FF4A-8B47-29076C29F28C}">
-  <dimension ref="A1:F442"/>
+  <dimension ref="A1:F443"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="I439" sqref="I439"/>
+      <selection activeCell="K425" sqref="K425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10390,7 +10393,7 @@
         <v>2380</v>
       </c>
       <c r="C412" s="1">
-        <f t="shared" ref="C412:C442" si="7">AVERAGE(B406:B412)</f>
+        <f t="shared" ref="C412:C443" si="7">AVERAGE(B406:B412)</f>
         <v>1794.4285714285713</v>
       </c>
       <c r="D412">
@@ -10856,7 +10859,7 @@
         <v>4208.4285714285716</v>
       </c>
       <c r="D433">
-        <f t="shared" ref="D433:D442" si="8">SUM(B2:B433)</f>
+        <f t="shared" ref="D433:D443" si="8">SUM(B2:B433)</f>
         <v>403570</v>
       </c>
       <c r="E433" s="2" t="s">
@@ -11061,6 +11064,28 @@
         <v>443</v>
       </c>
       <c r="F442" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>448</v>
+      </c>
+      <c r="B443">
+        <v>3947</v>
+      </c>
+      <c r="C443" s="1">
+        <f t="shared" si="7"/>
+        <v>4050.8571428571427</v>
+      </c>
+      <c r="D443">
+        <f t="shared" si="8"/>
+        <v>445348</v>
+      </c>
+      <c r="E443" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F443" s="2" t="s">
         <v>443</v>
       </c>
     </row>

--- a/ontario_daily_cases.xlsx
+++ b/ontario_daily_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B329B953-3C00-0342-A09E-7B0F4E9255A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C968758-B023-4244-9530-4CB562F4FA81}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="451">
   <si>
     <t>New cases</t>
   </si>
@@ -1378,6 +1378,12 @@
   </si>
   <si>
     <t>Sun Apr 25 2021</t>
+  </si>
+  <si>
+    <t>Mon Apr 26 2021</t>
+  </si>
+  <si>
+    <t>Tue Apr 27 2021</t>
   </si>
 </sst>
 </file>
@@ -1739,10 +1745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1917BCDE-B3C2-FF4A-8B47-29076C29F28C}">
-  <dimension ref="A1:F443"/>
+  <dimension ref="A1:F445"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="K425" sqref="K425"/>
+      <selection activeCell="G446" sqref="G446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10393,7 +10399,7 @@
         <v>2380</v>
       </c>
       <c r="C412" s="1">
-        <f t="shared" ref="C412:C443" si="7">AVERAGE(B406:B412)</f>
+        <f t="shared" ref="C412:C445" si="7">AVERAGE(B406:B412)</f>
         <v>1794.4285714285713</v>
       </c>
       <c r="D412">
@@ -10859,7 +10865,7 @@
         <v>4208.4285714285716</v>
       </c>
       <c r="D433">
-        <f t="shared" ref="D433:D443" si="8">SUM(B2:B433)</f>
+        <f t="shared" ref="D433:D445" si="8">SUM(B2:B433)</f>
         <v>403570</v>
       </c>
       <c r="E433" s="2" t="s">
@@ -11087,6 +11093,44 @@
       </c>
       <c r="F443" s="2" t="s">
         <v>443</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>449</v>
+      </c>
+      <c r="B444">
+        <v>3510</v>
+      </c>
+      <c r="C444" s="1">
+        <f t="shared" si="7"/>
+        <v>3917</v>
+      </c>
+      <c r="D444">
+        <f t="shared" si="8"/>
+        <v>448858</v>
+      </c>
+      <c r="E444" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F444" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>450</v>
+      </c>
+      <c r="B445">
+        <v>3265</v>
+      </c>
+      <c r="C445" s="1">
+        <f t="shared" si="7"/>
+        <v>3887.8571428571427</v>
+      </c>
+      <c r="D445">
+        <f t="shared" si="8"/>
+        <v>452123</v>
       </c>
     </row>
   </sheetData>

--- a/ontario_daily_cases.xlsx
+++ b/ontario_daily_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C968758-B023-4244-9530-4CB562F4FA81}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AC7D10-927B-4041-9206-A959D57DB20C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="452">
   <si>
     <t>New cases</t>
   </si>
@@ -1384,6 +1384,9 @@
   </si>
   <si>
     <t>Tue Apr 27 2021</t>
+  </si>
+  <si>
+    <t>Wed Apr 28 2021</t>
   </si>
 </sst>
 </file>
@@ -1745,10 +1748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1917BCDE-B3C2-FF4A-8B47-29076C29F28C}">
-  <dimension ref="A1:F445"/>
+  <dimension ref="A1:F446"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="G446" sqref="G446"/>
+      <selection activeCell="H443" sqref="H443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10399,7 +10402,7 @@
         <v>2380</v>
       </c>
       <c r="C412" s="1">
-        <f t="shared" ref="C412:C445" si="7">AVERAGE(B406:B412)</f>
+        <f t="shared" ref="C412:C446" si="7">AVERAGE(B406:B412)</f>
         <v>1794.4285714285713</v>
       </c>
       <c r="D412">
@@ -10865,7 +10868,7 @@
         <v>4208.4285714285716</v>
       </c>
       <c r="D433">
-        <f t="shared" ref="D433:D445" si="8">SUM(B2:B433)</f>
+        <f t="shared" ref="D433:D446" si="8">SUM(B2:B433)</f>
         <v>403570</v>
       </c>
       <c r="E433" s="2" t="s">
@@ -11131,6 +11134,34 @@
       <c r="D445">
         <f t="shared" si="8"/>
         <v>452123</v>
+      </c>
+      <c r="E445" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F445" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>451</v>
+      </c>
+      <c r="B446">
+        <v>3480</v>
+      </c>
+      <c r="C446" s="1">
+        <f t="shared" si="7"/>
+        <v>3783.2857142857142</v>
+      </c>
+      <c r="D446">
+        <f t="shared" si="8"/>
+        <v>455603</v>
+      </c>
+      <c r="E446" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F446" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
   </sheetData>

--- a/ontario_daily_cases.xlsx
+++ b/ontario_daily_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AC7D10-927B-4041-9206-A959D57DB20C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4C7048-FC92-4D42-A579-BF8FC3091800}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="453">
   <si>
     <t>New cases</t>
   </si>
@@ -1387,6 +1387,9 @@
   </si>
   <si>
     <t>Wed Apr 28 2021</t>
+  </si>
+  <si>
+    <t>Thu Apr 29 2021</t>
   </si>
 </sst>
 </file>
@@ -1748,10 +1751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1917BCDE-B3C2-FF4A-8B47-29076C29F28C}">
-  <dimension ref="A1:F446"/>
+  <dimension ref="A1:F447"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="H443" sqref="H443"/>
+      <selection activeCell="H444" sqref="H444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10402,7 +10405,7 @@
         <v>2380</v>
       </c>
       <c r="C412" s="1">
-        <f t="shared" ref="C412:C446" si="7">AVERAGE(B406:B412)</f>
+        <f t="shared" ref="C412:C447" si="7">AVERAGE(B406:B412)</f>
         <v>1794.4285714285713</v>
       </c>
       <c r="D412">
@@ -10868,7 +10871,7 @@
         <v>4208.4285714285716</v>
       </c>
       <c r="D433">
-        <f t="shared" ref="D433:D446" si="8">SUM(B2:B433)</f>
+        <f t="shared" ref="D433:D447" si="8">SUM(B2:B433)</f>
         <v>403570</v>
       </c>
       <c r="E433" s="2" t="s">
@@ -11161,6 +11164,28 @@
         <v>443</v>
       </c>
       <c r="F446" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>452</v>
+      </c>
+      <c r="B447">
+        <v>3871</v>
+      </c>
+      <c r="C447" s="1">
+        <f t="shared" si="7"/>
+        <v>3810.2857142857142</v>
+      </c>
+      <c r="D447">
+        <f t="shared" si="8"/>
+        <v>459474</v>
+      </c>
+      <c r="E447" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F447" s="2" t="s">
         <v>443</v>
       </c>
     </row>

--- a/ontario_daily_cases.xlsx
+++ b/ontario_daily_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4C7048-FC92-4D42-A579-BF8FC3091800}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F0BBEF-A195-F34C-82C3-6BA4BFD3F9F6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="454">
   <si>
     <t>New cases</t>
   </si>
@@ -1390,6 +1390,9 @@
   </si>
   <si>
     <t>Thu Apr 29 2021</t>
+  </si>
+  <si>
+    <t>Fri Apr 30 2021</t>
   </si>
 </sst>
 </file>
@@ -1751,10 +1754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1917BCDE-B3C2-FF4A-8B47-29076C29F28C}">
-  <dimension ref="A1:F447"/>
+  <dimension ref="A1:F448"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="H444" sqref="H444"/>
+      <selection activeCell="I443" sqref="I443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10405,7 +10408,7 @@
         <v>2380</v>
       </c>
       <c r="C412" s="1">
-        <f t="shared" ref="C412:C447" si="7">AVERAGE(B406:B412)</f>
+        <f t="shared" ref="C412:C448" si="7">AVERAGE(B406:B412)</f>
         <v>1794.4285714285713</v>
       </c>
       <c r="D412">
@@ -10871,7 +10874,7 @@
         <v>4208.4285714285716</v>
       </c>
       <c r="D433">
-        <f t="shared" ref="D433:D447" si="8">SUM(B2:B433)</f>
+        <f t="shared" ref="D433:D448" si="8">SUM(B2:B433)</f>
         <v>403570</v>
       </c>
       <c r="E433" s="2" t="s">
@@ -11186,6 +11189,28 @@
         <v>443</v>
       </c>
       <c r="F447" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>453</v>
+      </c>
+      <c r="B448">
+        <v>3887</v>
+      </c>
+      <c r="C448" s="1">
+        <f t="shared" si="7"/>
+        <v>3722</v>
+      </c>
+      <c r="D448">
+        <f t="shared" si="8"/>
+        <v>463361</v>
+      </c>
+      <c r="E448" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F448" s="2" t="s">
         <v>443</v>
       </c>
     </row>

--- a/ontario_daily_cases.xlsx
+++ b/ontario_daily_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F0BBEF-A195-F34C-82C3-6BA4BFD3F9F6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E848D66-3CF0-324C-8C02-6DFD69F5EB43}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" xr2:uid="{DB16FDA9-4658-5248-A404-F85D2D663813}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="455">
   <si>
     <t>New cases</t>
   </si>
@@ -1393,6 +1393,9 @@
   </si>
   <si>
     <t>Fri Apr 30 2021</t>
+  </si>
+  <si>
+    <t>Sat May 1 2021</t>
   </si>
 </sst>
 </file>
@@ -1754,10 +1757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1917BCDE-B3C2-FF4A-8B47-29076C29F28C}">
-  <dimension ref="A1:F448"/>
+  <dimension ref="A1:F449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="I443" sqref="I443"/>
+      <selection activeCell="K436" sqref="K436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11214,6 +11217,28 @@
         <v>443</v>
       </c>
     </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>454</v>
+      </c>
+      <c r="B449">
+        <v>3369</v>
+      </c>
+      <c r="C449" s="1">
+        <f t="shared" ref="C449" si="9">AVERAGE(B443:B449)</f>
+        <v>3618.4285714285716</v>
+      </c>
+      <c r="D449">
+        <f t="shared" ref="D449" si="10">SUM(B18:B449)</f>
+        <v>466730</v>
+      </c>
+      <c r="E449" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F449" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
